--- a/SimulationStudyData/Model2/SimCase9_Yobs_SimRun5.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_Yobs_SimRun5.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.3323608867866</v>
+        <v>8.65990603162483</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2515487845825</v>
+        <v>10.3503859174529</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4523717543274</v>
+        <v>11.267105152686</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9466529356622</v>
+        <v>13.0755657741713</v>
       </c>
       <c r="E2" t="n">
-        <v>12.0116655153356</v>
+        <v>12.0963736107955</v>
       </c>
       <c r="F2" t="n">
-        <v>12.5213991685655</v>
+        <v>13.5176973232412</v>
       </c>
       <c r="G2" t="n">
-        <v>12.3769811967404</v>
+        <v>12.8819700783492</v>
       </c>
       <c r="H2" t="n">
-        <v>12.1742178158932</v>
+        <v>12.1708892825987</v>
       </c>
       <c r="I2" t="n">
-        <v>12.846111646734</v>
+        <v>11.5164886467074</v>
       </c>
       <c r="J2" t="n">
-        <v>9.93430148592195</v>
+        <v>10.989933633742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.7270648153628</v>
+        <v>8.87667784293225</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0231961922631</v>
+        <v>12.2844352927492</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5280867556136</v>
+        <v>11.7249684017928</v>
       </c>
       <c r="D3" t="n">
-        <v>12.874132391768</v>
+        <v>12.6078006675156</v>
       </c>
       <c r="E3" t="n">
-        <v>12.2855210061021</v>
+        <v>12.2361609360837</v>
       </c>
       <c r="F3" t="n">
-        <v>12.8863909128994</v>
+        <v>12.2800117631276</v>
       </c>
       <c r="G3" t="n">
-        <v>12.9136807732088</v>
+        <v>12.0329891258408</v>
       </c>
       <c r="H3" t="n">
-        <v>12.9722398676162</v>
+        <v>11.3770387192597</v>
       </c>
       <c r="I3" t="n">
-        <v>11.0446698649538</v>
+        <v>11.7767594455024</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5040954000617</v>
+        <v>9.26086761768974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.98600634424691</v>
+        <v>9.72264872423703</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.47329703607434</v>
+        <v>10.2743664191666</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.46129193933059</v>
+        <v>11.0050549564906</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.72811941019016</v>
+        <v>13.2094458485043</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.7194291500003</v>
+        <v>14.1949844525688</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.56582061648994</v>
+        <v>12.5440688614845</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.325115118421848</v>
+        <v>12.3278201426744</v>
       </c>
       <c r="H4" t="n">
-        <v>1.20877874493218</v>
+        <v>11.3930816753488</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85578603182159</v>
+        <v>10.9318371174114</v>
       </c>
       <c r="J4" t="n">
-        <v>6.65874579860763</v>
+        <v>12.024090746175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.41778243633509</v>
+        <v>8.83901504762762</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6580640223708</v>
+        <v>11.3611966531254</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3285431459485</v>
+        <v>11.4407592319052</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5966736428339</v>
+        <v>13.1516178013222</v>
       </c>
       <c r="E5" t="n">
-        <v>13.0972008786409</v>
+        <v>12.0357151295289</v>
       </c>
       <c r="F5" t="n">
-        <v>12.2675489100357</v>
+        <v>11.2099754569738</v>
       </c>
       <c r="G5" t="n">
-        <v>11.9337196780972</v>
+        <v>12.4871182756699</v>
       </c>
       <c r="H5" t="n">
-        <v>12.2156687013369</v>
+        <v>11.9431802718584</v>
       </c>
       <c r="I5" t="n">
-        <v>11.6852720209365</v>
+        <v>10.6932870864838</v>
       </c>
       <c r="J5" t="n">
-        <v>9.54198600622475</v>
+        <v>10.4121542103547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.86875292313723</v>
+        <v>-5.33954271476755</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.5327420163851</v>
+        <v>-5.12791426317487</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.86981295879619</v>
+        <v>-5.02149126023443</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.50416689931138</v>
+        <v>-4.71041515122657</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.00818854043141</v>
+        <v>-3.521041868776</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.61020252567338</v>
+        <v>-2.23835358903997</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.22342299087324</v>
+        <v>-0.711244777495766</v>
       </c>
       <c r="H6" t="n">
-        <v>0.897757605268793</v>
+        <v>1.39446336545948</v>
       </c>
       <c r="I6" t="n">
-        <v>3.86569177322877</v>
+        <v>4.0331080202824</v>
       </c>
       <c r="J6" t="n">
-        <v>6.45754562161156</v>
+        <v>6.88166819268387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.97667174178216</v>
+        <v>-5.58555418559186</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.37089304933215</v>
+        <v>-5.14532769976427</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.1484479446874</v>
+        <v>-5.41576480660382</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.72141991355977</v>
+        <v>-4.35102494494118</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.66667396337633</v>
+        <v>-4.03505680397761</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.50635877546554</v>
+        <v>-2.73713902408506</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.762509858079821</v>
+        <v>-0.682305769980854</v>
       </c>
       <c r="H7" t="n">
-        <v>1.30790729570524</v>
+        <v>1.47664633543322</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45626709715084</v>
+        <v>3.90814897478014</v>
       </c>
       <c r="J7" t="n">
-        <v>7.00478351914198</v>
+        <v>6.76047278013382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.50906105096592</v>
+        <v>9.01189326971193</v>
       </c>
       <c r="B8" t="n">
-        <v>10.1569258584681</v>
+        <v>10.076497707068</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7107829950007</v>
+        <v>11.5761715924709</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7824674939025</v>
+        <v>11.100497995158</v>
       </c>
       <c r="E8" t="n">
-        <v>13.3884606858667</v>
+        <v>12.0857253470562</v>
       </c>
       <c r="F8" t="n">
-        <v>13.8273570845158</v>
+        <v>11.0329206210255</v>
       </c>
       <c r="G8" t="n">
-        <v>11.766330696925</v>
+        <v>12.7097448114117</v>
       </c>
       <c r="H8" t="n">
-        <v>10.8104815436384</v>
+        <v>13.220304207922</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5697753155686</v>
+        <v>11.5160018103235</v>
       </c>
       <c r="J8" t="n">
-        <v>12.1460306150054</v>
+        <v>10.6471762466769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.83212692324254</v>
+        <v>11.6762435764897</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.2938343512556</v>
+        <v>11.6602942535484</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.49165326753334</v>
+        <v>13.194023135814</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.68027243064246</v>
+        <v>13.435297042186</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.00754899608033</v>
+        <v>12.52580492704</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.8332222881091</v>
+        <v>12.7589723019445</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.718926877240095</v>
+        <v>13.453179486443</v>
       </c>
       <c r="H9" t="n">
-        <v>0.900169031702799</v>
+        <v>13.1884042982278</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5522297906649</v>
+        <v>12.8077427186136</v>
       </c>
       <c r="J9" t="n">
-        <v>6.45501317480404</v>
+        <v>11.9657826331651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.2291545132142</v>
+        <v>-4.88913448433861</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0944743991482</v>
+        <v>-5.01363553664151</v>
       </c>
       <c r="C10" t="n">
-        <v>11.9566649568601</v>
+        <v>-4.86330353164202</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0785172383111</v>
+        <v>-4.07881753539146</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9518667704318</v>
+        <v>-3.76227209483234</v>
       </c>
       <c r="F10" t="n">
-        <v>11.1114738469487</v>
+        <v>-2.74248979081298</v>
       </c>
       <c r="G10" t="n">
-        <v>12.9865617665154</v>
+        <v>-1.06974682045589</v>
       </c>
       <c r="H10" t="n">
-        <v>13.5543510540645</v>
+        <v>1.69343244321257</v>
       </c>
       <c r="I10" t="n">
-        <v>11.6021446629471</v>
+        <v>4.09407027954254</v>
       </c>
       <c r="J10" t="n">
-        <v>9.9512817045346</v>
+        <v>6.79651159695949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.4312953844663</v>
+        <v>8.53240394194193</v>
       </c>
       <c r="B11" t="n">
-        <v>9.25593737012514</v>
+        <v>11.9945822600463</v>
       </c>
       <c r="C11" t="n">
-        <v>12.3204503308828</v>
+        <v>12.3984033733753</v>
       </c>
       <c r="D11" t="n">
-        <v>12.3652603672478</v>
+        <v>10.8014382802406</v>
       </c>
       <c r="E11" t="n">
-        <v>13.0188829880954</v>
+        <v>11.6239601202748</v>
       </c>
       <c r="F11" t="n">
-        <v>12.8500292888152</v>
+        <v>11.9153200040981</v>
       </c>
       <c r="G11" t="n">
-        <v>11.7658750863921</v>
+        <v>12.4282385230049</v>
       </c>
       <c r="H11" t="n">
-        <v>11.547879574169</v>
+        <v>12.6757803828562</v>
       </c>
       <c r="I11" t="n">
-        <v>9.53196352510324</v>
+        <v>11.3292123803598</v>
       </c>
       <c r="J11" t="n">
-        <v>10.6316855308557</v>
+        <v>10.352350103559</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.71769743626079</v>
+        <v>-4.78162873077739</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6050783961081</v>
+        <v>-5.11165058723944</v>
       </c>
       <c r="C12" t="n">
-        <v>11.9440939581895</v>
+        <v>-5.52271389296183</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2516570697067</v>
+        <v>-4.78855904686366</v>
       </c>
       <c r="E12" t="n">
-        <v>12.7836293963604</v>
+        <v>-3.78193693547314</v>
       </c>
       <c r="F12" t="n">
-        <v>11.2730272597305</v>
+        <v>-2.59390827237178</v>
       </c>
       <c r="G12" t="n">
-        <v>12.1286336991532</v>
+        <v>-0.987450259954151</v>
       </c>
       <c r="H12" t="n">
-        <v>11.3441325940144</v>
+        <v>1.0181317529561</v>
       </c>
       <c r="I12" t="n">
-        <v>11.4255985364666</v>
+        <v>3.97280590509684</v>
       </c>
       <c r="J12" t="n">
-        <v>10.5621477889911</v>
+        <v>6.74518661473186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.5026553824439</v>
+        <v>10.7820347450698</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6315775016548</v>
+        <v>10.6000419270316</v>
       </c>
       <c r="C13" t="n">
-        <v>11.1463995675596</v>
+        <v>12.4654816228674</v>
       </c>
       <c r="D13" t="n">
-        <v>11.1533218128057</v>
+        <v>12.6868173235844</v>
       </c>
       <c r="E13" t="n">
-        <v>12.098561503373</v>
+        <v>11.5348907516633</v>
       </c>
       <c r="F13" t="n">
-        <v>12.4620276724056</v>
+        <v>11.4331829969877</v>
       </c>
       <c r="G13" t="n">
-        <v>12.9634267464777</v>
+        <v>13.0631893793034</v>
       </c>
       <c r="H13" t="n">
-        <v>12.8878466489123</v>
+        <v>11.3684415116699</v>
       </c>
       <c r="I13" t="n">
-        <v>11.1731988320362</v>
+        <v>11.4148484939962</v>
       </c>
       <c r="J13" t="n">
-        <v>12.4978317439535</v>
+        <v>10.1902436613979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.72383434691193</v>
+        <v>-4.95466432837871</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8030258440058</v>
+        <v>-5.52523905792846</v>
       </c>
       <c r="C14" t="n">
-        <v>12.5117459754026</v>
+        <v>-4.94462132542112</v>
       </c>
       <c r="D14" t="n">
-        <v>12.0895348313934</v>
+        <v>-4.95226583810546</v>
       </c>
       <c r="E14" t="n">
-        <v>12.7320531056408</v>
+        <v>-3.77322275054871</v>
       </c>
       <c r="F14" t="n">
-        <v>12.0250166067873</v>
+        <v>-2.04139012981258</v>
       </c>
       <c r="G14" t="n">
-        <v>11.268348911865</v>
+        <v>-0.93677091959831</v>
       </c>
       <c r="H14" t="n">
-        <v>13.498233667796</v>
+        <v>1.20478514447752</v>
       </c>
       <c r="I14" t="n">
-        <v>10.9972807620344</v>
+        <v>3.9329641796389</v>
       </c>
       <c r="J14" t="n">
-        <v>9.96418322816226</v>
+        <v>7.27826671167762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.80285997158026</v>
+        <v>10.3257574825738</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.95112389715324</v>
+        <v>9.98491363706377</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.98706647440613</v>
+        <v>11.8214901468731</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.71723211397794</v>
+        <v>11.2436850904381</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.89234303069075</v>
+        <v>12.0100777960359</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.42188305866913</v>
+        <v>11.8780901488337</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.834032577582743</v>
+        <v>11.6106559189668</v>
       </c>
       <c r="H15" t="n">
-        <v>1.40159501931892</v>
+        <v>12.40757575446</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1479892904102</v>
+        <v>11.8083632335605</v>
       </c>
       <c r="J15" t="n">
-        <v>7.19262920438977</v>
+        <v>11.1578687667781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.32512954195106</v>
+        <v>11.4639933902344</v>
       </c>
       <c r="B16" t="n">
-        <v>11.2605109072076</v>
+        <v>10.9953742572023</v>
       </c>
       <c r="C16" t="n">
-        <v>11.8836160828137</v>
+        <v>11.2227525960058</v>
       </c>
       <c r="D16" t="n">
-        <v>13.5108550566237</v>
+        <v>12.4503050295358</v>
       </c>
       <c r="E16" t="n">
-        <v>12.7634226553573</v>
+        <v>12.4539610449321</v>
       </c>
       <c r="F16" t="n">
-        <v>11.2663750826363</v>
+        <v>11.9000844171348</v>
       </c>
       <c r="G16" t="n">
-        <v>12.2073742651001</v>
+        <v>11.1665668270716</v>
       </c>
       <c r="H16" t="n">
-        <v>13.3731801468339</v>
+        <v>12.176363021477</v>
       </c>
       <c r="I16" t="n">
-        <v>12.2353245480736</v>
+        <v>12.6331262508087</v>
       </c>
       <c r="J16" t="n">
-        <v>10.4843590990029</v>
+        <v>9.05862242785657</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.50850178819301</v>
+        <v>10.8693167189951</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.2673280695401</v>
+        <v>11.2398973807362</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.26166355013938</v>
+        <v>12.3486812123973</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.39199122396447</v>
+        <v>11.4681422089899</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.91700195599169</v>
+        <v>12.8009515771576</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.280464135993</v>
+        <v>13.352069401869</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.579768601357755</v>
+        <v>12.5224421493742</v>
       </c>
       <c r="H17" t="n">
-        <v>1.62192648065813</v>
+        <v>12.3645103011714</v>
       </c>
       <c r="I17" t="n">
-        <v>4.0960970546164</v>
+        <v>12.0318047092387</v>
       </c>
       <c r="J17" t="n">
-        <v>6.57276932918682</v>
+        <v>11.2632819418144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.6477341600731</v>
+        <v>11.6497524314275</v>
       </c>
       <c r="B18" t="n">
-        <v>11.0999890787602</v>
+        <v>10.6496157705729</v>
       </c>
       <c r="C18" t="n">
-        <v>11.6117654264218</v>
+        <v>11.7107012487855</v>
       </c>
       <c r="D18" t="n">
-        <v>11.0263667404151</v>
+        <v>12.2030187259843</v>
       </c>
       <c r="E18" t="n">
-        <v>12.8721516826492</v>
+        <v>11.5649410280937</v>
       </c>
       <c r="F18" t="n">
-        <v>12.3361253139676</v>
+        <v>13.2718554718038</v>
       </c>
       <c r="G18" t="n">
-        <v>11.9578591887878</v>
+        <v>13.1104793361841</v>
       </c>
       <c r="H18" t="n">
-        <v>10.251954361792</v>
+        <v>11.5758639679863</v>
       </c>
       <c r="I18" t="n">
-        <v>10.391195156097</v>
+        <v>13.0984861805212</v>
       </c>
       <c r="J18" t="n">
-        <v>12.5551806495686</v>
+        <v>11.4099589469486</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.79583775548843</v>
+        <v>10.6534678578231</v>
       </c>
       <c r="B19" t="n">
-        <v>11.9466260918417</v>
+        <v>11.2742852063408</v>
       </c>
       <c r="C19" t="n">
-        <v>10.06478517826</v>
+        <v>13.2057087853602</v>
       </c>
       <c r="D19" t="n">
-        <v>11.105956888025</v>
+        <v>12.5623443284603</v>
       </c>
       <c r="E19" t="n">
-        <v>13.1558538136814</v>
+        <v>11.9532534618052</v>
       </c>
       <c r="F19" t="n">
-        <v>12.1289833278144</v>
+        <v>11.9087833972198</v>
       </c>
       <c r="G19" t="n">
-        <v>12.560735074144</v>
+        <v>11.6258354529802</v>
       </c>
       <c r="H19" t="n">
-        <v>13.1929101683369</v>
+        <v>12.6913927293166</v>
       </c>
       <c r="I19" t="n">
-        <v>12.4015771554108</v>
+        <v>12.4288648878414</v>
       </c>
       <c r="J19" t="n">
-        <v>10.9269357352266</v>
+        <v>13.002631478044</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.0422817872862</v>
+        <v>10.7765996340257</v>
       </c>
       <c r="B20" t="n">
-        <v>11.0239819839873</v>
+        <v>10.9574113811209</v>
       </c>
       <c r="C20" t="n">
-        <v>10.3381820234823</v>
+        <v>11.5857466914756</v>
       </c>
       <c r="D20" t="n">
-        <v>11.4819949455663</v>
+        <v>12.2133460746938</v>
       </c>
       <c r="E20" t="n">
-        <v>11.3623633278131</v>
+        <v>13.7335076854906</v>
       </c>
       <c r="F20" t="n">
-        <v>11.3425953914309</v>
+        <v>11.6010661739447</v>
       </c>
       <c r="G20" t="n">
-        <v>11.7580780038583</v>
+        <v>13.087313597651</v>
       </c>
       <c r="H20" t="n">
-        <v>12.0259663718523</v>
+        <v>11.7460096267121</v>
       </c>
       <c r="I20" t="n">
-        <v>11.0738974592678</v>
+        <v>11.1948778188001</v>
       </c>
       <c r="J20" t="n">
-        <v>11.3373537794632</v>
+        <v>11.8123108279897</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.1675772007588</v>
+        <v>9.24355204434901</v>
       </c>
       <c r="B21" t="n">
-        <v>9.79301740050771</v>
+        <v>10.2803346841398</v>
       </c>
       <c r="C21" t="n">
-        <v>11.8357604987767</v>
+        <v>11.7760684793754</v>
       </c>
       <c r="D21" t="n">
-        <v>12.6692884310987</v>
+        <v>12.1976715293931</v>
       </c>
       <c r="E21" t="n">
-        <v>12.4701461894985</v>
+        <v>12.3790296345431</v>
       </c>
       <c r="F21" t="n">
-        <v>11.7829494369587</v>
+        <v>12.5293670985448</v>
       </c>
       <c r="G21" t="n">
-        <v>12.5423750142441</v>
+        <v>11.9148374187015</v>
       </c>
       <c r="H21" t="n">
-        <v>12.5553805674768</v>
+        <v>13.6313091419277</v>
       </c>
       <c r="I21" t="n">
-        <v>10.9936542134786</v>
+        <v>12.0361554295173</v>
       </c>
       <c r="J21" t="n">
-        <v>10.8759312080939</v>
+        <v>8.85679231478364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.58510052588351</v>
+        <v>9.48847744866598</v>
       </c>
       <c r="B22" t="n">
-        <v>10.9078991879445</v>
+        <v>9.9532337299966</v>
       </c>
       <c r="C22" t="n">
-        <v>10.2165261090516</v>
+        <v>12.02365838216</v>
       </c>
       <c r="D22" t="n">
-        <v>12.4860564770183</v>
+        <v>11.3338382143719</v>
       </c>
       <c r="E22" t="n">
-        <v>12.7354521922341</v>
+        <v>12.6879291930004</v>
       </c>
       <c r="F22" t="n">
-        <v>11.3132617377719</v>
+        <v>12.0718748431931</v>
       </c>
       <c r="G22" t="n">
-        <v>13.1672930538443</v>
+        <v>12.2139293488002</v>
       </c>
       <c r="H22" t="n">
-        <v>12.4494827467018</v>
+        <v>12.5452152599863</v>
       </c>
       <c r="I22" t="n">
-        <v>11.7124024934365</v>
+        <v>10.8302011312741</v>
       </c>
       <c r="J22" t="n">
-        <v>10.4478818825</v>
+        <v>11.1927378350605</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.4908865804133</v>
+        <v>-5.07311700569901</v>
       </c>
       <c r="B23" t="n">
-        <v>11.6678853272964</v>
+        <v>-5.10251775360148</v>
       </c>
       <c r="C23" t="n">
-        <v>11.8295377573525</v>
+        <v>-4.89486137543162</v>
       </c>
       <c r="D23" t="n">
-        <v>12.3570169003367</v>
+        <v>-5.04734823418525</v>
       </c>
       <c r="E23" t="n">
-        <v>11.1952148460268</v>
+        <v>-3.54820276038874</v>
       </c>
       <c r="F23" t="n">
-        <v>11.9374550263071</v>
+        <v>-2.88502928825944</v>
       </c>
       <c r="G23" t="n">
-        <v>11.6116492931886</v>
+        <v>-0.669356532655881</v>
       </c>
       <c r="H23" t="n">
-        <v>12.0599028503564</v>
+        <v>1.3924373351869</v>
       </c>
       <c r="I23" t="n">
-        <v>11.8284987316503</v>
+        <v>3.55725889107305</v>
       </c>
       <c r="J23" t="n">
-        <v>11.7332452745335</v>
+        <v>6.77463596332489</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.4601745337575</v>
+        <v>-4.95363283259725</v>
       </c>
       <c r="B24" t="n">
-        <v>10.1537894317655</v>
+        <v>-5.54324709296423</v>
       </c>
       <c r="C24" t="n">
-        <v>11.4100243936919</v>
+        <v>-5.39147284760654</v>
       </c>
       <c r="D24" t="n">
-        <v>11.3581411281319</v>
+        <v>-4.49896562532547</v>
       </c>
       <c r="E24" t="n">
-        <v>12.7103568593542</v>
+        <v>-3.84528275015297</v>
       </c>
       <c r="F24" t="n">
-        <v>12.4796824837381</v>
+        <v>-2.53526025405543</v>
       </c>
       <c r="G24" t="n">
-        <v>11.5456864004913</v>
+        <v>-0.693640394220551</v>
       </c>
       <c r="H24" t="n">
-        <v>11.6828191264739</v>
+        <v>1.56476949129584</v>
       </c>
       <c r="I24" t="n">
-        <v>11.3129039446797</v>
+        <v>3.78015400610409</v>
       </c>
       <c r="J24" t="n">
-        <v>11.3067670773914</v>
+        <v>6.86861069388937</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.89107274691205</v>
+        <v>-4.40372994729467</v>
       </c>
       <c r="B25" t="n">
-        <v>10.7714558951628</v>
+        <v>-5.60911419554662</v>
       </c>
       <c r="C25" t="n">
-        <v>11.2268519906014</v>
+        <v>-5.26077299368759</v>
       </c>
       <c r="D25" t="n">
-        <v>11.6225542856004</v>
+        <v>-4.12655072981987</v>
       </c>
       <c r="E25" t="n">
-        <v>12.8606716063799</v>
+        <v>-3.99416678960309</v>
       </c>
       <c r="F25" t="n">
-        <v>13.0712883079582</v>
+        <v>-2.75301910873977</v>
       </c>
       <c r="G25" t="n">
-        <v>12.4424580719114</v>
+        <v>-0.520946945235823</v>
       </c>
       <c r="H25" t="n">
-        <v>12.6038809077632</v>
+        <v>1.24775880622548</v>
       </c>
       <c r="I25" t="n">
-        <v>12.1758598803639</v>
+        <v>3.88330442221994</v>
       </c>
       <c r="J25" t="n">
-        <v>10.6219494276479</v>
+        <v>6.69097599120641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.96721375933584</v>
+        <v>10.4964907059428</v>
       </c>
       <c r="B26" t="n">
-        <v>11.4411730657765</v>
+        <v>10.2317371781782</v>
       </c>
       <c r="C26" t="n">
-        <v>11.9470349157284</v>
+        <v>11.4452135801306</v>
       </c>
       <c r="D26" t="n">
-        <v>11.5138932185847</v>
+        <v>11.8762662332467</v>
       </c>
       <c r="E26" t="n">
-        <v>12.7714540384945</v>
+        <v>12.2668010928717</v>
       </c>
       <c r="F26" t="n">
-        <v>13.2268880138509</v>
+        <v>13.0241621209023</v>
       </c>
       <c r="G26" t="n">
-        <v>12.0466486811834</v>
+        <v>11.906833425019</v>
       </c>
       <c r="H26" t="n">
-        <v>11.4987286752371</v>
+        <v>12.1637176049901</v>
       </c>
       <c r="I26" t="n">
-        <v>10.0848610362849</v>
+        <v>10.7484338110833</v>
       </c>
       <c r="J26" t="n">
-        <v>10.2513337705793</v>
+        <v>11.4515177293224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.88861432407303</v>
+        <v>-5.10479067274411</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.71609093773373</v>
+        <v>-5.33823146574383</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.97004232151985</v>
+        <v>-5.29288136657649</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.66944829822164</v>
+        <v>-4.8355873598733</v>
       </c>
       <c r="E27" t="n">
-        <v>-3.89241850494537</v>
+        <v>-4.15365097635422</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.25415378270478</v>
+        <v>-2.73621492420607</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.692829499318041</v>
+        <v>-0.863261234471921</v>
       </c>
       <c r="H27" t="n">
-        <v>1.23470703281558</v>
+        <v>1.43403592717691</v>
       </c>
       <c r="I27" t="n">
-        <v>4.00807906433534</v>
+        <v>3.70464677059609</v>
       </c>
       <c r="J27" t="n">
-        <v>6.37169319000214</v>
+        <v>7.13250732063185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.3071108603876</v>
+        <v>-4.69898946230225</v>
       </c>
       <c r="B28" t="n">
-        <v>11.1019955500725</v>
+        <v>-5.05740214336423</v>
       </c>
       <c r="C28" t="n">
-        <v>11.456103172488</v>
+        <v>-4.89025099583101</v>
       </c>
       <c r="D28" t="n">
-        <v>12.7036989012786</v>
+        <v>-4.99826715781407</v>
       </c>
       <c r="E28" t="n">
-        <v>12.0367768279344</v>
+        <v>-3.93799016967407</v>
       </c>
       <c r="F28" t="n">
-        <v>12.6681864701196</v>
+        <v>-2.65070255915872</v>
       </c>
       <c r="G28" t="n">
-        <v>12.2727339580827</v>
+        <v>-0.742476155686929</v>
       </c>
       <c r="H28" t="n">
-        <v>11.2809162639713</v>
+        <v>1.26966664398472</v>
       </c>
       <c r="I28" t="n">
-        <v>11.3629748164895</v>
+        <v>4.25242285722977</v>
       </c>
       <c r="J28" t="n">
-        <v>11.1166762898923</v>
+        <v>6.61837089490879</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.5777773220292</v>
+        <v>-4.97490594823551</v>
       </c>
       <c r="B29" t="n">
-        <v>10.6396395989998</v>
+        <v>-5.53808842187742</v>
       </c>
       <c r="C29" t="n">
-        <v>11.7553807110444</v>
+        <v>-5.16071819078037</v>
       </c>
       <c r="D29" t="n">
-        <v>11.6460129373717</v>
+        <v>-4.82250842920032</v>
       </c>
       <c r="E29" t="n">
-        <v>11.5539575417689</v>
+        <v>-3.86043814400906</v>
       </c>
       <c r="F29" t="n">
-        <v>12.1542196367702</v>
+        <v>-2.48337774632911</v>
       </c>
       <c r="G29" t="n">
-        <v>12.3165628055967</v>
+        <v>-0.460371035175133</v>
       </c>
       <c r="H29" t="n">
-        <v>12.2099538555096</v>
+        <v>1.21689880039591</v>
       </c>
       <c r="I29" t="n">
-        <v>10.6668477017467</v>
+        <v>4.39512673532138</v>
       </c>
       <c r="J29" t="n">
-        <v>10.731482134344</v>
+        <v>6.66495031150112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-5.22622131666733</v>
+        <v>10.9871848165448</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.43393052464352</v>
+        <v>10.9392631854215</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.79028629957445</v>
+        <v>10.7889448709116</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.94580253257457</v>
+        <v>11.356757605396</v>
       </c>
       <c r="E30" t="n">
-        <v>-3.75176177350409</v>
+        <v>13.5918169391818</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.26949985181543</v>
+        <v>12.589526783801</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.990247344641915</v>
+        <v>12.2266942641137</v>
       </c>
       <c r="H30" t="n">
-        <v>1.20522959530898</v>
+        <v>11.1065343459654</v>
       </c>
       <c r="I30" t="n">
-        <v>3.80321957862769</v>
+        <v>10.3428111264442</v>
       </c>
       <c r="J30" t="n">
-        <v>6.83642413085239</v>
+        <v>9.78143158071766</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-5.13449316620363</v>
+        <v>11.0542231776109</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.85321437195648</v>
+        <v>10.0002942801583</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.61741717218287</v>
+        <v>11.7924976422926</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.66449975878786</v>
+        <v>10.4510719442788</v>
       </c>
       <c r="E31" t="n">
-        <v>-4.11799606538421</v>
+        <v>12.6600609005386</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.23781142538639</v>
+        <v>13.278159898622</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.99205943865592</v>
+        <v>12.9541550052204</v>
       </c>
       <c r="H31" t="n">
-        <v>1.31727854378498</v>
+        <v>12.9685532852576</v>
       </c>
       <c r="I31" t="n">
-        <v>3.54899299409079</v>
+        <v>12.0846960760511</v>
       </c>
       <c r="J31" t="n">
-        <v>6.45646049211054</v>
+        <v>10.3984148002534</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-5.11282611520283</v>
+        <v>10.3091909883467</v>
       </c>
       <c r="B32" t="n">
-        <v>-5.05894980746869</v>
+        <v>11.0489402237163</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.03578740885239</v>
+        <v>11.602417497124</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.51747850597423</v>
+        <v>12.3668828718736</v>
       </c>
       <c r="E32" t="n">
-        <v>-3.81507705609262</v>
+        <v>12.8718490485</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.78936591415372</v>
+        <v>11.8640159522951</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.926278457986677</v>
+        <v>12.5323426832946</v>
       </c>
       <c r="H32" t="n">
-        <v>1.86860415990327</v>
+        <v>11.4420306225474</v>
       </c>
       <c r="I32" t="n">
-        <v>3.76155702512212</v>
+        <v>11.7111203587339</v>
       </c>
       <c r="J32" t="n">
-        <v>6.47689393768498</v>
+        <v>11.1940782894988</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.0460651914057</v>
+        <v>10.9444441084515</v>
       </c>
       <c r="B33" t="n">
-        <v>11.7861871720387</v>
+        <v>11.4021111361922</v>
       </c>
       <c r="C33" t="n">
-        <v>10.7774504205217</v>
+        <v>10.7922086451965</v>
       </c>
       <c r="D33" t="n">
-        <v>13.235160962009</v>
+        <v>12.5551933155924</v>
       </c>
       <c r="E33" t="n">
-        <v>12.1544814444181</v>
+        <v>11.8800032646362</v>
       </c>
       <c r="F33" t="n">
-        <v>12.1806266850905</v>
+        <v>13.4595834790423</v>
       </c>
       <c r="G33" t="n">
-        <v>11.9158252512176</v>
+        <v>13.0492153542794</v>
       </c>
       <c r="H33" t="n">
-        <v>11.5734074219278</v>
+        <v>11.311321468226</v>
       </c>
       <c r="I33" t="n">
-        <v>10.9083860908053</v>
+        <v>12.3946053818602</v>
       </c>
       <c r="J33" t="n">
-        <v>11.1726094576402</v>
+        <v>10.2196293358962</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-4.9283099790612</v>
+        <v>-5.05583012054757</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.17085696268489</v>
+        <v>-5.09858294633508</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.26302295589503</v>
+        <v>-5.07516529346956</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.91473524793801</v>
+        <v>-4.59122046638092</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.6386598862602</v>
+        <v>-3.73515413433519</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.62055168315827</v>
+        <v>-2.34562041925186</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.848115437771065</v>
+        <v>-0.713005538770295</v>
       </c>
       <c r="H34" t="n">
-        <v>1.52912482830469</v>
+        <v>1.09860387714899</v>
       </c>
       <c r="I34" t="n">
-        <v>3.99944728161199</v>
+        <v>3.91723447802609</v>
       </c>
       <c r="J34" t="n">
-        <v>6.60513599149856</v>
+        <v>6.42869527584258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.7767032483295</v>
+        <v>8.66255347031343</v>
       </c>
       <c r="B35" t="n">
-        <v>10.5006980473975</v>
+        <v>11.3399694945172</v>
       </c>
       <c r="C35" t="n">
-        <v>12.0050360650834</v>
+        <v>11.4252105497714</v>
       </c>
       <c r="D35" t="n">
-        <v>13.3671266579696</v>
+        <v>12.2559638381073</v>
       </c>
       <c r="E35" t="n">
-        <v>12.5548073911939</v>
+        <v>12.4790274065855</v>
       </c>
       <c r="F35" t="n">
-        <v>13.187452913954</v>
+        <v>12.3915471716615</v>
       </c>
       <c r="G35" t="n">
-        <v>10.9514109735909</v>
+        <v>13.1905693405084</v>
       </c>
       <c r="H35" t="n">
-        <v>11.0645617775508</v>
+        <v>12.5970758782724</v>
       </c>
       <c r="I35" t="n">
-        <v>11.0661039924569</v>
+        <v>12.8610641558624</v>
       </c>
       <c r="J35" t="n">
-        <v>10.5067868526899</v>
+        <v>11.1625749400352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-4.88699386223352</v>
+        <v>9.41762144854577</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.05940691155054</v>
+        <v>9.50300657891905</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.25276097988972</v>
+        <v>11.5484958999489</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.98945686154192</v>
+        <v>11.7724869516329</v>
       </c>
       <c r="E36" t="n">
-        <v>-4.29100024918699</v>
+        <v>13.8515909556075</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.49352087708041</v>
+        <v>11.3029521620786</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.0385205417838</v>
+        <v>11.0147791185406</v>
       </c>
       <c r="H36" t="n">
-        <v>1.50490000376272</v>
+        <v>11.468084885764</v>
       </c>
       <c r="I36" t="n">
-        <v>3.70961805510116</v>
+        <v>11.8740204454785</v>
       </c>
       <c r="J36" t="n">
-        <v>6.99048412309472</v>
+        <v>10.5686392740729</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.4328949162904</v>
+        <v>9.96219378547928</v>
       </c>
       <c r="B37" t="n">
-        <v>11.8310356523399</v>
+        <v>9.83985869342279</v>
       </c>
       <c r="C37" t="n">
-        <v>12.9143753311765</v>
+        <v>11.8826124844148</v>
       </c>
       <c r="D37" t="n">
-        <v>13.6180458446818</v>
+        <v>13.1700877559276</v>
       </c>
       <c r="E37" t="n">
-        <v>12.4005994613119</v>
+        <v>10.5611085536118</v>
       </c>
       <c r="F37" t="n">
-        <v>12.722900200513</v>
+        <v>13.3413534754679</v>
       </c>
       <c r="G37" t="n">
-        <v>12.4042396641299</v>
+        <v>11.4302749430003</v>
       </c>
       <c r="H37" t="n">
-        <v>11.5069146731963</v>
+        <v>11.2451790883855</v>
       </c>
       <c r="I37" t="n">
-        <v>12.7771242625055</v>
+        <v>11.6910771894721</v>
       </c>
       <c r="J37" t="n">
-        <v>10.8942504194289</v>
+        <v>10.9330043997627</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10.0410304563425</v>
+        <v>9.50604427682453</v>
       </c>
       <c r="B38" t="n">
-        <v>11.6229483614313</v>
+        <v>10.8660617918459</v>
       </c>
       <c r="C38" t="n">
-        <v>12.9787163379452</v>
+        <v>10.807385905745</v>
       </c>
       <c r="D38" t="n">
-        <v>12.7327755236507</v>
+        <v>11.4797984855394</v>
       </c>
       <c r="E38" t="n">
-        <v>12.4924169408787</v>
+        <v>13.7947654972103</v>
       </c>
       <c r="F38" t="n">
-        <v>13.7295504649586</v>
+        <v>12.2366945913713</v>
       </c>
       <c r="G38" t="n">
-        <v>12.6133093599111</v>
+        <v>13.5964452963951</v>
       </c>
       <c r="H38" t="n">
-        <v>11.6569497698139</v>
+        <v>12.0114319005415</v>
       </c>
       <c r="I38" t="n">
-        <v>11.0541700791268</v>
+        <v>11.3461414199408</v>
       </c>
       <c r="J38" t="n">
-        <v>11.6371221708881</v>
+        <v>10.5071936970115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-4.99543014965504</v>
+        <v>9.72293912795341</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.33112069088718</v>
+        <v>11.4315598453231</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.12978670051762</v>
+        <v>11.4438716353483</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.59712733107778</v>
+        <v>10.9672370033401</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.89054016567683</v>
+        <v>13.5918127489902</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.02449702499738</v>
+        <v>12.067017022386</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.00111628116563</v>
+        <v>13.2448288584948</v>
       </c>
       <c r="H39" t="n">
-        <v>1.1189254901637</v>
+        <v>11.6132068707755</v>
       </c>
       <c r="I39" t="n">
-        <v>3.99753325672843</v>
+        <v>11.8072335999529</v>
       </c>
       <c r="J39" t="n">
-        <v>6.69359253788895</v>
+        <v>10.5903194036228</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.22096250593381</v>
+        <v>9.56806787437708</v>
       </c>
       <c r="B40" t="n">
-        <v>10.2350287125874</v>
+        <v>10.8637184484945</v>
       </c>
       <c r="C40" t="n">
-        <v>11.696770291821</v>
+        <v>12.255761300208</v>
       </c>
       <c r="D40" t="n">
-        <v>11.6533937088891</v>
+        <v>11.3735164908083</v>
       </c>
       <c r="E40" t="n">
-        <v>12.5863328326243</v>
+        <v>12.707110454766</v>
       </c>
       <c r="F40" t="n">
-        <v>12.1655130179359</v>
+        <v>12.243299502247</v>
       </c>
       <c r="G40" t="n">
-        <v>13.4950086995713</v>
+        <v>13.4552314376629</v>
       </c>
       <c r="H40" t="n">
-        <v>12.5622614511518</v>
+        <v>12.2529284996312</v>
       </c>
       <c r="I40" t="n">
-        <v>11.0012736635724</v>
+        <v>11.5874958620216</v>
       </c>
       <c r="J40" t="n">
-        <v>10.9068459091311</v>
+        <v>12.1840818326522</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.6269835512385</v>
+        <v>-4.70854621509494</v>
       </c>
       <c r="B41" t="n">
-        <v>11.1971906535414</v>
+        <v>-4.97823337786339</v>
       </c>
       <c r="C41" t="n">
-        <v>10.8701718192076</v>
+        <v>-4.70959579473087</v>
       </c>
       <c r="D41" t="n">
-        <v>12.9659034096792</v>
+        <v>-4.85887828367946</v>
       </c>
       <c r="E41" t="n">
-        <v>13.2705073212578</v>
+        <v>-3.92521698471673</v>
       </c>
       <c r="F41" t="n">
-        <v>12.6549258880307</v>
+        <v>-2.8138493397339</v>
       </c>
       <c r="G41" t="n">
-        <v>11.3644877941709</v>
+        <v>-0.903001126143122</v>
       </c>
       <c r="H41" t="n">
-        <v>12.3572672789047</v>
+        <v>1.41768133326694</v>
       </c>
       <c r="I41" t="n">
-        <v>11.0030792046504</v>
+        <v>4.26756299144567</v>
       </c>
       <c r="J41" t="n">
-        <v>10.9608036980834</v>
+        <v>6.39063383695893</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.2986450125111</v>
+        <v>-5.23978486017439</v>
       </c>
       <c r="B42" t="n">
-        <v>10.7779784399107</v>
+        <v>-5.02980953225876</v>
       </c>
       <c r="C42" t="n">
-        <v>10.7629446123469</v>
+        <v>-5.13745783810768</v>
       </c>
       <c r="D42" t="n">
-        <v>11.1221642609007</v>
+        <v>-5.01429579647571</v>
       </c>
       <c r="E42" t="n">
-        <v>12.4781804750543</v>
+        <v>-3.62902260957027</v>
       </c>
       <c r="F42" t="n">
-        <v>11.5960990550766</v>
+        <v>-2.47052497716906</v>
       </c>
       <c r="G42" t="n">
-        <v>12.6160580016785</v>
+        <v>-0.893315236209032</v>
       </c>
       <c r="H42" t="n">
-        <v>13.2637322128556</v>
+        <v>1.26682591394739</v>
       </c>
       <c r="I42" t="n">
-        <v>11.8218391920134</v>
+        <v>3.87133897044206</v>
       </c>
       <c r="J42" t="n">
-        <v>10.7385324721351</v>
+        <v>6.70257270674637</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-4.97409666070112</v>
+        <v>9.35445410343273</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.31640444106461</v>
+        <v>11.6994248796776</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.31703664100771</v>
+        <v>10.4115012926816</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.40353824909828</v>
+        <v>11.8774506511715</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.10706562233497</v>
+        <v>12.2682425707563</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.10989117801975</v>
+        <v>12.4702889307666</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.00372985117454</v>
+        <v>12.2030194525876</v>
       </c>
       <c r="H43" t="n">
-        <v>1.72562657344295</v>
+        <v>11.949343346683</v>
       </c>
       <c r="I43" t="n">
-        <v>3.49160894738564</v>
+        <v>12.2037161579395</v>
       </c>
       <c r="J43" t="n">
-        <v>6.68415782829726</v>
+        <v>10.94545588744</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.4116505274741</v>
+        <v>-4.76685657814905</v>
       </c>
       <c r="B44" t="n">
-        <v>11.2784646240812</v>
+        <v>-5.5105954008652</v>
       </c>
       <c r="C44" t="n">
-        <v>11.763470921731</v>
+        <v>-5.3902656012395</v>
       </c>
       <c r="D44" t="n">
-        <v>11.834814463844</v>
+        <v>-4.58080268039495</v>
       </c>
       <c r="E44" t="n">
-        <v>11.6057901171053</v>
+        <v>-3.67129760752114</v>
       </c>
       <c r="F44" t="n">
-        <v>14.3104784314692</v>
+        <v>-2.56758836844708</v>
       </c>
       <c r="G44" t="n">
-        <v>12.8609664370009</v>
+        <v>-0.547222395949061</v>
       </c>
       <c r="H44" t="n">
-        <v>11.7976974429392</v>
+        <v>1.25258625226157</v>
       </c>
       <c r="I44" t="n">
-        <v>10.7895217032</v>
+        <v>4.12111195765384</v>
       </c>
       <c r="J44" t="n">
-        <v>11.3973525514663</v>
+        <v>6.77138888231446</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.5728261711241</v>
+        <v>9.7282323449399</v>
       </c>
       <c r="B45" t="n">
-        <v>11.4906652462818</v>
+        <v>11.7369385697786</v>
       </c>
       <c r="C45" t="n">
-        <v>11.1448781014243</v>
+        <v>12.1476911863382</v>
       </c>
       <c r="D45" t="n">
-        <v>10.0157522322911</v>
+        <v>11.085405244679</v>
       </c>
       <c r="E45" t="n">
-        <v>12.1102192215789</v>
+        <v>12.4306565365865</v>
       </c>
       <c r="F45" t="n">
-        <v>12.2408552165656</v>
+        <v>10.8259194397047</v>
       </c>
       <c r="G45" t="n">
-        <v>11.6746112280097</v>
+        <v>13.0248806442461</v>
       </c>
       <c r="H45" t="n">
-        <v>11.6825833553044</v>
+        <v>12.5061459485077</v>
       </c>
       <c r="I45" t="n">
-        <v>12.2567566104739</v>
+        <v>10.7813677536927</v>
       </c>
       <c r="J45" t="n">
-        <v>11.7146544055433</v>
+        <v>10.5450309594526</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-4.76669216965754</v>
+        <v>-4.79429023824588</v>
       </c>
       <c r="B46" t="n">
-        <v>-5.15452920722833</v>
+        <v>-5.05313958678316</v>
       </c>
       <c r="C46" t="n">
-        <v>-5.02506861861905</v>
+        <v>-5.35769702760309</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.45351576206963</v>
+        <v>-4.25266683557751</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.49755863024523</v>
+        <v>-3.94695197650876</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.30774960691587</v>
+        <v>-2.2451951248185</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.780483321849394</v>
+        <v>-1.01468160940199</v>
       </c>
       <c r="H46" t="n">
-        <v>1.41992217766472</v>
+        <v>1.49204646118997</v>
       </c>
       <c r="I46" t="n">
-        <v>3.63373647792652</v>
+        <v>4.07385230810793</v>
       </c>
       <c r="J46" t="n">
-        <v>6.89887781747766</v>
+        <v>7.20094891096698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.8404682283878</v>
+        <v>-4.79599946082263</v>
       </c>
       <c r="B47" t="n">
-        <v>11.1129237290764</v>
+        <v>-5.46273375546219</v>
       </c>
       <c r="C47" t="n">
-        <v>12.3730517541978</v>
+        <v>-5.05855964561607</v>
       </c>
       <c r="D47" t="n">
-        <v>10.6447746245933</v>
+        <v>-4.82548603933526</v>
       </c>
       <c r="E47" t="n">
-        <v>13.2536307153384</v>
+        <v>-3.95832267129504</v>
       </c>
       <c r="F47" t="n">
-        <v>12.9236907913426</v>
+        <v>-2.80250655209514</v>
       </c>
       <c r="G47" t="n">
-        <v>13.0586601114878</v>
+        <v>-0.951391411806958</v>
       </c>
       <c r="H47" t="n">
-        <v>12.4101350134586</v>
+        <v>0.758864996533628</v>
       </c>
       <c r="I47" t="n">
-        <v>11.359221666188</v>
+        <v>4.12723807738622</v>
       </c>
       <c r="J47" t="n">
-        <v>11.9686866911646</v>
+        <v>6.98346368445952</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.6107556400215</v>
+        <v>9.62828976511362</v>
       </c>
       <c r="B48" t="n">
-        <v>10.7240563500039</v>
+        <v>11.3292869914974</v>
       </c>
       <c r="C48" t="n">
-        <v>11.9237738407634</v>
+        <v>9.7739705343086</v>
       </c>
       <c r="D48" t="n">
-        <v>12.474817173596</v>
+        <v>10.8693376183985</v>
       </c>
       <c r="E48" t="n">
-        <v>12.9241969211055</v>
+        <v>11.1968894642537</v>
       </c>
       <c r="F48" t="n">
-        <v>13.1196454589171</v>
+        <v>11.5135282974655</v>
       </c>
       <c r="G48" t="n">
-        <v>12.6286556368405</v>
+        <v>13.3247734985005</v>
       </c>
       <c r="H48" t="n">
-        <v>11.2544036059577</v>
+        <v>10.6327664578529</v>
       </c>
       <c r="I48" t="n">
-        <v>12.1078412952197</v>
+        <v>10.4666022567084</v>
       </c>
       <c r="J48" t="n">
-        <v>10.0928779787463</v>
+        <v>10.8324337714852</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11.1880386248194</v>
+        <v>8.10509943365205</v>
       </c>
       <c r="B49" t="n">
-        <v>10.1806539861124</v>
+        <v>12.1385381545196</v>
       </c>
       <c r="C49" t="n">
-        <v>12.0411513943837</v>
+        <v>11.5435575171052</v>
       </c>
       <c r="D49" t="n">
-        <v>11.5182025718995</v>
+        <v>12.5212436259443</v>
       </c>
       <c r="E49" t="n">
-        <v>13.0379001165121</v>
+        <v>13.4543773616592</v>
       </c>
       <c r="F49" t="n">
-        <v>12.8280619880391</v>
+        <v>12.5008280792215</v>
       </c>
       <c r="G49" t="n">
-        <v>13.3113324974666</v>
+        <v>13.2367711639476</v>
       </c>
       <c r="H49" t="n">
-        <v>12.5601751298111</v>
+        <v>12.4089561654631</v>
       </c>
       <c r="I49" t="n">
-        <v>12.2051067671266</v>
+        <v>12.256733653698</v>
       </c>
       <c r="J49" t="n">
-        <v>11.1702247982653</v>
+        <v>11.3760324420307</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9.42072621439964</v>
+        <v>-5.01469096945378</v>
       </c>
       <c r="B50" t="n">
-        <v>11.2924993613002</v>
+        <v>-5.23436041418626</v>
       </c>
       <c r="C50" t="n">
-        <v>11.8734698651907</v>
+        <v>-5.14946451935413</v>
       </c>
       <c r="D50" t="n">
-        <v>12.782070656229</v>
+        <v>-4.4692901278449</v>
       </c>
       <c r="E50" t="n">
-        <v>13.2594770813004</v>
+        <v>-3.76593811492474</v>
       </c>
       <c r="F50" t="n">
-        <v>12.568853162219</v>
+        <v>-2.66120181390952</v>
       </c>
       <c r="G50" t="n">
-        <v>12.201101932915</v>
+        <v>-0.645980197947564</v>
       </c>
       <c r="H50" t="n">
-        <v>11.3646365615306</v>
+        <v>1.28160599034247</v>
       </c>
       <c r="I50" t="n">
-        <v>11.9796186750425</v>
+        <v>3.37984897900972</v>
       </c>
       <c r="J50" t="n">
-        <v>11.434096497204</v>
+        <v>6.89788468620319</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.4343517221911</v>
+        <v>9.76975269147451</v>
       </c>
       <c r="B51" t="n">
-        <v>10.7217928804822</v>
+        <v>10.1735622033221</v>
       </c>
       <c r="C51" t="n">
-        <v>11.8787429927783</v>
+        <v>11.3042675765069</v>
       </c>
       <c r="D51" t="n">
-        <v>12.0856855460506</v>
+        <v>10.6052863820886</v>
       </c>
       <c r="E51" t="n">
-        <v>10.7324620631222</v>
+        <v>12.9344609682508</v>
       </c>
       <c r="F51" t="n">
-        <v>14.0048623011305</v>
+        <v>13.8205459216661</v>
       </c>
       <c r="G51" t="n">
-        <v>12.0431827172691</v>
+        <v>13.5879804638467</v>
       </c>
       <c r="H51" t="n">
-        <v>12.2712133026983</v>
+        <v>12.1559668716839</v>
       </c>
       <c r="I51" t="n">
-        <v>9.93962216851093</v>
+        <v>11.6007044117102</v>
       </c>
       <c r="J51" t="n">
-        <v>11.8281274976094</v>
+        <v>12.0760232316933</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.4597536882955</v>
+        <v>9.9300067194779</v>
       </c>
       <c r="B52" t="n">
-        <v>9.9498065717263</v>
+        <v>11.8190438479677</v>
       </c>
       <c r="C52" t="n">
-        <v>11.8721230727509</v>
+        <v>12.1059200527601</v>
       </c>
       <c r="D52" t="n">
-        <v>12.603235024571</v>
+        <v>11.269109662082</v>
       </c>
       <c r="E52" t="n">
-        <v>13.3088386703572</v>
+        <v>12.0711979509949</v>
       </c>
       <c r="F52" t="n">
-        <v>12.2306390021095</v>
+        <v>12.9866013423566</v>
       </c>
       <c r="G52" t="n">
-        <v>12.3632159373513</v>
+        <v>12.4035437878084</v>
       </c>
       <c r="H52" t="n">
-        <v>12.0337008406822</v>
+        <v>11.7397676052919</v>
       </c>
       <c r="I52" t="n">
-        <v>11.7477573662379</v>
+        <v>12.0794624210724</v>
       </c>
       <c r="J52" t="n">
-        <v>10.1293732802488</v>
+        <v>9.82310806776223</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.1322362762493</v>
+        <v>9.59387937476729</v>
       </c>
       <c r="B53" t="n">
-        <v>10.8565659495048</v>
+        <v>11.0057903747587</v>
       </c>
       <c r="C53" t="n">
-        <v>12.0800513730302</v>
+        <v>12.5499296342479</v>
       </c>
       <c r="D53" t="n">
-        <v>12.4555893769476</v>
+        <v>11.5101529012062</v>
       </c>
       <c r="E53" t="n">
-        <v>11.6862794256718</v>
+        <v>13.3475527962321</v>
       </c>
       <c r="F53" t="n">
-        <v>12.9354350970328</v>
+        <v>12.8352112676277</v>
       </c>
       <c r="G53" t="n">
-        <v>11.410113740536</v>
+        <v>12.0016763562925</v>
       </c>
       <c r="H53" t="n">
-        <v>12.2914910984372</v>
+        <v>12.1465280647978</v>
       </c>
       <c r="I53" t="n">
-        <v>12.0966875765928</v>
+        <v>10.9541755257741</v>
       </c>
       <c r="J53" t="n">
-        <v>9.86716922510651</v>
+        <v>11.0420770966751</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8.93332054830692</v>
+        <v>10.0505384416953</v>
       </c>
       <c r="B54" t="n">
-        <v>11.4762216303134</v>
+        <v>10.3755565232239</v>
       </c>
       <c r="C54" t="n">
-        <v>11.9430789089418</v>
+        <v>12.6376066416926</v>
       </c>
       <c r="D54" t="n">
-        <v>11.4986454435505</v>
+        <v>11.9079824718022</v>
       </c>
       <c r="E54" t="n">
-        <v>10.4374657360721</v>
+        <v>12.1049716408284</v>
       </c>
       <c r="F54" t="n">
-        <v>12.9448729126572</v>
+        <v>13.846521035357</v>
       </c>
       <c r="G54" t="n">
-        <v>14.2503644701751</v>
+        <v>11.9807894183317</v>
       </c>
       <c r="H54" t="n">
-        <v>11.900611245209</v>
+        <v>13.4074874840842</v>
       </c>
       <c r="I54" t="n">
-        <v>12.4047439190229</v>
+        <v>12.1898412584316</v>
       </c>
       <c r="J54" t="n">
-        <v>10.7971801196473</v>
+        <v>9.78143714467972</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.95032220180728</v>
+        <v>10.4982556051772</v>
       </c>
       <c r="B55" t="n">
-        <v>10.8682416926991</v>
+        <v>10.2947992392303</v>
       </c>
       <c r="C55" t="n">
-        <v>11.762193439493</v>
+        <v>12.4082278307753</v>
       </c>
       <c r="D55" t="n">
-        <v>11.8819359567558</v>
+        <v>12.0306470165026</v>
       </c>
       <c r="E55" t="n">
-        <v>12.2954898331875</v>
+        <v>12.7594198940457</v>
       </c>
       <c r="F55" t="n">
-        <v>12.7755904452171</v>
+        <v>13.3719188530912</v>
       </c>
       <c r="G55" t="n">
-        <v>11.9458126431457</v>
+        <v>12.0090698213111</v>
       </c>
       <c r="H55" t="n">
-        <v>11.9043876895624</v>
+        <v>12.9236717875478</v>
       </c>
       <c r="I55" t="n">
-        <v>10.8540278826252</v>
+        <v>12.7742280367449</v>
       </c>
       <c r="J55" t="n">
-        <v>10.6119111556229</v>
+        <v>10.6628959550289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.1214168314265</v>
+        <v>9.6221776278031</v>
       </c>
       <c r="B56" t="n">
-        <v>11.0218703349201</v>
+        <v>12.209626067611</v>
       </c>
       <c r="C56" t="n">
-        <v>11.1378748095244</v>
+        <v>13.1257431750034</v>
       </c>
       <c r="D56" t="n">
-        <v>13.393748285041</v>
+        <v>12.5947156757906</v>
       </c>
       <c r="E56" t="n">
-        <v>12.925068517476</v>
+        <v>10.5104619231408</v>
       </c>
       <c r="F56" t="n">
-        <v>11.7722814712175</v>
+        <v>12.7650420504308</v>
       </c>
       <c r="G56" t="n">
-        <v>12.0730432726689</v>
+        <v>12.1821510816895</v>
       </c>
       <c r="H56" t="n">
-        <v>11.9173873210591</v>
+        <v>11.758690196465</v>
       </c>
       <c r="I56" t="n">
-        <v>11.3477848917388</v>
+        <v>11.7330698417399</v>
       </c>
       <c r="J56" t="n">
-        <v>11.0796023118624</v>
+        <v>11.3830866932964</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8.90102576685995</v>
+        <v>9.82809441018433</v>
       </c>
       <c r="B57" t="n">
-        <v>9.2071056113019</v>
+        <v>11.8532775430304</v>
       </c>
       <c r="C57" t="n">
-        <v>12.1311681667115</v>
+        <v>11.7886293301196</v>
       </c>
       <c r="D57" t="n">
-        <v>11.0347981757379</v>
+        <v>13.2363817333766</v>
       </c>
       <c r="E57" t="n">
-        <v>13.4384445046056</v>
+        <v>11.3179172422179</v>
       </c>
       <c r="F57" t="n">
-        <v>10.724479425801</v>
+        <v>11.9123288916304</v>
       </c>
       <c r="G57" t="n">
-        <v>10.9829096754452</v>
+        <v>11.0115152588096</v>
       </c>
       <c r="H57" t="n">
-        <v>11.616304587542</v>
+        <v>13.0867865817921</v>
       </c>
       <c r="I57" t="n">
-        <v>11.4203008698718</v>
+        <v>10.6568954883965</v>
       </c>
       <c r="J57" t="n">
-        <v>10.036647857481</v>
+        <v>11.7913452148207</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-4.56459543695204</v>
+        <v>11.2460158714688</v>
       </c>
       <c r="B58" t="n">
-        <v>-4.87037048545704</v>
+        <v>10.4977291681685</v>
       </c>
       <c r="C58" t="n">
-        <v>-5.37819718395718</v>
+        <v>11.986810918919</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.90548533058204</v>
+        <v>11.8329772871338</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.88433481966619</v>
+        <v>11.7734757159355</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.68729038972682</v>
+        <v>11.7099193812364</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.03988008710573</v>
+        <v>14.0456231373645</v>
       </c>
       <c r="H58" t="n">
-        <v>1.08735178979716</v>
+        <v>11.5413384253753</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75407012449494</v>
+        <v>11.4030999676137</v>
       </c>
       <c r="J58" t="n">
-        <v>6.78875281203736</v>
+        <v>10.6547224335034</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10.1433535408187</v>
+        <v>9.52253308158682</v>
       </c>
       <c r="B59" t="n">
-        <v>11.0194750604031</v>
+        <v>9.98036038781583</v>
       </c>
       <c r="C59" t="n">
-        <v>11.1306552808431</v>
+        <v>11.1204322891619</v>
       </c>
       <c r="D59" t="n">
-        <v>12.3338325615615</v>
+        <v>11.5540076495525</v>
       </c>
       <c r="E59" t="n">
-        <v>12.600255077693</v>
+        <v>12.8032170082831</v>
       </c>
       <c r="F59" t="n">
-        <v>13.3271833546539</v>
+        <v>10.3497437932869</v>
       </c>
       <c r="G59" t="n">
-        <v>12.342380799854</v>
+        <v>13.7333798264613</v>
       </c>
       <c r="H59" t="n">
-        <v>12.4704301280289</v>
+        <v>11.294511534461</v>
       </c>
       <c r="I59" t="n">
-        <v>11.8461650186029</v>
+        <v>10.9719506775554</v>
       </c>
       <c r="J59" t="n">
-        <v>9.82926997165031</v>
+        <v>10.1979916945331</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.25637146087434</v>
+        <v>-4.92153814953318</v>
       </c>
       <c r="B60" t="n">
-        <v>10.3698008030334</v>
+        <v>-5.08960857263451</v>
       </c>
       <c r="C60" t="n">
-        <v>12.427487877874</v>
+        <v>-4.81575099299928</v>
       </c>
       <c r="D60" t="n">
-        <v>10.6851946116372</v>
+        <v>-5.10923627092584</v>
       </c>
       <c r="E60" t="n">
-        <v>11.0338515983248</v>
+        <v>-3.99623130047624</v>
       </c>
       <c r="F60" t="n">
-        <v>12.964938080213</v>
+        <v>-2.11840616546781</v>
       </c>
       <c r="G60" t="n">
-        <v>12.4329573832003</v>
+        <v>-0.605762631050851</v>
       </c>
       <c r="H60" t="n">
-        <v>12.0264754637714</v>
+        <v>1.36448453102189</v>
       </c>
       <c r="I60" t="n">
-        <v>11.0654146695329</v>
+        <v>4.20633634000814</v>
       </c>
       <c r="J60" t="n">
-        <v>11.6920045224263</v>
+        <v>7.01092944018598</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11.0114843891504</v>
+        <v>10.4625856651908</v>
       </c>
       <c r="B61" t="n">
-        <v>10.7341415955562</v>
+        <v>8.91828405849892</v>
       </c>
       <c r="C61" t="n">
-        <v>11.2154171062987</v>
+        <v>11.9476305469919</v>
       </c>
       <c r="D61" t="n">
-        <v>11.5601540161679</v>
+        <v>11.582675256378</v>
       </c>
       <c r="E61" t="n">
-        <v>12.3469701155361</v>
+        <v>12.3234637478066</v>
       </c>
       <c r="F61" t="n">
-        <v>12.8557306144312</v>
+        <v>13.3288773262829</v>
       </c>
       <c r="G61" t="n">
-        <v>11.3339413242531</v>
+        <v>13.431113490011</v>
       </c>
       <c r="H61" t="n">
-        <v>12.5816102689481</v>
+        <v>11.2257597052335</v>
       </c>
       <c r="I61" t="n">
-        <v>11.7175506254527</v>
+        <v>12.0498936434607</v>
       </c>
       <c r="J61" t="n">
-        <v>11.9335070900672</v>
+        <v>11.4537808400488</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.40293584555114</v>
+        <v>11.0938742941574</v>
       </c>
       <c r="B62" t="n">
-        <v>10.4158201781851</v>
+        <v>10.6414407195655</v>
       </c>
       <c r="C62" t="n">
-        <v>10.8452228003221</v>
+        <v>11.7209340571327</v>
       </c>
       <c r="D62" t="n">
-        <v>12.2855288634116</v>
+        <v>11.7862025655595</v>
       </c>
       <c r="E62" t="n">
-        <v>13.2469279524207</v>
+        <v>13.3954685094578</v>
       </c>
       <c r="F62" t="n">
-        <v>13.1517420912537</v>
+        <v>13.8028451533224</v>
       </c>
       <c r="G62" t="n">
-        <v>12.4655961355353</v>
+        <v>11.281595584475</v>
       </c>
       <c r="H62" t="n">
-        <v>12.6324969450391</v>
+        <v>12.3391546381329</v>
       </c>
       <c r="I62" t="n">
-        <v>12.0239037913347</v>
+        <v>12.162071841925</v>
       </c>
       <c r="J62" t="n">
-        <v>10.6791175820786</v>
+        <v>11.1360462888284</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-4.79205655182432</v>
+        <v>10.7111598878899</v>
       </c>
       <c r="B63" t="n">
-        <v>-5.35861476584751</v>
+        <v>10.9389107200619</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.87871718580981</v>
+        <v>10.5142213044347</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.79828972697214</v>
+        <v>11.4161434477354</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.00819077672464</v>
+        <v>11.5967625714099</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.5344152211864</v>
+        <v>12.8541386208926</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.03592292074931</v>
+        <v>12.2159309703123</v>
       </c>
       <c r="H63" t="n">
-        <v>1.24366048023782</v>
+        <v>11.6442186484479</v>
       </c>
       <c r="I63" t="n">
-        <v>3.51434459961413</v>
+        <v>10.5638379119225</v>
       </c>
       <c r="J63" t="n">
-        <v>6.52449537581244</v>
+        <v>10.9513288708331</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.9927585897679</v>
+        <v>10.0139266887731</v>
       </c>
       <c r="B64" t="n">
-        <v>10.1473207968423</v>
+        <v>11.3075846726573</v>
       </c>
       <c r="C64" t="n">
-        <v>11.0167832849306</v>
+        <v>12.1689248046449</v>
       </c>
       <c r="D64" t="n">
-        <v>14.1241616138404</v>
+        <v>11.6570453348342</v>
       </c>
       <c r="E64" t="n">
-        <v>12.9867360606489</v>
+        <v>12.8434579136994</v>
       </c>
       <c r="F64" t="n">
-        <v>13.175359251522</v>
+        <v>12.7538885463622</v>
       </c>
       <c r="G64" t="n">
-        <v>12.8096199722206</v>
+        <v>12.443320417273</v>
       </c>
       <c r="H64" t="n">
-        <v>13.4772617734767</v>
+        <v>12.9882847146545</v>
       </c>
       <c r="I64" t="n">
-        <v>10.4531334102359</v>
+        <v>10.8334929359804</v>
       </c>
       <c r="J64" t="n">
-        <v>12.3994264057346</v>
+        <v>12.1361765990036</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-5.02143444745187</v>
+        <v>-5.08480803328279</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.40309376588744</v>
+        <v>-5.01317074885467</v>
       </c>
       <c r="C65" t="n">
-        <v>-4.91634851244122</v>
+        <v>-5.42407746204363</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.28647580971843</v>
+        <v>-5.26139812937604</v>
       </c>
       <c r="E65" t="n">
-        <v>-3.54589767485972</v>
+        <v>-3.57878845176121</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.60989783583307</v>
+        <v>-2.71259493717726</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.11494604582005</v>
+        <v>-0.956410797627752</v>
       </c>
       <c r="H65" t="n">
-        <v>0.99210769715262</v>
+        <v>1.14889529704841</v>
       </c>
       <c r="I65" t="n">
-        <v>3.77898931318582</v>
+        <v>3.6202447836385</v>
       </c>
       <c r="J65" t="n">
-        <v>6.40922975411216</v>
+        <v>6.54103158101553</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.2534977384597</v>
+        <v>9.34381612965478</v>
       </c>
       <c r="B66" t="n">
-        <v>10.1672117804954</v>
+        <v>10.0589996643391</v>
       </c>
       <c r="C66" t="n">
-        <v>12.1302231611641</v>
+        <v>12.0574124997027</v>
       </c>
       <c r="D66" t="n">
-        <v>12.1275393442829</v>
+        <v>12.2528591937844</v>
       </c>
       <c r="E66" t="n">
-        <v>13.5277943167496</v>
+        <v>13.1727946696751</v>
       </c>
       <c r="F66" t="n">
-        <v>12.7847939092179</v>
+        <v>12.1704369391181</v>
       </c>
       <c r="G66" t="n">
-        <v>12.9423045675977</v>
+        <v>12.7336704009134</v>
       </c>
       <c r="H66" t="n">
-        <v>12.2603646782542</v>
+        <v>12.1220262922866</v>
       </c>
       <c r="I66" t="n">
-        <v>11.1382486623837</v>
+        <v>11.1472633530905</v>
       </c>
       <c r="J66" t="n">
-        <v>9.41636496414097</v>
+        <v>10.4820991557429</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.3317174443154</v>
+        <v>10.2559329466513</v>
       </c>
       <c r="B67" t="n">
-        <v>12.5152359952107</v>
+        <v>10.2872720955446</v>
       </c>
       <c r="C67" t="n">
-        <v>10.611781021945</v>
+        <v>11.7983014933973</v>
       </c>
       <c r="D67" t="n">
-        <v>12.3802189432005</v>
+        <v>12.2603982757043</v>
       </c>
       <c r="E67" t="n">
-        <v>11.0653333497879</v>
+        <v>14.0682264663818</v>
       </c>
       <c r="F67" t="n">
-        <v>12.191559929536</v>
+        <v>12.3358131343329</v>
       </c>
       <c r="G67" t="n">
-        <v>13.4337596938946</v>
+        <v>12.6414085621319</v>
       </c>
       <c r="H67" t="n">
-        <v>10.2925759137576</v>
+        <v>14.0694883573494</v>
       </c>
       <c r="I67" t="n">
-        <v>10.6470883513278</v>
+        <v>11.3811399685155</v>
       </c>
       <c r="J67" t="n">
-        <v>11.7223276332919</v>
+        <v>10.7172100916676</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11.1756706369494</v>
+        <v>9.45540625321019</v>
       </c>
       <c r="B68" t="n">
-        <v>10.6790452389629</v>
+        <v>10.6785966103544</v>
       </c>
       <c r="C68" t="n">
-        <v>11.4412420187653</v>
+        <v>11.1908186337698</v>
       </c>
       <c r="D68" t="n">
-        <v>12.4750623446244</v>
+        <v>11.5540135648972</v>
       </c>
       <c r="E68" t="n">
-        <v>11.9865917120044</v>
+        <v>11.7753053173887</v>
       </c>
       <c r="F68" t="n">
-        <v>13.2180219390393</v>
+        <v>13.5464878809073</v>
       </c>
       <c r="G68" t="n">
-        <v>11.5174391202665</v>
+        <v>13.6456270256098</v>
       </c>
       <c r="H68" t="n">
-        <v>11.9961082553015</v>
+        <v>12.1736188389505</v>
       </c>
       <c r="I68" t="n">
-        <v>13.2460247837173</v>
+        <v>12.2083135532826</v>
       </c>
       <c r="J68" t="n">
-        <v>11.0035397083494</v>
+        <v>11.1114512907578</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.95347413063655</v>
+        <v>-5.39508547826306</v>
       </c>
       <c r="B69" t="n">
-        <v>10.7651645817904</v>
+        <v>-4.86950129109984</v>
       </c>
       <c r="C69" t="n">
-        <v>10.646855737841</v>
+        <v>-5.02440410042866</v>
       </c>
       <c r="D69" t="n">
-        <v>11.4032403671982</v>
+        <v>-5.13978891755282</v>
       </c>
       <c r="E69" t="n">
-        <v>13.3661882794225</v>
+        <v>-3.81532349795872</v>
       </c>
       <c r="F69" t="n">
-        <v>11.8294500996881</v>
+        <v>-2.20981469017469</v>
       </c>
       <c r="G69" t="n">
-        <v>11.8667482792829</v>
+        <v>-0.51178446957489</v>
       </c>
       <c r="H69" t="n">
-        <v>11.7544037125333</v>
+        <v>1.47483038089619</v>
       </c>
       <c r="I69" t="n">
-        <v>11.9387159014651</v>
+        <v>4.26388893672806</v>
       </c>
       <c r="J69" t="n">
-        <v>9.32475699855534</v>
+        <v>6.23082890031253</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-5.27293391573044</v>
+        <v>8.90981297829927</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.30422567502877</v>
+        <v>10.4807567035845</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.12568433271167</v>
+        <v>11.4244346880135</v>
       </c>
       <c r="D70" t="n">
-        <v>-5.10144343938873</v>
+        <v>12.503764050605</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.37537842596567</v>
+        <v>11.9648716930801</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.32549496356621</v>
+        <v>12.6734524615557</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.865848131890846</v>
+        <v>12.6911325442773</v>
       </c>
       <c r="H70" t="n">
-        <v>1.71786155730705</v>
+        <v>10.6577414866787</v>
       </c>
       <c r="I70" t="n">
-        <v>3.80023822571732</v>
+        <v>10.9500382310636</v>
       </c>
       <c r="J70" t="n">
-        <v>7.01158823274913</v>
+        <v>11.6180522364414</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.91072524505103</v>
+        <v>9.98797436235512</v>
       </c>
       <c r="B71" t="n">
-        <v>11.042875268639</v>
+        <v>11.1009717333189</v>
       </c>
       <c r="C71" t="n">
-        <v>11.4974514521723</v>
+        <v>12.0622207304118</v>
       </c>
       <c r="D71" t="n">
-        <v>11.7127946060661</v>
+        <v>12.4605096270791</v>
       </c>
       <c r="E71" t="n">
-        <v>11.9094853761632</v>
+        <v>12.3666533716193</v>
       </c>
       <c r="F71" t="n">
-        <v>13.2460781389055</v>
+        <v>12.7102676808891</v>
       </c>
       <c r="G71" t="n">
-        <v>12.6710386114366</v>
+        <v>13.052369103364</v>
       </c>
       <c r="H71" t="n">
-        <v>11.8073638879762</v>
+        <v>11.5600835373716</v>
       </c>
       <c r="I71" t="n">
-        <v>12.908874654434</v>
+        <v>13.3478553624931</v>
       </c>
       <c r="J71" t="n">
-        <v>10.3919222254442</v>
+        <v>12.838225768662</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.4863190023954</v>
+        <v>9.34822186677308</v>
       </c>
       <c r="B72" t="n">
-        <v>10.8700868778991</v>
+        <v>10.5419447332695</v>
       </c>
       <c r="C72" t="n">
-        <v>12.2404773054765</v>
+        <v>12.0780031179738</v>
       </c>
       <c r="D72" t="n">
-        <v>10.5261126885028</v>
+        <v>13.1000389858175</v>
       </c>
       <c r="E72" t="n">
-        <v>12.2823413404156</v>
+        <v>11.4704242699746</v>
       </c>
       <c r="F72" t="n">
-        <v>13.2297083020659</v>
+        <v>13.1229290175537</v>
       </c>
       <c r="G72" t="n">
-        <v>12.6289569440786</v>
+        <v>13.4491811528238</v>
       </c>
       <c r="H72" t="n">
-        <v>11.4884046835262</v>
+        <v>12.6734657384267</v>
       </c>
       <c r="I72" t="n">
-        <v>12.7612532413337</v>
+        <v>11.0877187678033</v>
       </c>
       <c r="J72" t="n">
-        <v>10.6163865594259</v>
+        <v>10.6601384563918</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11.6227070014139</v>
+        <v>9.90953830185308</v>
       </c>
       <c r="B73" t="n">
-        <v>9.95738897866972</v>
+        <v>10.9482134944324</v>
       </c>
       <c r="C73" t="n">
-        <v>11.8655005110738</v>
+        <v>11.637096291741</v>
       </c>
       <c r="D73" t="n">
-        <v>11.1105363110733</v>
+        <v>10.5617199117488</v>
       </c>
       <c r="E73" t="n">
-        <v>12.8006349104797</v>
+        <v>12.8765451250024</v>
       </c>
       <c r="F73" t="n">
-        <v>12.6234399471221</v>
+        <v>13.6300964718802</v>
       </c>
       <c r="G73" t="n">
-        <v>12.7159915214422</v>
+        <v>11.1457423275222</v>
       </c>
       <c r="H73" t="n">
-        <v>13.2561603016091</v>
+        <v>12.3559791527708</v>
       </c>
       <c r="I73" t="n">
-        <v>10.7577161092468</v>
+        <v>12.3709298221747</v>
       </c>
       <c r="J73" t="n">
-        <v>10.4786420352269</v>
+        <v>12.0205372787425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-5.44881730938211</v>
+        <v>9.61397294142772</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.38830374651844</v>
+        <v>11.5895881228777</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.22822943505731</v>
+        <v>11.2212576163825</v>
       </c>
       <c r="D74" t="n">
-        <v>-5.13952210706099</v>
+        <v>10.5893783432123</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.80651224077372</v>
+        <v>13.1395874280183</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.34151739102884</v>
+        <v>12.3630522939713</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.790539980314253</v>
+        <v>11.9803303753817</v>
       </c>
       <c r="H74" t="n">
-        <v>1.1536188013376</v>
+        <v>12.4693685148136</v>
       </c>
       <c r="I74" t="n">
-        <v>4.00537175772175</v>
+        <v>10.7596207258914</v>
       </c>
       <c r="J74" t="n">
-        <v>6.43331617480539</v>
+        <v>10.3004283353288</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-4.97632666988474</v>
+        <v>9.71808762513328</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.30909527263299</v>
+        <v>10.1395543757908</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.37449943985013</v>
+        <v>11.7180165610716</v>
       </c>
       <c r="D75" t="n">
-        <v>-5.05242428114324</v>
+        <v>11.5982207557939</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.40651265471453</v>
+        <v>12.4955918991755</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.60991014828082</v>
+        <v>11.8170592821877</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.11167642176942</v>
+        <v>11.8175878598228</v>
       </c>
       <c r="H75" t="n">
-        <v>1.5765749524622</v>
+        <v>12.4961481791843</v>
       </c>
       <c r="I75" t="n">
-        <v>3.78907040901116</v>
+        <v>11.2603228275541</v>
       </c>
       <c r="J75" t="n">
-        <v>7.0824420381616</v>
+        <v>11.1285902782285</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.31583514378865</v>
+        <v>9.62841056376577</v>
       </c>
       <c r="B76" t="n">
-        <v>11.8590679700233</v>
+        <v>11.9163030913706</v>
       </c>
       <c r="C76" t="n">
-        <v>10.8473986859193</v>
+        <v>12.1345146286619</v>
       </c>
       <c r="D76" t="n">
-        <v>13.627943817601</v>
+        <v>10.6831619616825</v>
       </c>
       <c r="E76" t="n">
-        <v>12.2791926218418</v>
+        <v>11.9851689944925</v>
       </c>
       <c r="F76" t="n">
-        <v>11.9633876589153</v>
+        <v>13.2995902402515</v>
       </c>
       <c r="G76" t="n">
-        <v>12.3009048393055</v>
+        <v>12.5656769307322</v>
       </c>
       <c r="H76" t="n">
-        <v>11.4380660109479</v>
+        <v>11.6930824858948</v>
       </c>
       <c r="I76" t="n">
-        <v>11.6357037678694</v>
+        <v>11.2563449753175</v>
       </c>
       <c r="J76" t="n">
-        <v>10.1552022486516</v>
+        <v>9.89380901998714</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-4.76266471223937</v>
+        <v>-4.99828975772681</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.44610959563643</v>
+        <v>-5.72337944909424</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.04122745539382</v>
+        <v>-5.59215386586985</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.22013197038039</v>
+        <v>-4.62523789973578</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.71547348618926</v>
+        <v>-3.87040919694837</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.55212531268478</v>
+        <v>-2.58376294982519</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.16969325819394</v>
+        <v>-0.471042594016673</v>
       </c>
       <c r="H77" t="n">
-        <v>1.30137753757855</v>
+        <v>1.01529072941059</v>
       </c>
       <c r="I77" t="n">
-        <v>3.91814361540388</v>
+        <v>3.51456677429721</v>
       </c>
       <c r="J77" t="n">
-        <v>6.72437112394023</v>
+        <v>6.89542573838692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10.5225919687151</v>
+        <v>-5.01528462482398</v>
       </c>
       <c r="B78" t="n">
-        <v>10.2719470525814</v>
+        <v>-5.47140235534399</v>
       </c>
       <c r="C78" t="n">
-        <v>10.9626500335294</v>
+        <v>-4.75969481726702</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5964467026509</v>
+        <v>-4.65705421941998</v>
       </c>
       <c r="E78" t="n">
-        <v>11.5571339225352</v>
+        <v>-3.84923624917614</v>
       </c>
       <c r="F78" t="n">
-        <v>11.0068320629957</v>
+        <v>-2.48864809680582</v>
       </c>
       <c r="G78" t="n">
-        <v>14.0204115784937</v>
+        <v>-0.756564597120751</v>
       </c>
       <c r="H78" t="n">
-        <v>10.8619425606423</v>
+        <v>1.74874947490894</v>
       </c>
       <c r="I78" t="n">
-        <v>12.4396602988287</v>
+        <v>3.71932753910012</v>
       </c>
       <c r="J78" t="n">
-        <v>10.2261271219762</v>
+        <v>6.42315551684283</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.85424419245342</v>
+        <v>10.2487112957851</v>
       </c>
       <c r="B79" t="n">
-        <v>10.6523125363486</v>
+        <v>10.6747383630263</v>
       </c>
       <c r="C79" t="n">
-        <v>12.961341875839</v>
+        <v>11.5774269530897</v>
       </c>
       <c r="D79" t="n">
-        <v>12.4728242451864</v>
+        <v>11.9416430954789</v>
       </c>
       <c r="E79" t="n">
-        <v>12.8894902677114</v>
+        <v>11.7089821301326</v>
       </c>
       <c r="F79" t="n">
-        <v>13.4102460267906</v>
+        <v>12.5305029624919</v>
       </c>
       <c r="G79" t="n">
-        <v>11.9246484268324</v>
+        <v>13.3715720465743</v>
       </c>
       <c r="H79" t="n">
-        <v>12.4588802261763</v>
+        <v>11.2899964204349</v>
       </c>
       <c r="I79" t="n">
-        <v>10.6103093379362</v>
+        <v>10.6336188031041</v>
       </c>
       <c r="J79" t="n">
-        <v>11.8515579944561</v>
+        <v>9.96382829554719</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.2622603497717</v>
+        <v>10.8664392309114</v>
       </c>
       <c r="B80" t="n">
-        <v>12.3987213098657</v>
+        <v>11.3543589437224</v>
       </c>
       <c r="C80" t="n">
-        <v>11.6956855722727</v>
+        <v>11.4114631636523</v>
       </c>
       <c r="D80" t="n">
-        <v>11.5698885558692</v>
+        <v>12.331843757517</v>
       </c>
       <c r="E80" t="n">
-        <v>12.0670984691105</v>
+        <v>13.1237147207498</v>
       </c>
       <c r="F80" t="n">
-        <v>13.2623661509149</v>
+        <v>12.444146080117</v>
       </c>
       <c r="G80" t="n">
-        <v>11.4696308523209</v>
+        <v>12.2979130448976</v>
       </c>
       <c r="H80" t="n">
-        <v>11.6073162191687</v>
+        <v>10.8747813366216</v>
       </c>
       <c r="I80" t="n">
-        <v>10.7255129769749</v>
+        <v>11.7229802752386</v>
       </c>
       <c r="J80" t="n">
-        <v>11.5616111801992</v>
+        <v>11.2443605539619</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-4.51492268861146</v>
+        <v>10.3969295689596</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.32496539628364</v>
+        <v>10.5929812844904</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.17371376920283</v>
+        <v>10.8231550789411</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.81801948967254</v>
+        <v>10.8504276191773</v>
       </c>
       <c r="E81" t="n">
-        <v>-3.68034927261329</v>
+        <v>12.4518852671078</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.44294047583891</v>
+        <v>12.4790787349474</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.948177469359437</v>
+        <v>12.4252780533752</v>
       </c>
       <c r="H81" t="n">
-        <v>1.40659387741331</v>
+        <v>11.6955976582684</v>
       </c>
       <c r="I81" t="n">
-        <v>4.11511487602939</v>
+        <v>11.0094525967782</v>
       </c>
       <c r="J81" t="n">
-        <v>6.92293380750988</v>
+        <v>11.7537121053064</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11.1214826597005</v>
+        <v>10.1415803758646</v>
       </c>
       <c r="B82" t="n">
-        <v>11.3895042903833</v>
+        <v>12.0469358431345</v>
       </c>
       <c r="C82" t="n">
-        <v>10.9567980908443</v>
+        <v>11.5527965802076</v>
       </c>
       <c r="D82" t="n">
-        <v>13.501300676725</v>
+        <v>12.6824603059477</v>
       </c>
       <c r="E82" t="n">
-        <v>14.0922729003141</v>
+        <v>11.3207667098304</v>
       </c>
       <c r="F82" t="n">
-        <v>13.000263446154</v>
+        <v>12.169743341826</v>
       </c>
       <c r="G82" t="n">
-        <v>13.0399592023267</v>
+        <v>12.4189290864614</v>
       </c>
       <c r="H82" t="n">
-        <v>12.9842520595912</v>
+        <v>10.903934278772</v>
       </c>
       <c r="I82" t="n">
-        <v>11.7193216047864</v>
+        <v>11.7789509321666</v>
       </c>
       <c r="J82" t="n">
-        <v>13.1610551796183</v>
+        <v>10.8711778025894</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-4.62329613937076</v>
+        <v>-5.00006147446487</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.24232864232709</v>
+        <v>-5.71253067517153</v>
       </c>
       <c r="C83" t="n">
-        <v>-5.30876031395991</v>
+        <v>-5.25458327187449</v>
       </c>
       <c r="D83" t="n">
-        <v>-5.04751370813263</v>
+        <v>-4.82132797185562</v>
       </c>
       <c r="E83" t="n">
-        <v>-3.84796726062214</v>
+        <v>-3.69563451275257</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.20603167608701</v>
+        <v>-2.50580577193779</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.06435963368446</v>
+        <v>-0.507652173686252</v>
       </c>
       <c r="H83" t="n">
-        <v>0.83367324309924</v>
+        <v>1.18611398606946</v>
       </c>
       <c r="I83" t="n">
-        <v>3.87585766189167</v>
+        <v>4.00375876954596</v>
       </c>
       <c r="J83" t="n">
-        <v>6.41810779842319</v>
+        <v>6.53371624741782</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.83900896544731</v>
+        <v>10.3400812726122</v>
       </c>
       <c r="B84" t="n">
-        <v>11.694628735329</v>
+        <v>10.7222049003238</v>
       </c>
       <c r="C84" t="n">
-        <v>11.5143827814481</v>
+        <v>11.0289962112801</v>
       </c>
       <c r="D84" t="n">
-        <v>11.8147045352127</v>
+        <v>12.9940965151718</v>
       </c>
       <c r="E84" t="n">
-        <v>10.9151971363607</v>
+        <v>11.9679589752918</v>
       </c>
       <c r="F84" t="n">
-        <v>13.0457814645141</v>
+        <v>12.5881341612641</v>
       </c>
       <c r="G84" t="n">
-        <v>12.3708290769897</v>
+        <v>12.1758909442119</v>
       </c>
       <c r="H84" t="n">
-        <v>10.0640913046402</v>
+        <v>11.6313798933256</v>
       </c>
       <c r="I84" t="n">
-        <v>11.8131683673639</v>
+        <v>12.1869970891896</v>
       </c>
       <c r="J84" t="n">
-        <v>10.9296202617503</v>
+        <v>11.5998531771035</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10.8221863579207</v>
+        <v>10.1608568882976</v>
       </c>
       <c r="B85" t="n">
-        <v>11.643642193502</v>
+        <v>12.7924122141882</v>
       </c>
       <c r="C85" t="n">
-        <v>11.161369148322</v>
+        <v>11.2472733871836</v>
       </c>
       <c r="D85" t="n">
-        <v>12.5546698999736</v>
+        <v>12.3748811415181</v>
       </c>
       <c r="E85" t="n">
-        <v>11.4799426195106</v>
+        <v>11.1295517094092</v>
       </c>
       <c r="F85" t="n">
-        <v>12.7749438953904</v>
+        <v>13.0906937413603</v>
       </c>
       <c r="G85" t="n">
-        <v>11.9583313540987</v>
+        <v>13.3206766724934</v>
       </c>
       <c r="H85" t="n">
-        <v>10.5251103053374</v>
+        <v>12.9635626177521</v>
       </c>
       <c r="I85" t="n">
-        <v>11.7773045672029</v>
+        <v>12.1284008941663</v>
       </c>
       <c r="J85" t="n">
-        <v>10.9853898051958</v>
+        <v>11.9843078888839</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-5.25361222232602</v>
+        <v>-5.26821952036314</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.88530700930136</v>
+        <v>-5.39401174466347</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.51304820469169</v>
+        <v>-5.15681629127796</v>
       </c>
       <c r="D86" t="n">
-        <v>-5.1990616785754</v>
+        <v>-4.28578340255547</v>
       </c>
       <c r="E86" t="n">
-        <v>-4.05312226194149</v>
+        <v>-3.80189703115605</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.29706044934203</v>
+        <v>-2.71335267699344</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.15135549835046</v>
+        <v>-0.515763632109955</v>
       </c>
       <c r="H86" t="n">
-        <v>1.18103165371176</v>
+        <v>1.03815532454001</v>
       </c>
       <c r="I86" t="n">
-        <v>3.77582568922929</v>
+        <v>3.71443927797056</v>
       </c>
       <c r="J86" t="n">
-        <v>6.77910751406235</v>
+        <v>6.339248360541</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-5.56197317892919</v>
+        <v>9.73634468597988</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.45635255687496</v>
+        <v>11.2090466071071</v>
       </c>
       <c r="C87" t="n">
-        <v>-5.49617113270057</v>
+        <v>11.6759115356982</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.5248474419096</v>
+        <v>11.1400156210491</v>
       </c>
       <c r="E87" t="n">
-        <v>-3.66188999665073</v>
+        <v>12.0090048884697</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.42741664903179</v>
+        <v>12.1809918201854</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.06350940615235</v>
+        <v>12.8935968882002</v>
       </c>
       <c r="H87" t="n">
-        <v>0.925873271833032</v>
+        <v>12.5164767050589</v>
       </c>
       <c r="I87" t="n">
-        <v>3.96856882455184</v>
+        <v>11.372941982257</v>
       </c>
       <c r="J87" t="n">
-        <v>6.89289416035501</v>
+        <v>9.57281695878022</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-4.47401674566853</v>
+        <v>10.5126294012961</v>
       </c>
       <c r="B88" t="n">
-        <v>-5.11219199274073</v>
+        <v>10.3889165457363</v>
       </c>
       <c r="C88" t="n">
-        <v>-5.39192177457325</v>
+        <v>11.5952453117412</v>
       </c>
       <c r="D88" t="n">
-        <v>-4.58188703085836</v>
+        <v>12.1974766586536</v>
       </c>
       <c r="E88" t="n">
-        <v>-3.88980796316236</v>
+        <v>12.3774265363321</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.38085566888408</v>
+        <v>13.3260383953677</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.432555407694975</v>
+        <v>12.8552575460452</v>
       </c>
       <c r="H88" t="n">
-        <v>1.28390117413916</v>
+        <v>11.2826090441458</v>
       </c>
       <c r="I88" t="n">
-        <v>3.92709103667695</v>
+        <v>12.3538580733575</v>
       </c>
       <c r="J88" t="n">
-        <v>6.73402652904245</v>
+        <v>11.5311872720041</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.74333107355987</v>
+        <v>-5.19253646875868</v>
       </c>
       <c r="B89" t="n">
-        <v>11.3647106619597</v>
+        <v>-5.28220284452081</v>
       </c>
       <c r="C89" t="n">
-        <v>11.8787484813793</v>
+        <v>-5.03439130899786</v>
       </c>
       <c r="D89" t="n">
-        <v>12.9751372608169</v>
+        <v>-4.94533436693385</v>
       </c>
       <c r="E89" t="n">
-        <v>11.737536138293</v>
+        <v>-3.88012987799483</v>
       </c>
       <c r="F89" t="n">
-        <v>13.3574192579812</v>
+        <v>-2.20742416378355</v>
       </c>
       <c r="G89" t="n">
-        <v>13.0751115249794</v>
+        <v>-0.851319769810599</v>
       </c>
       <c r="H89" t="n">
-        <v>11.4318586144639</v>
+        <v>1.6415389541931</v>
       </c>
       <c r="I89" t="n">
-        <v>12.2888201603853</v>
+        <v>4.2797006660916</v>
       </c>
       <c r="J89" t="n">
-        <v>9.75602278186631</v>
+        <v>6.89892285875134</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.91273099997677</v>
+        <v>11.3179529781875</v>
       </c>
       <c r="B90" t="n">
-        <v>10.2604198215983</v>
+        <v>11.5897951047397</v>
       </c>
       <c r="C90" t="n">
-        <v>12.4779311781324</v>
+        <v>10.7611972590523</v>
       </c>
       <c r="D90" t="n">
-        <v>12.4964886196774</v>
+        <v>12.346325934578</v>
       </c>
       <c r="E90" t="n">
-        <v>12.3516048363669</v>
+        <v>12.1465157506043</v>
       </c>
       <c r="F90" t="n">
-        <v>10.6624687920682</v>
+        <v>11.8479383544134</v>
       </c>
       <c r="G90" t="n">
-        <v>13.356971962689</v>
+        <v>11.8927000205471</v>
       </c>
       <c r="H90" t="n">
-        <v>12.494087055064</v>
+        <v>13.0732589710584</v>
       </c>
       <c r="I90" t="n">
-        <v>11.0580547754734</v>
+        <v>11.8748798838094</v>
       </c>
       <c r="J90" t="n">
-        <v>11.1101983394225</v>
+        <v>12.0083760542809</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-5.21483795922416</v>
+        <v>-4.96334672388477</v>
       </c>
       <c r="B91" t="n">
-        <v>-5.20448602004262</v>
+        <v>-5.22658556064027</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.15389654457343</v>
+        <v>-5.41849148906707</v>
       </c>
       <c r="D91" t="n">
-        <v>-4.51890820805265</v>
+        <v>-4.76564866746899</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.51509668660593</v>
+        <v>-3.89057775722421</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.42914988010802</v>
+        <v>-2.52390669443898</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.04731122918055</v>
+        <v>-0.803842973374155</v>
       </c>
       <c r="H91" t="n">
-        <v>1.53260874144097</v>
+        <v>1.27606293720968</v>
       </c>
       <c r="I91" t="n">
-        <v>3.81043883298706</v>
+        <v>3.93015501250546</v>
       </c>
       <c r="J91" t="n">
-        <v>6.14593008495095</v>
+        <v>6.61070004675838</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.14330592732227</v>
+        <v>9.58230710010496</v>
       </c>
       <c r="B92" t="n">
-        <v>11.5345468490564</v>
+        <v>11.2767641761981</v>
       </c>
       <c r="C92" t="n">
-        <v>11.0703504871503</v>
+        <v>11.2122650233724</v>
       </c>
       <c r="D92" t="n">
-        <v>12.320322299786</v>
+        <v>11.671821878857</v>
       </c>
       <c r="E92" t="n">
-        <v>11.5636172450611</v>
+        <v>12.3709561857088</v>
       </c>
       <c r="F92" t="n">
-        <v>13.3222048842851</v>
+        <v>12.8215056117092</v>
       </c>
       <c r="G92" t="n">
-        <v>13.0076698817116</v>
+        <v>11.3979804655233</v>
       </c>
       <c r="H92" t="n">
-        <v>12.7194282291953</v>
+        <v>12.1280742024899</v>
       </c>
       <c r="I92" t="n">
-        <v>11.0107680536311</v>
+        <v>12.2554741229038</v>
       </c>
       <c r="J92" t="n">
-        <v>10.841242066127</v>
+        <v>10.5112922692613</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.1282969105845</v>
+        <v>9.75362616014836</v>
       </c>
       <c r="B93" t="n">
-        <v>11.7409810497667</v>
+        <v>10.9290195299232</v>
       </c>
       <c r="C93" t="n">
-        <v>12.0927557236629</v>
+        <v>10.7263690129034</v>
       </c>
       <c r="D93" t="n">
-        <v>10.7110186411507</v>
+        <v>12.7456170201708</v>
       </c>
       <c r="E93" t="n">
-        <v>13.3693961087243</v>
+        <v>10.7132124115978</v>
       </c>
       <c r="F93" t="n">
-        <v>11.9435934399363</v>
+        <v>13.1101268954681</v>
       </c>
       <c r="G93" t="n">
-        <v>12.3839023664488</v>
+        <v>11.9466239752099</v>
       </c>
       <c r="H93" t="n">
-        <v>12.7864960794091</v>
+        <v>12.2824473295946</v>
       </c>
       <c r="I93" t="n">
-        <v>10.8338927200579</v>
+        <v>11.4795065794667</v>
       </c>
       <c r="J93" t="n">
-        <v>10.3771539518673</v>
+        <v>9.60996070124899</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-4.70232756807537</v>
+        <v>9.77132764088414</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.27861454193388</v>
+        <v>10.2229331207526</v>
       </c>
       <c r="C94" t="n">
-        <v>-5.14280753212964</v>
+        <v>11.6012864613324</v>
       </c>
       <c r="D94" t="n">
-        <v>-4.70280977581197</v>
+        <v>12.5555103797347</v>
       </c>
       <c r="E94" t="n">
-        <v>-3.76062876560972</v>
+        <v>12.6743339297378</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.62692614707548</v>
+        <v>12.5315420590697</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.03400304014314</v>
+        <v>12.7935445860891</v>
       </c>
       <c r="H94" t="n">
-        <v>1.05787395351852</v>
+        <v>11.3619102430791</v>
       </c>
       <c r="I94" t="n">
-        <v>3.70073451264282</v>
+        <v>11.5735122625829</v>
       </c>
       <c r="J94" t="n">
-        <v>6.35176110968748</v>
+        <v>10.4981052447504</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.97725506505234</v>
+        <v>10.8018352817834</v>
       </c>
       <c r="B95" t="n">
-        <v>10.8544271324147</v>
+        <v>11.365916792558</v>
       </c>
       <c r="C95" t="n">
-        <v>11.4395070654316</v>
+        <v>10.5236026975724</v>
       </c>
       <c r="D95" t="n">
-        <v>12.299421326744</v>
+        <v>11.5207974956123</v>
       </c>
       <c r="E95" t="n">
-        <v>12.04985019218</v>
+        <v>12.0369587069399</v>
       </c>
       <c r="F95" t="n">
-        <v>12.2561929187074</v>
+        <v>11.6721940098496</v>
       </c>
       <c r="G95" t="n">
-        <v>11.7289420180117</v>
+        <v>12.6693020274342</v>
       </c>
       <c r="H95" t="n">
-        <v>13.3053478618834</v>
+        <v>12.5212531898246</v>
       </c>
       <c r="I95" t="n">
-        <v>10.4596495071134</v>
+        <v>10.4223383742266</v>
       </c>
       <c r="J95" t="n">
-        <v>10.3794794282982</v>
+        <v>10.986680297408</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.5013754006772</v>
+        <v>9.98313884761408</v>
       </c>
       <c r="B96" t="n">
-        <v>10.4753761196865</v>
+        <v>10.2904085366013</v>
       </c>
       <c r="C96" t="n">
-        <v>11.622636183497</v>
+        <v>9.80942705948365</v>
       </c>
       <c r="D96" t="n">
-        <v>10.8168576672107</v>
+        <v>11.8508973137351</v>
       </c>
       <c r="E96" t="n">
-        <v>11.6755660462196</v>
+        <v>12.4729972805651</v>
       </c>
       <c r="F96" t="n">
-        <v>12.2804915787973</v>
+        <v>12.3248202399068</v>
       </c>
       <c r="G96" t="n">
-        <v>12.6170440753799</v>
+        <v>14.1094566636776</v>
       </c>
       <c r="H96" t="n">
-        <v>11.5652065310095</v>
+        <v>11.8636360989019</v>
       </c>
       <c r="I96" t="n">
-        <v>10.5756710535067</v>
+        <v>12.384547834257</v>
       </c>
       <c r="J96" t="n">
-        <v>10.4919060415771</v>
+        <v>11.529947283066</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10.6861739508648</v>
+        <v>-5.00257153735963</v>
       </c>
       <c r="B97" t="n">
-        <v>10.3474569214734</v>
+        <v>-5.64169572080942</v>
       </c>
       <c r="C97" t="n">
-        <v>11.8344647733369</v>
+        <v>-5.00083477703381</v>
       </c>
       <c r="D97" t="n">
-        <v>11.9910703448187</v>
+        <v>-4.6990887873479</v>
       </c>
       <c r="E97" t="n">
-        <v>13.5566133323927</v>
+        <v>-3.87970343100987</v>
       </c>
       <c r="F97" t="n">
-        <v>11.8695263736106</v>
+        <v>-2.40336281201552</v>
       </c>
       <c r="G97" t="n">
-        <v>12.9073396688434</v>
+        <v>-0.268043512326609</v>
       </c>
       <c r="H97" t="n">
-        <v>12.9387461170164</v>
+        <v>1.67362285388487</v>
       </c>
       <c r="I97" t="n">
-        <v>10.7901064421534</v>
+        <v>3.4179119415475</v>
       </c>
       <c r="J97" t="n">
-        <v>9.9620860236362</v>
+        <v>6.66033736908681</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-5.11012257301268</v>
+        <v>10.4621320869722</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.12816042999845</v>
+        <v>9.7937787685709</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.25999648119678</v>
+        <v>10.3949884653437</v>
       </c>
       <c r="D98" t="n">
-        <v>-5.18518951814047</v>
+        <v>12.6623924062234</v>
       </c>
       <c r="E98" t="n">
-        <v>-3.74564285897829</v>
+        <v>12.7437979031175</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.4970347706915</v>
+        <v>12.3127821242912</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.959846492185207</v>
+        <v>11.3702940369102</v>
       </c>
       <c r="H98" t="n">
-        <v>1.18817142872158</v>
+        <v>12.8986174272078</v>
       </c>
       <c r="I98" t="n">
-        <v>3.63994286968596</v>
+        <v>11.5892011191531</v>
       </c>
       <c r="J98" t="n">
-        <v>6.57733822441353</v>
+        <v>11.6386303831393</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-5.3097755017398</v>
+        <v>-5.14642901338931</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.10577242918306</v>
+        <v>-5.12473979183783</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.44197966156197</v>
+        <v>-4.97358972323652</v>
       </c>
       <c r="D99" t="n">
-        <v>-4.95114068780967</v>
+        <v>-4.70774785286066</v>
       </c>
       <c r="E99" t="n">
-        <v>-3.75346704761676</v>
+        <v>-3.68345318470143</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.42090681645365</v>
+        <v>-2.5417674530578</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.740698601647238</v>
+        <v>-0.754612500650384</v>
       </c>
       <c r="H99" t="n">
-        <v>1.1343413796062</v>
+        <v>1.07945203826766</v>
       </c>
       <c r="I99" t="n">
-        <v>4.21074871388944</v>
+        <v>3.8048240149872</v>
       </c>
       <c r="J99" t="n">
-        <v>6.95019735900255</v>
+        <v>6.36817062684359</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10.2662796971201</v>
+        <v>9.58303993468279</v>
       </c>
       <c r="B100" t="n">
-        <v>11.5314651440294</v>
+        <v>10.6369154310228</v>
       </c>
       <c r="C100" t="n">
-        <v>10.6363804308844</v>
+        <v>11.6694727250565</v>
       </c>
       <c r="D100" t="n">
-        <v>11.6208600686349</v>
+        <v>10.7515172771296</v>
       </c>
       <c r="E100" t="n">
-        <v>12.8922751726468</v>
+        <v>12.4229550027696</v>
       </c>
       <c r="F100" t="n">
-        <v>13.4635567711756</v>
+        <v>11.5625728203916</v>
       </c>
       <c r="G100" t="n">
-        <v>13.1408167516089</v>
+        <v>11.8408135747369</v>
       </c>
       <c r="H100" t="n">
-        <v>12.4538752289631</v>
+        <v>12.3632133786492</v>
       </c>
       <c r="I100" t="n">
-        <v>12.043880675656</v>
+        <v>11.5752993392417</v>
       </c>
       <c r="J100" t="n">
-        <v>11.6571015275391</v>
+        <v>11.8088537888547</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.82235755367996</v>
+        <v>11.8411443389618</v>
       </c>
       <c r="B101" t="n">
-        <v>10.3242033219703</v>
+        <v>9.96097591220967</v>
       </c>
       <c r="C101" t="n">
-        <v>11.6549310222579</v>
+        <v>10.5616212390894</v>
       </c>
       <c r="D101" t="n">
-        <v>12.3767429251761</v>
+        <v>12.6327280952407</v>
       </c>
       <c r="E101" t="n">
-        <v>14.0787342903631</v>
+        <v>12.9468943980975</v>
       </c>
       <c r="F101" t="n">
-        <v>12.2742074347279</v>
+        <v>12.418967071856</v>
       </c>
       <c r="G101" t="n">
-        <v>13.0656848615044</v>
+        <v>12.2841774990962</v>
       </c>
       <c r="H101" t="n">
-        <v>13.4229241610602</v>
+        <v>12.7756471154115</v>
       </c>
       <c r="I101" t="n">
-        <v>12.0982229488219</v>
+        <v>11.685937428949</v>
       </c>
       <c r="J101" t="n">
-        <v>10.605449582599</v>
+        <v>11.5115037409393</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.88865930551275</v>
+        <v>10.2556746173628</v>
       </c>
       <c r="B102" t="n">
-        <v>10.8500385821726</v>
+        <v>10.2978820455622</v>
       </c>
       <c r="C102" t="n">
-        <v>11.3027949196375</v>
+        <v>11.6223300478218</v>
       </c>
       <c r="D102" t="n">
-        <v>12.2540472269485</v>
+        <v>12.2665781372218</v>
       </c>
       <c r="E102" t="n">
-        <v>13.7734477492899</v>
+        <v>13.1662835255179</v>
       </c>
       <c r="F102" t="n">
-        <v>12.769549235338</v>
+        <v>11.6967487081453</v>
       </c>
       <c r="G102" t="n">
-        <v>13.1829513029235</v>
+        <v>12.7906272390849</v>
       </c>
       <c r="H102" t="n">
-        <v>12.845215595612</v>
+        <v>12.4887269507231</v>
       </c>
       <c r="I102" t="n">
-        <v>12.7139963510278</v>
+        <v>12.1843402380862</v>
       </c>
       <c r="J102" t="n">
-        <v>11.9869771043683</v>
+        <v>12.1526212096594</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-4.78655796702134</v>
+        <v>10.2630289083302</v>
       </c>
       <c r="B103" t="n">
-        <v>-4.89623298279844</v>
+        <v>11.430352339262</v>
       </c>
       <c r="C103" t="n">
-        <v>-5.34109656002506</v>
+        <v>10.9144606911662</v>
       </c>
       <c r="D103" t="n">
-        <v>-4.64902950948458</v>
+        <v>12.7988672286373</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.98929800639641</v>
+        <v>12.6639123027156</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.81895600575854</v>
+        <v>12.7451608139515</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.937880597930129</v>
+        <v>12.1383318573129</v>
       </c>
       <c r="H103" t="n">
-        <v>1.4912925957305</v>
+        <v>12.4174862323659</v>
       </c>
       <c r="I103" t="n">
-        <v>3.98181234866606</v>
+        <v>9.84433952944868</v>
       </c>
       <c r="J103" t="n">
-        <v>6.85892445103605</v>
+        <v>9.17213258201827</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10.1399049191903</v>
+        <v>10.2989583574574</v>
       </c>
       <c r="B104" t="n">
-        <v>11.3816476334706</v>
+        <v>12.5857253344739</v>
       </c>
       <c r="C104" t="n">
-        <v>11.1584957930787</v>
+        <v>11.4920970980179</v>
       </c>
       <c r="D104" t="n">
-        <v>12.1029487135319</v>
+        <v>11.1602236488629</v>
       </c>
       <c r="E104" t="n">
-        <v>12.7705379390682</v>
+        <v>12.4611919965726</v>
       </c>
       <c r="F104" t="n">
-        <v>11.5884322882075</v>
+        <v>11.795017437089</v>
       </c>
       <c r="G104" t="n">
-        <v>11.5549440489823</v>
+        <v>12.729825176275</v>
       </c>
       <c r="H104" t="n">
-        <v>13.4628700283506</v>
+        <v>12.1658650127712</v>
       </c>
       <c r="I104" t="n">
-        <v>11.1690647723283</v>
+        <v>11.0152176638119</v>
       </c>
       <c r="J104" t="n">
-        <v>9.62097860844765</v>
+        <v>11.2984840583527</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.78230693975236</v>
+        <v>9.03884315493364</v>
       </c>
       <c r="B105" t="n">
-        <v>11.7005685531985</v>
+        <v>12.2755454496088</v>
       </c>
       <c r="C105" t="n">
-        <v>12.4537911420127</v>
+        <v>11.5052964286701</v>
       </c>
       <c r="D105" t="n">
-        <v>12.0988055829962</v>
+        <v>12.1089674784011</v>
       </c>
       <c r="E105" t="n">
-        <v>13.1302844422543</v>
+        <v>11.862131478182</v>
       </c>
       <c r="F105" t="n">
-        <v>12.0556270942445</v>
+        <v>13.0969586078079</v>
       </c>
       <c r="G105" t="n">
-        <v>13.0809380016544</v>
+        <v>11.927579880819</v>
       </c>
       <c r="H105" t="n">
-        <v>11.3387878925924</v>
+        <v>11.7957632757275</v>
       </c>
       <c r="I105" t="n">
-        <v>10.0032540978187</v>
+        <v>10.6644232952685</v>
       </c>
       <c r="J105" t="n">
-        <v>10.4306810665704</v>
+        <v>11.671208082738</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.66445493591596</v>
+        <v>11.1888815142533</v>
       </c>
       <c r="B106" t="n">
-        <v>11.4587105790351</v>
+        <v>10.966232200414</v>
       </c>
       <c r="C106" t="n">
-        <v>11.1614072447754</v>
+        <v>11.5917637798782</v>
       </c>
       <c r="D106" t="n">
-        <v>13.5622475853847</v>
+        <v>12.7647322252306</v>
       </c>
       <c r="E106" t="n">
-        <v>10.7781448051825</v>
+        <v>12.4514993412675</v>
       </c>
       <c r="F106" t="n">
-        <v>11.8940955200041</v>
+        <v>13.2130280089287</v>
       </c>
       <c r="G106" t="n">
-        <v>12.7268012773508</v>
+        <v>11.9966443603926</v>
       </c>
       <c r="H106" t="n">
-        <v>12.621105558668</v>
+        <v>12.8216088594053</v>
       </c>
       <c r="I106" t="n">
-        <v>11.3184949902363</v>
+        <v>12.0661741508547</v>
       </c>
       <c r="J106" t="n">
-        <v>11.303890238593</v>
+        <v>11.616336098676</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9.34902113930113</v>
+        <v>10.9444918028274</v>
       </c>
       <c r="B107" t="n">
-        <v>10.364377705597</v>
+        <v>10.2526998791379</v>
       </c>
       <c r="C107" t="n">
-        <v>13.0530395801702</v>
+        <v>12.0003774290388</v>
       </c>
       <c r="D107" t="n">
-        <v>11.6597388822831</v>
+        <v>13.3737437274917</v>
       </c>
       <c r="E107" t="n">
-        <v>13.5117613244594</v>
+        <v>12.7997374050014</v>
       </c>
       <c r="F107" t="n">
-        <v>12.6918374915931</v>
+        <v>12.5210810509425</v>
       </c>
       <c r="G107" t="n">
-        <v>11.2838684060551</v>
+        <v>12.2361969353587</v>
       </c>
       <c r="H107" t="n">
-        <v>11.5465930299841</v>
+        <v>12.3646050572963</v>
       </c>
       <c r="I107" t="n">
-        <v>13.0356159170817</v>
+        <v>11.6686344383874</v>
       </c>
       <c r="J107" t="n">
-        <v>11.387153755281</v>
+        <v>10.6234201939473</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.88061637744397</v>
+        <v>-4.84327724286563</v>
       </c>
       <c r="B108" t="n">
-        <v>11.3703073861434</v>
+        <v>-5.4804856014699</v>
       </c>
       <c r="C108" t="n">
-        <v>11.7182771848741</v>
+        <v>-5.21110634194635</v>
       </c>
       <c r="D108" t="n">
-        <v>12.624963391202</v>
+        <v>-4.6917733685531</v>
       </c>
       <c r="E108" t="n">
-        <v>13.4012323991509</v>
+        <v>-3.55521768722101</v>
       </c>
       <c r="F108" t="n">
-        <v>13.3399802276311</v>
+        <v>-2.3398389062025</v>
       </c>
       <c r="G108" t="n">
-        <v>11.1636372051215</v>
+        <v>-1.13511118584231</v>
       </c>
       <c r="H108" t="n">
-        <v>11.1479238529513</v>
+        <v>1.61443924417905</v>
       </c>
       <c r="I108" t="n">
-        <v>11.0270219251851</v>
+        <v>3.53010370252204</v>
       </c>
       <c r="J108" t="n">
-        <v>11.624538465653</v>
+        <v>6.68932858161039</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.95754866196853</v>
+        <v>11.3613274423497</v>
       </c>
       <c r="B109" t="n">
-        <v>10.0443043154952</v>
+        <v>12.2271949098047</v>
       </c>
       <c r="C109" t="n">
-        <v>12.7774983997852</v>
+        <v>13.0624369848936</v>
       </c>
       <c r="D109" t="n">
-        <v>11.3359916912684</v>
+        <v>11.8372054428385</v>
       </c>
       <c r="E109" t="n">
-        <v>12.2101722578094</v>
+        <v>11.6046680195843</v>
       </c>
       <c r="F109" t="n">
-        <v>12.5829863834336</v>
+        <v>12.7312912005003</v>
       </c>
       <c r="G109" t="n">
-        <v>11.1439441416101</v>
+        <v>12.2640561420751</v>
       </c>
       <c r="H109" t="n">
-        <v>11.9806733531086</v>
+        <v>12.8457956514694</v>
       </c>
       <c r="I109" t="n">
-        <v>10.9833465838801</v>
+        <v>12.055126327164</v>
       </c>
       <c r="J109" t="n">
-        <v>10.9387246974657</v>
+        <v>12.0340040722289</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9.22422303843882</v>
+        <v>9.09126744457344</v>
       </c>
       <c r="B110" t="n">
-        <v>11.0964915512796</v>
+        <v>11.1533382466475</v>
       </c>
       <c r="C110" t="n">
-        <v>12.1401215593265</v>
+        <v>11.2431676050361</v>
       </c>
       <c r="D110" t="n">
-        <v>12.0511510912769</v>
+        <v>12.0424668879104</v>
       </c>
       <c r="E110" t="n">
-        <v>12.8648623574927</v>
+        <v>13.636635524203</v>
       </c>
       <c r="F110" t="n">
-        <v>12.9656360793163</v>
+        <v>14.0747635965938</v>
       </c>
       <c r="G110" t="n">
-        <v>11.5746129750639</v>
+        <v>11.5896476158364</v>
       </c>
       <c r="H110" t="n">
-        <v>12.9841172330834</v>
+        <v>12.3769230661045</v>
       </c>
       <c r="I110" t="n">
-        <v>11.9645342371428</v>
+        <v>11.2805949741474</v>
       </c>
       <c r="J110" t="n">
-        <v>11.5741323025913</v>
+        <v>9.5587442850712</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.9774351644199</v>
+        <v>-5.09316943902976</v>
       </c>
       <c r="B111" t="n">
-        <v>10.3938074982371</v>
+        <v>-5.22093270405578</v>
       </c>
       <c r="C111" t="n">
-        <v>11.5978355334585</v>
+        <v>-5.11034406135348</v>
       </c>
       <c r="D111" t="n">
-        <v>11.7571237432153</v>
+        <v>-4.69861769465361</v>
       </c>
       <c r="E111" t="n">
-        <v>13.4774224359303</v>
+        <v>-3.63311851957988</v>
       </c>
       <c r="F111" t="n">
-        <v>13.4736321346828</v>
+        <v>-2.05303903805194</v>
       </c>
       <c r="G111" t="n">
-        <v>12.9953899137987</v>
+        <v>-1.09134438765106</v>
       </c>
       <c r="H111" t="n">
-        <v>11.1355127541289</v>
+        <v>0.985293553973968</v>
       </c>
       <c r="I111" t="n">
-        <v>10.8880340204762</v>
+        <v>3.28029367119233</v>
       </c>
       <c r="J111" t="n">
-        <v>10.798061923915</v>
+        <v>6.79123475498841</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9.71662631355064</v>
+        <v>10.4478491930696</v>
       </c>
       <c r="B112" t="n">
-        <v>9.96162598786516</v>
+        <v>10.998651807877</v>
       </c>
       <c r="C112" t="n">
-        <v>11.8129667350997</v>
+        <v>12.235126645618</v>
       </c>
       <c r="D112" t="n">
-        <v>12.0969076655033</v>
+        <v>11.6651316476325</v>
       </c>
       <c r="E112" t="n">
-        <v>11.8749212827112</v>
+        <v>11.7461903612827</v>
       </c>
       <c r="F112" t="n">
-        <v>13.4783686293787</v>
+        <v>13.1445351136573</v>
       </c>
       <c r="G112" t="n">
-        <v>12.2205007845798</v>
+        <v>13.6165587370161</v>
       </c>
       <c r="H112" t="n">
-        <v>11.7798771806814</v>
+        <v>12.8471905081985</v>
       </c>
       <c r="I112" t="n">
-        <v>11.2042945885423</v>
+        <v>12.6569118456091</v>
       </c>
       <c r="J112" t="n">
-        <v>9.87392159345099</v>
+        <v>10.7010032418558</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9.17034004282491</v>
+        <v>9.73938500799646</v>
       </c>
       <c r="B113" t="n">
-        <v>11.4149158914584</v>
+        <v>11.610211642521</v>
       </c>
       <c r="C113" t="n">
-        <v>11.8674337807748</v>
+        <v>12.3098423250825</v>
       </c>
       <c r="D113" t="n">
-        <v>11.7242020154082</v>
+        <v>11.0584084343532</v>
       </c>
       <c r="E113" t="n">
-        <v>12.7869494824324</v>
+        <v>14.4544933534062</v>
       </c>
       <c r="F113" t="n">
-        <v>12.5166679985995</v>
+        <v>12.9084761656819</v>
       </c>
       <c r="G113" t="n">
-        <v>12.4368971700122</v>
+        <v>12.8149702032528</v>
       </c>
       <c r="H113" t="n">
-        <v>11.5385251901491</v>
+        <v>11.5852577306566</v>
       </c>
       <c r="I113" t="n">
-        <v>12.1285160170358</v>
+        <v>10.2396656047951</v>
       </c>
       <c r="J113" t="n">
-        <v>10.5963093351738</v>
+        <v>10.4882759860493</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.7673799790997</v>
+        <v>10.7566136813766</v>
       </c>
       <c r="B114" t="n">
-        <v>12.0083817138057</v>
+        <v>9.6989461794214</v>
       </c>
       <c r="C114" t="n">
-        <v>10.6063540307576</v>
+        <v>11.8868796806669</v>
       </c>
       <c r="D114" t="n">
-        <v>12.3661228908846</v>
+        <v>11.2531715401702</v>
       </c>
       <c r="E114" t="n">
-        <v>14.0738605772467</v>
+        <v>11.9232353123849</v>
       </c>
       <c r="F114" t="n">
-        <v>13.3463333947022</v>
+        <v>11.8439148494989</v>
       </c>
       <c r="G114" t="n">
-        <v>12.8943217781565</v>
+        <v>11.7290613164601</v>
       </c>
       <c r="H114" t="n">
-        <v>12.3749530169022</v>
+        <v>11.6265273300744</v>
       </c>
       <c r="I114" t="n">
-        <v>10.5209953516777</v>
+        <v>10.9280571299956</v>
       </c>
       <c r="J114" t="n">
-        <v>10.8873473266825</v>
+        <v>11.5245999376915</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.42111559586174</v>
+        <v>8.80600420583204</v>
       </c>
       <c r="B115" t="n">
-        <v>10.2131670545753</v>
+        <v>11.7333721060331</v>
       </c>
       <c r="C115" t="n">
-        <v>12.2021377314263</v>
+        <v>12.7283779726087</v>
       </c>
       <c r="D115" t="n">
-        <v>12.8368444751584</v>
+        <v>12.4365154040405</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5184991653071</v>
+        <v>11.4516691914508</v>
       </c>
       <c r="F115" t="n">
-        <v>11.678596270183</v>
+        <v>13.380192820308</v>
       </c>
       <c r="G115" t="n">
-        <v>13.0050233266412</v>
+        <v>12.8260266034227</v>
       </c>
       <c r="H115" t="n">
-        <v>11.9208428252893</v>
+        <v>12.6142596575316</v>
       </c>
       <c r="I115" t="n">
-        <v>10.5072116736317</v>
+        <v>10.9086698722051</v>
       </c>
       <c r="J115" t="n">
-        <v>10.3668360780548</v>
+        <v>10.6362279095192</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.6604086884299</v>
+        <v>10.6030763135103</v>
       </c>
       <c r="B116" t="n">
-        <v>10.5002320423735</v>
+        <v>9.46891615241262</v>
       </c>
       <c r="C116" t="n">
-        <v>12.1230036479413</v>
+        <v>11.7189419574981</v>
       </c>
       <c r="D116" t="n">
-        <v>11.9207056356759</v>
+        <v>12.9767919300094</v>
       </c>
       <c r="E116" t="n">
-        <v>12.2654651370935</v>
+        <v>11.2154955077281</v>
       </c>
       <c r="F116" t="n">
-        <v>13.7347457362511</v>
+        <v>12.3894908119566</v>
       </c>
       <c r="G116" t="n">
-        <v>12.5217633108658</v>
+        <v>12.4029846380612</v>
       </c>
       <c r="H116" t="n">
-        <v>10.9125244417633</v>
+        <v>11.4970545971881</v>
       </c>
       <c r="I116" t="n">
-        <v>10.1960530731733</v>
+        <v>13.1015577682356</v>
       </c>
       <c r="J116" t="n">
-        <v>10.6133385311196</v>
+        <v>11.9286967550536</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.2075801863798</v>
+        <v>10.5709369933508</v>
       </c>
       <c r="B117" t="n">
-        <v>9.99326075233914</v>
+        <v>12.0900876824479</v>
       </c>
       <c r="C117" t="n">
-        <v>10.7928583714226</v>
+        <v>12.512893002834</v>
       </c>
       <c r="D117" t="n">
-        <v>12.3532254002435</v>
+        <v>12.9870541373629</v>
       </c>
       <c r="E117" t="n">
-        <v>12.5466332818249</v>
+        <v>12.5208787226799</v>
       </c>
       <c r="F117" t="n">
-        <v>12.3968313580885</v>
+        <v>12.2811439437132</v>
       </c>
       <c r="G117" t="n">
-        <v>11.7429773859799</v>
+        <v>12.2502463482059</v>
       </c>
       <c r="H117" t="n">
-        <v>12.6120133937624</v>
+        <v>11.1184727075295</v>
       </c>
       <c r="I117" t="n">
-        <v>11.5595548641401</v>
+        <v>11.5865887542781</v>
       </c>
       <c r="J117" t="n">
-        <v>11.3100454130606</v>
+        <v>11.5410238624026</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.1367052735067</v>
+        <v>10.6188440119614</v>
       </c>
       <c r="B118" t="n">
-        <v>10.6467533408685</v>
+        <v>10.7892409507931</v>
       </c>
       <c r="C118" t="n">
-        <v>12.2083072603827</v>
+        <v>11.8594090474762</v>
       </c>
       <c r="D118" t="n">
-        <v>11.7717243860188</v>
+        <v>12.2510672775597</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5204956352193</v>
+        <v>13.3192049058912</v>
       </c>
       <c r="F118" t="n">
-        <v>11.6256991390201</v>
+        <v>11.6543541376157</v>
       </c>
       <c r="G118" t="n">
-        <v>12.9836236568725</v>
+        <v>11.9784665150427</v>
       </c>
       <c r="H118" t="n">
-        <v>11.8023153589478</v>
+        <v>12.3352337183975</v>
       </c>
       <c r="I118" t="n">
-        <v>12.135365750496</v>
+        <v>11.6137770248123</v>
       </c>
       <c r="J118" t="n">
-        <v>11.4004238404502</v>
+        <v>10.7455779428547</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10.3350604892505</v>
+        <v>-4.94093403470256</v>
       </c>
       <c r="B119" t="n">
-        <v>11.4512176494391</v>
+        <v>-5.10727841074814</v>
       </c>
       <c r="C119" t="n">
-        <v>11.6420216892652</v>
+        <v>-5.32823270630457</v>
       </c>
       <c r="D119" t="n">
-        <v>11.9221045106402</v>
+        <v>-5.19301240937229</v>
       </c>
       <c r="E119" t="n">
-        <v>11.9911510426222</v>
+        <v>-3.70816111059552</v>
       </c>
       <c r="F119" t="n">
-        <v>11.492270471182</v>
+        <v>-2.78544111674529</v>
       </c>
       <c r="G119" t="n">
-        <v>13.0027510588904</v>
+        <v>-0.452997278316096</v>
       </c>
       <c r="H119" t="n">
-        <v>12.2983254804216</v>
+        <v>1.12134352843068</v>
       </c>
       <c r="I119" t="n">
-        <v>11.490492410789</v>
+        <v>3.67214800052792</v>
       </c>
       <c r="J119" t="n">
-        <v>10.1336239173679</v>
+        <v>6.81411152029798</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-5.22027265573986</v>
+        <v>11.2401813267402</v>
       </c>
       <c r="B120" t="n">
-        <v>-5.10770021369772</v>
+        <v>9.48541371070603</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.23496040259631</v>
+        <v>11.9879583860402</v>
       </c>
       <c r="D120" t="n">
-        <v>-4.84833720472828</v>
+        <v>11.7708542291258</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.70905110684444</v>
+        <v>14.3180226845434</v>
       </c>
       <c r="F120" t="n">
-        <v>-3.12206589385854</v>
+        <v>10.7041074877851</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.166094782460509</v>
+        <v>12.7597368071393</v>
       </c>
       <c r="H120" t="n">
-        <v>1.26056990622619</v>
+        <v>11.3547392728127</v>
       </c>
       <c r="I120" t="n">
-        <v>3.6158371423052</v>
+        <v>10.4968806922054</v>
       </c>
       <c r="J120" t="n">
-        <v>7.14546904285992</v>
+        <v>11.1389179454089</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>10.0269101605414</v>
+        <v>9.96701479913968</v>
       </c>
       <c r="B121" t="n">
-        <v>10.5788863860117</v>
+        <v>9.67359062321906</v>
       </c>
       <c r="C121" t="n">
-        <v>10.9527522216491</v>
+        <v>11.7573452106347</v>
       </c>
       <c r="D121" t="n">
-        <v>12.7722283944934</v>
+        <v>11.738377714159</v>
       </c>
       <c r="E121" t="n">
-        <v>11.6464770527593</v>
+        <v>12.6160486705843</v>
       </c>
       <c r="F121" t="n">
-        <v>12.7163342406703</v>
+        <v>14.0475299886187</v>
       </c>
       <c r="G121" t="n">
-        <v>12.399409607054</v>
+        <v>12.8683139759423</v>
       </c>
       <c r="H121" t="n">
-        <v>10.9494614329174</v>
+        <v>11.8929828656078</v>
       </c>
       <c r="I121" t="n">
-        <v>12.0964742982523</v>
+        <v>10.4913654089398</v>
       </c>
       <c r="J121" t="n">
-        <v>10.0189315571921</v>
+        <v>11.0570635226253</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.87296651792961</v>
+        <v>-5.57037557188263</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.52558291078917</v>
+        <v>-5.38436441779133</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.13216637585113</v>
+        <v>-4.61048651569725</v>
       </c>
       <c r="D122" t="n">
-        <v>-4.66520282291918</v>
+        <v>-4.40908737580771</v>
       </c>
       <c r="E122" t="n">
-        <v>-3.74442205863564</v>
+        <v>-4.1907819439818</v>
       </c>
       <c r="F122" t="n">
-        <v>-2.29764100804966</v>
+        <v>-2.24503941656312</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.586907669447629</v>
+        <v>-0.60420770475515</v>
       </c>
       <c r="H122" t="n">
-        <v>1.48199475090365</v>
+        <v>1.17755710287385</v>
       </c>
       <c r="I122" t="n">
-        <v>3.76945123393913</v>
+        <v>3.62191242951357</v>
       </c>
       <c r="J122" t="n">
-        <v>6.78196472172</v>
+        <v>7.0562102305403</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10.2513396019258</v>
+        <v>-4.72859663558374</v>
       </c>
       <c r="B123" t="n">
-        <v>10.7476742414361</v>
+        <v>-5.33516278882707</v>
       </c>
       <c r="C123" t="n">
-        <v>13.0290797286413</v>
+        <v>-5.29547996070429</v>
       </c>
       <c r="D123" t="n">
-        <v>12.6934706827338</v>
+        <v>-4.62455919040675</v>
       </c>
       <c r="E123" t="n">
-        <v>12.0658587323384</v>
+        <v>-3.9102410763841</v>
       </c>
       <c r="F123" t="n">
-        <v>11.9268856708997</v>
+        <v>-2.56608635374166</v>
       </c>
       <c r="G123" t="n">
-        <v>11.7848894647922</v>
+        <v>-0.305540268908534</v>
       </c>
       <c r="H123" t="n">
-        <v>11.8199167769106</v>
+        <v>1.11152222833813</v>
       </c>
       <c r="I123" t="n">
-        <v>10.8585813416801</v>
+        <v>3.52890150094671</v>
       </c>
       <c r="J123" t="n">
-        <v>9.43769082107913</v>
+        <v>6.86197332165602</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-5.33459389349439</v>
+        <v>-4.9761642981447</v>
       </c>
       <c r="B124" t="n">
-        <v>-5.45558675769131</v>
+        <v>-5.2666712559049</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.17096555874936</v>
+        <v>-4.88472710570636</v>
       </c>
       <c r="D124" t="n">
-        <v>-4.69227128310134</v>
+        <v>-4.97075549343962</v>
       </c>
       <c r="E124" t="n">
-        <v>-3.58954996136173</v>
+        <v>-3.97834257102818</v>
       </c>
       <c r="F124" t="n">
-        <v>-2.11529944975507</v>
+        <v>-2.75201728749861</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.932924038525955</v>
+        <v>-0.863969079199348</v>
       </c>
       <c r="H124" t="n">
-        <v>0.740178878228913</v>
+        <v>0.839354141231173</v>
       </c>
       <c r="I124" t="n">
-        <v>4.03304738206484</v>
+        <v>3.47124355671509</v>
       </c>
       <c r="J124" t="n">
-        <v>7.17183894384385</v>
+        <v>6.76566639911309</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.39332871512516</v>
+        <v>10.9876009900333</v>
       </c>
       <c r="B125" t="n">
-        <v>12.7167536364615</v>
+        <v>10.4628097228177</v>
       </c>
       <c r="C125" t="n">
-        <v>11.8811801564002</v>
+        <v>10.4668686185596</v>
       </c>
       <c r="D125" t="n">
-        <v>11.4980717729181</v>
+        <v>11.240262978105</v>
       </c>
       <c r="E125" t="n">
-        <v>11.7849767498257</v>
+        <v>12.1542501141693</v>
       </c>
       <c r="F125" t="n">
-        <v>11.7809297834005</v>
+        <v>12.7079257940379</v>
       </c>
       <c r="G125" t="n">
-        <v>11.9906058935156</v>
+        <v>12.5957213064899</v>
       </c>
       <c r="H125" t="n">
-        <v>13.8859640527233</v>
+        <v>12.7066711737569</v>
       </c>
       <c r="I125" t="n">
-        <v>12.279850051018</v>
+        <v>12.6697524716062</v>
       </c>
       <c r="J125" t="n">
-        <v>11.3327688484255</v>
+        <v>11.1526235494138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.77741898123788</v>
+        <v>8.83385480543174</v>
       </c>
       <c r="B126" t="n">
-        <v>12.4225153557577</v>
+        <v>8.74585161548833</v>
       </c>
       <c r="C126" t="n">
-        <v>12.1232660440202</v>
+        <v>10.833984009914</v>
       </c>
       <c r="D126" t="n">
-        <v>11.3048102497185</v>
+        <v>12.6298116901065</v>
       </c>
       <c r="E126" t="n">
-        <v>11.7047854038007</v>
+        <v>13.657244488768</v>
       </c>
       <c r="F126" t="n">
-        <v>13.3189692243179</v>
+        <v>12.6272294220335</v>
       </c>
       <c r="G126" t="n">
-        <v>12.948831128843</v>
+        <v>11.6492718523078</v>
       </c>
       <c r="H126" t="n">
-        <v>12.7874392352159</v>
+        <v>11.6350547333656</v>
       </c>
       <c r="I126" t="n">
-        <v>10.9142553209818</v>
+        <v>13.9144570883665</v>
       </c>
       <c r="J126" t="n">
-        <v>12.0600887226934</v>
+        <v>11.8565814958939</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.94011505233469</v>
+        <v>9.87260720105114</v>
       </c>
       <c r="B127" t="n">
-        <v>10.6897226021307</v>
+        <v>8.8875169457987</v>
       </c>
       <c r="C127" t="n">
-        <v>11.7111946437263</v>
+        <v>11.4120494609532</v>
       </c>
       <c r="D127" t="n">
-        <v>9.71026764744004</v>
+        <v>12.0625043282534</v>
       </c>
       <c r="E127" t="n">
-        <v>12.9381814010557</v>
+        <v>12.0858711152923</v>
       </c>
       <c r="F127" t="n">
-        <v>12.9062609474959</v>
+        <v>13.1958013077642</v>
       </c>
       <c r="G127" t="n">
-        <v>12.0153040286178</v>
+        <v>11.5845658610883</v>
       </c>
       <c r="H127" t="n">
-        <v>11.5040407184509</v>
+        <v>12.3839566855918</v>
       </c>
       <c r="I127" t="n">
-        <v>12.3881492971202</v>
+        <v>11.4324607528653</v>
       </c>
       <c r="J127" t="n">
-        <v>12.0330637436318</v>
+        <v>11.4071035381563</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.9595175013593</v>
+        <v>10.5205853247028</v>
       </c>
       <c r="B128" t="n">
-        <v>12.2770083564644</v>
+        <v>11.0936787393201</v>
       </c>
       <c r="C128" t="n">
-        <v>12.2772452196637</v>
+        <v>10.7038454928998</v>
       </c>
       <c r="D128" t="n">
-        <v>12.8547332621264</v>
+        <v>10.7897186573811</v>
       </c>
       <c r="E128" t="n">
-        <v>13.0640089645031</v>
+        <v>12.1429595253477</v>
       </c>
       <c r="F128" t="n">
-        <v>12.6235060547277</v>
+        <v>12.4155565856702</v>
       </c>
       <c r="G128" t="n">
-        <v>12.2736080022423</v>
+        <v>13.264457549014</v>
       </c>
       <c r="H128" t="n">
-        <v>12.3508319067786</v>
+        <v>11.5960286666213</v>
       </c>
       <c r="I128" t="n">
-        <v>11.3363754606897</v>
+        <v>11.461581465808</v>
       </c>
       <c r="J128" t="n">
-        <v>10.869079062696</v>
+        <v>9.51538919911378</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-5.27814091109724</v>
+        <v>9.9552482660137</v>
       </c>
       <c r="B129" t="n">
-        <v>-4.98769952424939</v>
+        <v>11.222404188341</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.49128929148676</v>
+        <v>11.1802400063414</v>
       </c>
       <c r="D129" t="n">
-        <v>-4.92196126283591</v>
+        <v>12.3172320245444</v>
       </c>
       <c r="E129" t="n">
-        <v>-3.78662836682352</v>
+        <v>13.6591752005156</v>
       </c>
       <c r="F129" t="n">
-        <v>-2.49139644823138</v>
+        <v>11.2402901660074</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.407552199588777</v>
+        <v>10.3994206410235</v>
       </c>
       <c r="H129" t="n">
-        <v>1.54492667257378</v>
+        <v>12.8426910685913</v>
       </c>
       <c r="I129" t="n">
-        <v>3.64978641976474</v>
+        <v>11.8254699847934</v>
       </c>
       <c r="J129" t="n">
-        <v>6.43337076786071</v>
+        <v>11.739760465748</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.2016189775065</v>
+        <v>8.79778308955966</v>
       </c>
       <c r="B130" t="n">
-        <v>10.7198957332342</v>
+        <v>11.1212255501913</v>
       </c>
       <c r="C130" t="n">
-        <v>11.0591978501228</v>
+        <v>12.0774734032439</v>
       </c>
       <c r="D130" t="n">
-        <v>13.6796083300312</v>
+        <v>12.4863706483049</v>
       </c>
       <c r="E130" t="n">
-        <v>12.5364237297757</v>
+        <v>12.4559589441955</v>
       </c>
       <c r="F130" t="n">
-        <v>12.8863102175646</v>
+        <v>13.5011165892014</v>
       </c>
       <c r="G130" t="n">
-        <v>12.9318607032055</v>
+        <v>12.0245397302206</v>
       </c>
       <c r="H130" t="n">
-        <v>12.3270263054799</v>
+        <v>12.8842661019775</v>
       </c>
       <c r="I130" t="n">
-        <v>12.1701185567141</v>
+        <v>12.7606863280499</v>
       </c>
       <c r="J130" t="n">
-        <v>10.4291571011264</v>
+        <v>11.1577279412053</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-4.94491796318303</v>
+        <v>11.8581430262789</v>
       </c>
       <c r="B131" t="n">
-        <v>-5.03971921838208</v>
+        <v>11.3094977483766</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.02821350222407</v>
+        <v>12.7940563549046</v>
       </c>
       <c r="D131" t="n">
-        <v>-4.93038822405001</v>
+        <v>11.5118094198065</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.65263330514976</v>
+        <v>11.9148994737567</v>
       </c>
       <c r="F131" t="n">
-        <v>-3.04535046719204</v>
+        <v>11.3965132348618</v>
       </c>
       <c r="G131" t="n">
-        <v>-1.03402061264027</v>
+        <v>11.7892987559966</v>
       </c>
       <c r="H131" t="n">
-        <v>0.894558643857144</v>
+        <v>11.9652714819633</v>
       </c>
       <c r="I131" t="n">
-        <v>3.86716949371971</v>
+        <v>11.1875482092586</v>
       </c>
       <c r="J131" t="n">
-        <v>6.82931980078865</v>
+        <v>9.79795328503834</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.5725913278405</v>
+        <v>10.1323035488905</v>
       </c>
       <c r="B132" t="n">
-        <v>10.8427742431047</v>
+        <v>10.2588050978055</v>
       </c>
       <c r="C132" t="n">
-        <v>12.5937180142079</v>
+        <v>11.3989653949415</v>
       </c>
       <c r="D132" t="n">
-        <v>11.301625891542</v>
+        <v>12.2579584795604</v>
       </c>
       <c r="E132" t="n">
-        <v>13.1371704747412</v>
+        <v>12.4323726734332</v>
       </c>
       <c r="F132" t="n">
-        <v>12.0429211867836</v>
+        <v>12.7325012102164</v>
       </c>
       <c r="G132" t="n">
-        <v>13.6192039289941</v>
+        <v>11.9763881841608</v>
       </c>
       <c r="H132" t="n">
-        <v>11.3426441067241</v>
+        <v>11.6522670931341</v>
       </c>
       <c r="I132" t="n">
-        <v>13.2930661123278</v>
+        <v>10.9188968539098</v>
       </c>
       <c r="J132" t="n">
-        <v>10.659928386485</v>
+        <v>10.5923824384755</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>10.9730807885503</v>
+        <v>10.0708048232658</v>
       </c>
       <c r="B133" t="n">
-        <v>10.2104099693078</v>
+        <v>10.3803793948641</v>
       </c>
       <c r="C133" t="n">
-        <v>10.6039977765334</v>
+        <v>9.95284349989681</v>
       </c>
       <c r="D133" t="n">
-        <v>11.7985830329954</v>
+        <v>11.9683451361943</v>
       </c>
       <c r="E133" t="n">
-        <v>13.1251700298673</v>
+        <v>11.8085889212067</v>
       </c>
       <c r="F133" t="n">
-        <v>10.8695387459971</v>
+        <v>12.1155007836528</v>
       </c>
       <c r="G133" t="n">
-        <v>12.8106725083142</v>
+        <v>13.8601848733605</v>
       </c>
       <c r="H133" t="n">
-        <v>12.5919090497546</v>
+        <v>11.5178085977142</v>
       </c>
       <c r="I133" t="n">
-        <v>11.6803319870802</v>
+        <v>12.216202910701</v>
       </c>
       <c r="J133" t="n">
-        <v>9.89003959436362</v>
+        <v>11.0146183003606</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-4.57884339673869</v>
+        <v>10.6696477608141</v>
       </c>
       <c r="B134" t="n">
-        <v>-5.56164812999377</v>
+        <v>9.76883852546133</v>
       </c>
       <c r="C134" t="n">
-        <v>-5.16411340656068</v>
+        <v>11.9005172687005</v>
       </c>
       <c r="D134" t="n">
-        <v>-4.06987496335926</v>
+        <v>11.927614442882</v>
       </c>
       <c r="E134" t="n">
-        <v>-3.35153420501169</v>
+        <v>13.0145332490971</v>
       </c>
       <c r="F134" t="n">
-        <v>-2.39580193831052</v>
+        <v>12.5804783679784</v>
       </c>
       <c r="G134" t="n">
-        <v>-1.18574481522368</v>
+        <v>11.8289443945433</v>
       </c>
       <c r="H134" t="n">
-        <v>1.06936168662942</v>
+        <v>12.5946591271095</v>
       </c>
       <c r="I134" t="n">
-        <v>3.86628862778584</v>
+        <v>10.312927188635</v>
       </c>
       <c r="J134" t="n">
-        <v>6.74702877867968</v>
+        <v>11.5280752299481</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.11406672220519</v>
+        <v>9.95313092295532</v>
       </c>
       <c r="B135" t="n">
-        <v>10.7722617298844</v>
+        <v>12.5174512085941</v>
       </c>
       <c r="C135" t="n">
-        <v>10.5330345213013</v>
+        <v>12.3672551689457</v>
       </c>
       <c r="D135" t="n">
-        <v>11.009236156314</v>
+        <v>11.0514730530435</v>
       </c>
       <c r="E135" t="n">
-        <v>11.6703809974484</v>
+        <v>13.0256802620104</v>
       </c>
       <c r="F135" t="n">
-        <v>13.3376504528052</v>
+        <v>12.3856973100013</v>
       </c>
       <c r="G135" t="n">
-        <v>11.3282310026632</v>
+        <v>13.2645588694319</v>
       </c>
       <c r="H135" t="n">
-        <v>12.9165506017211</v>
+        <v>11.2254993191178</v>
       </c>
       <c r="I135" t="n">
-        <v>11.5453632186764</v>
+        <v>12.7529270913681</v>
       </c>
       <c r="J135" t="n">
-        <v>10.7012445474577</v>
+        <v>12.7494605356325</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>11.2560904362144</v>
+        <v>10.0306553184358</v>
       </c>
       <c r="B136" t="n">
-        <v>10.6466153856945</v>
+        <v>9.73278313003887</v>
       </c>
       <c r="C136" t="n">
-        <v>10.5323841068309</v>
+        <v>10.9364799729169</v>
       </c>
       <c r="D136" t="n">
-        <v>12.8663066417201</v>
+        <v>11.5017255299709</v>
       </c>
       <c r="E136" t="n">
-        <v>13.1240314467131</v>
+        <v>13.1372168507442</v>
       </c>
       <c r="F136" t="n">
-        <v>12.0447327153175</v>
+        <v>11.9814966334039</v>
       </c>
       <c r="G136" t="n">
-        <v>12.5353470212661</v>
+        <v>12.493308337127</v>
       </c>
       <c r="H136" t="n">
-        <v>11.6807039331627</v>
+        <v>11.8810831630052</v>
       </c>
       <c r="I136" t="n">
-        <v>12.3117409961656</v>
+        <v>11.4317895884607</v>
       </c>
       <c r="J136" t="n">
-        <v>11.3127906643329</v>
+        <v>11.6228710811568</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-5.19134667495813</v>
+        <v>-5.18921095918837</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.65582077127729</v>
+        <v>-5.5033770912041</v>
       </c>
       <c r="C137" t="n">
-        <v>-5.10313545793816</v>
+        <v>-5.26900399316802</v>
       </c>
       <c r="D137" t="n">
-        <v>-4.40445052115696</v>
+        <v>-4.61899992835463</v>
       </c>
       <c r="E137" t="n">
-        <v>-3.73970011176772</v>
+        <v>-3.8218451948493</v>
       </c>
       <c r="F137" t="n">
-        <v>-2.52806089066699</v>
+        <v>-2.07620503016686</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.67958963557634</v>
+        <v>-1.01323343378717</v>
       </c>
       <c r="H137" t="n">
-        <v>1.06123442711536</v>
+        <v>1.29023187169562</v>
       </c>
       <c r="I137" t="n">
-        <v>4.18085104804099</v>
+        <v>3.4753374405661</v>
       </c>
       <c r="J137" t="n">
-        <v>6.22166331016558</v>
+        <v>6.79582130984714</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.5507765660848</v>
+        <v>10.2645586124796</v>
       </c>
       <c r="B138" t="n">
-        <v>12.6263636451939</v>
+        <v>11.6089100820049</v>
       </c>
       <c r="C138" t="n">
-        <v>10.5425545644213</v>
+        <v>11.8054581062991</v>
       </c>
       <c r="D138" t="n">
-        <v>11.2592222146884</v>
+        <v>13.2302797517866</v>
       </c>
       <c r="E138" t="n">
-        <v>12.5464586320576</v>
+        <v>12.9598006597042</v>
       </c>
       <c r="F138" t="n">
-        <v>11.5054041914063</v>
+        <v>14.076402289147</v>
       </c>
       <c r="G138" t="n">
-        <v>12.0664971367155</v>
+        <v>10.7615967542319</v>
       </c>
       <c r="H138" t="n">
-        <v>11.4873892659688</v>
+        <v>11.5598876196508</v>
       </c>
       <c r="I138" t="n">
-        <v>11.3216448387405</v>
+        <v>11.0613348537806</v>
       </c>
       <c r="J138" t="n">
-        <v>10.4879942869299</v>
+        <v>10.05830378437</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-4.87407155921613</v>
+        <v>9.75992119613441</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.6915359628382</v>
+        <v>10.4031553602017</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.87687331227038</v>
+        <v>11.1240947107448</v>
       </c>
       <c r="D139" t="n">
-        <v>-5.06388202671124</v>
+        <v>12.1968658443894</v>
       </c>
       <c r="E139" t="n">
-        <v>-3.68001403244869</v>
+        <v>13.0690391929455</v>
       </c>
       <c r="F139" t="n">
-        <v>-2.47816090205501</v>
+        <v>12.3290548556508</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.20216846687052</v>
+        <v>13.3241853883725</v>
       </c>
       <c r="H139" t="n">
-        <v>1.39191211944146</v>
+        <v>11.242385447253</v>
       </c>
       <c r="I139" t="n">
-        <v>3.82876786053077</v>
+        <v>12.1549738289229</v>
       </c>
       <c r="J139" t="n">
-        <v>6.98141937693142</v>
+        <v>10.9942269999102</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-4.99560897715542</v>
+        <v>8.8557045215565</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.14535331753084</v>
+        <v>10.5728873819182</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.43054069785663</v>
+        <v>11.1035696732434</v>
       </c>
       <c r="D140" t="n">
-        <v>-4.76664191596324</v>
+        <v>11.4396768976702</v>
       </c>
       <c r="E140" t="n">
-        <v>-4.08705503114766</v>
+        <v>12.7795127762559</v>
       </c>
       <c r="F140" t="n">
-        <v>-2.78730115270033</v>
+        <v>12.5200214164333</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.871476177459374</v>
+        <v>12.3705184648605</v>
       </c>
       <c r="H140" t="n">
-        <v>1.18164110420576</v>
+        <v>13.0992179672765</v>
       </c>
       <c r="I140" t="n">
-        <v>3.61098339025783</v>
+        <v>11.676229239847</v>
       </c>
       <c r="J140" t="n">
-        <v>6.89466683298155</v>
+        <v>12.0571430295809</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>12.0799765242902</v>
+        <v>10.4005645076849</v>
       </c>
       <c r="B141" t="n">
-        <v>12.46299217193</v>
+        <v>10.995763794597</v>
       </c>
       <c r="C141" t="n">
-        <v>11.2387569030189</v>
+        <v>11.2528656349455</v>
       </c>
       <c r="D141" t="n">
-        <v>12.0436747538026</v>
+        <v>11.852263732685</v>
       </c>
       <c r="E141" t="n">
-        <v>11.9874941112256</v>
+        <v>11.5355655393417</v>
       </c>
       <c r="F141" t="n">
-        <v>12.0536716521927</v>
+        <v>13.2061719811548</v>
       </c>
       <c r="G141" t="n">
-        <v>13.1445411987715</v>
+        <v>11.5084439128116</v>
       </c>
       <c r="H141" t="n">
-        <v>12.2866571064848</v>
+        <v>11.5662958487062</v>
       </c>
       <c r="I141" t="n">
-        <v>10.4600911933791</v>
+        <v>11.0269887423854</v>
       </c>
       <c r="J141" t="n">
-        <v>10.0750802495685</v>
+        <v>11.0699460975178</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.8383934223264</v>
+        <v>-5.42416897665613</v>
       </c>
       <c r="B142" t="n">
-        <v>11.0977003937091</v>
+        <v>-5.7581463568717</v>
       </c>
       <c r="C142" t="n">
-        <v>10.5543413187407</v>
+        <v>-5.02794018157888</v>
       </c>
       <c r="D142" t="n">
-        <v>12.0523438917724</v>
+        <v>-4.89624864980233</v>
       </c>
       <c r="E142" t="n">
-        <v>11.882071344583</v>
+        <v>-3.58936685672394</v>
       </c>
       <c r="F142" t="n">
-        <v>12.6867910504377</v>
+        <v>-2.4103130822926</v>
       </c>
       <c r="G142" t="n">
-        <v>13.4505956212155</v>
+        <v>-0.618588874929616</v>
       </c>
       <c r="H142" t="n">
-        <v>12.4694651736665</v>
+        <v>0.888736646115989</v>
       </c>
       <c r="I142" t="n">
-        <v>12.674554230026</v>
+        <v>3.64638235465675</v>
       </c>
       <c r="J142" t="n">
-        <v>10.541193971537</v>
+        <v>6.66842060509302</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.87876313862855</v>
+        <v>9.88339357776484</v>
       </c>
       <c r="B143" t="n">
-        <v>11.1656622723576</v>
+        <v>11.32287419053</v>
       </c>
       <c r="C143" t="n">
-        <v>12.4314064365052</v>
+        <v>11.2401855175454</v>
       </c>
       <c r="D143" t="n">
-        <v>11.5813215467448</v>
+        <v>11.8389901853009</v>
       </c>
       <c r="E143" t="n">
-        <v>11.1969780933174</v>
+        <v>12.0305971210186</v>
       </c>
       <c r="F143" t="n">
-        <v>12.9495057353679</v>
+        <v>12.9418888848061</v>
       </c>
       <c r="G143" t="n">
-        <v>12.323322553537</v>
+        <v>13.2245474387696</v>
       </c>
       <c r="H143" t="n">
-        <v>11.3265254782146</v>
+        <v>12.406678735552</v>
       </c>
       <c r="I143" t="n">
-        <v>10.0364535523751</v>
+        <v>10.9102646191365</v>
       </c>
       <c r="J143" t="n">
-        <v>10.4216515081265</v>
+        <v>11.2341566259515</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10.5202371395452</v>
+        <v>8.76857348190705</v>
       </c>
       <c r="B144" t="n">
-        <v>10.8660455883141</v>
+        <v>11.4151515312731</v>
       </c>
       <c r="C144" t="n">
-        <v>13.354597444659</v>
+        <v>12.353441982508</v>
       </c>
       <c r="D144" t="n">
-        <v>12.5126976562611</v>
+        <v>11.8913178052952</v>
       </c>
       <c r="E144" t="n">
-        <v>12.2884486521242</v>
+        <v>13.5636815707393</v>
       </c>
       <c r="F144" t="n">
-        <v>13.5196197478576</v>
+        <v>11.9754758465574</v>
       </c>
       <c r="G144" t="n">
-        <v>11.1613780227307</v>
+        <v>12.5750137149256</v>
       </c>
       <c r="H144" t="n">
-        <v>11.8553270281097</v>
+        <v>12.7302261678429</v>
       </c>
       <c r="I144" t="n">
-        <v>12.0987224618029</v>
+        <v>11.5359885030252</v>
       </c>
       <c r="J144" t="n">
-        <v>11.0316678874676</v>
+        <v>11.2509197627494</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.3589599955045</v>
+        <v>10.9496858086085</v>
       </c>
       <c r="B145" t="n">
-        <v>10.7076230468061</v>
+        <v>11.3400049469422</v>
       </c>
       <c r="C145" t="n">
-        <v>12.7094109638556</v>
+        <v>12.3282770008723</v>
       </c>
       <c r="D145" t="n">
-        <v>12.210706060974</v>
+        <v>11.9744708159924</v>
       </c>
       <c r="E145" t="n">
-        <v>12.3636629616052</v>
+        <v>12.0239424190286</v>
       </c>
       <c r="F145" t="n">
-        <v>10.8457507787858</v>
+        <v>12.3811400712657</v>
       </c>
       <c r="G145" t="n">
-        <v>11.9474235112926</v>
+        <v>12.5150739542001</v>
       </c>
       <c r="H145" t="n">
-        <v>13.1820241910623</v>
+        <v>11.5322005461618</v>
       </c>
       <c r="I145" t="n">
-        <v>11.4709396117042</v>
+        <v>12.1103687573722</v>
       </c>
       <c r="J145" t="n">
-        <v>9.71853908278544</v>
+        <v>11.9701855967785</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-5.02424893906729</v>
+        <v>9.37957436633484</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.522186565543</v>
+        <v>11.6341885441592</v>
       </c>
       <c r="C146" t="n">
-        <v>-5.35580016010204</v>
+        <v>11.9019235388121</v>
       </c>
       <c r="D146" t="n">
-        <v>-4.60664526404178</v>
+        <v>11.5297877696882</v>
       </c>
       <c r="E146" t="n">
-        <v>-4.31322469534448</v>
+        <v>12.563071186131</v>
       </c>
       <c r="F146" t="n">
-        <v>-2.71027994442746</v>
+        <v>13.8619196228215</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.897643464581885</v>
+        <v>12.7473354130394</v>
       </c>
       <c r="H146" t="n">
-        <v>0.954427750121912</v>
+        <v>13.4839323760449</v>
       </c>
       <c r="I146" t="n">
-        <v>3.61251330624947</v>
+        <v>11.0139831886202</v>
       </c>
       <c r="J146" t="n">
-        <v>6.8978803083274</v>
+        <v>10.7104194824034</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9.75595960679566</v>
+        <v>-4.97019158148512</v>
       </c>
       <c r="B147" t="n">
-        <v>9.25519024859068</v>
+        <v>-5.38399912800396</v>
       </c>
       <c r="C147" t="n">
-        <v>12.6263111526026</v>
+        <v>-5.17532273819708</v>
       </c>
       <c r="D147" t="n">
-        <v>11.49167496218</v>
+        <v>-4.97003274289793</v>
       </c>
       <c r="E147" t="n">
-        <v>12.2320736802876</v>
+        <v>-3.83388029740055</v>
       </c>
       <c r="F147" t="n">
-        <v>12.356081844769</v>
+        <v>-2.13165213862946</v>
       </c>
       <c r="G147" t="n">
-        <v>12.1276250532112</v>
+        <v>-1.19775306605585</v>
       </c>
       <c r="H147" t="n">
-        <v>11.5131770455401</v>
+        <v>0.916677999319307</v>
       </c>
       <c r="I147" t="n">
-        <v>11.7353667537105</v>
+        <v>4.33126235028945</v>
       </c>
       <c r="J147" t="n">
-        <v>11.1455533846554</v>
+        <v>6.9162939593773</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8.88256357235471</v>
+        <v>10.4345784914885</v>
       </c>
       <c r="B148" t="n">
-        <v>11.0727103771132</v>
+        <v>10.9764374103087</v>
       </c>
       <c r="C148" t="n">
-        <v>10.8818512079659</v>
+        <v>12.3132167697063</v>
       </c>
       <c r="D148" t="n">
-        <v>11.4613744368747</v>
+        <v>12.1958612593238</v>
       </c>
       <c r="E148" t="n">
-        <v>11.6548828216285</v>
+        <v>10.615820988465</v>
       </c>
       <c r="F148" t="n">
-        <v>11.3125658483742</v>
+        <v>12.9017161255788</v>
       </c>
       <c r="G148" t="n">
-        <v>12.1443488700834</v>
+        <v>14.4372458404211</v>
       </c>
       <c r="H148" t="n">
-        <v>11.176814875655</v>
+        <v>11.8308524298739</v>
       </c>
       <c r="I148" t="n">
-        <v>10.0862597447051</v>
+        <v>11.9939603978519</v>
       </c>
       <c r="J148" t="n">
-        <v>10.3979459586796</v>
+        <v>11.5334803957223</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-5.17538421869778</v>
+        <v>11.2465707518128</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.34591622408951</v>
+        <v>10.5496304788447</v>
       </c>
       <c r="C149" t="n">
-        <v>-5.13572271581685</v>
+        <v>12.2945001291512</v>
       </c>
       <c r="D149" t="n">
-        <v>-4.94378008673453</v>
+        <v>12.4564284219462</v>
       </c>
       <c r="E149" t="n">
-        <v>-4.0852004232855</v>
+        <v>12.623596230026</v>
       </c>
       <c r="F149" t="n">
-        <v>-2.43986749102996</v>
+        <v>12.2507050166619</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.698428870885488</v>
+        <v>12.409318830437</v>
       </c>
       <c r="H149" t="n">
-        <v>1.71156772586122</v>
+        <v>13.3115374632027</v>
       </c>
       <c r="I149" t="n">
-        <v>4.02503569233102</v>
+        <v>11.0783890319734</v>
       </c>
       <c r="J149" t="n">
-        <v>6.77161832868773</v>
+        <v>11.4264920967776</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.2777922557962</v>
+        <v>8.93966550645526</v>
       </c>
       <c r="B150" t="n">
-        <v>11.0458159392038</v>
+        <v>10.3382709185011</v>
       </c>
       <c r="C150" t="n">
-        <v>11.2516137502129</v>
+        <v>10.8733755175776</v>
       </c>
       <c r="D150" t="n">
-        <v>12.6125301462059</v>
+        <v>12.7695416441593</v>
       </c>
       <c r="E150" t="n">
-        <v>11.1795206720726</v>
+        <v>13.2358156144574</v>
       </c>
       <c r="F150" t="n">
-        <v>11.2180441660592</v>
+        <v>11.4910470555895</v>
       </c>
       <c r="G150" t="n">
-        <v>12.9321290697594</v>
+        <v>12.4211779700347</v>
       </c>
       <c r="H150" t="n">
-        <v>12.5079371392487</v>
+        <v>11.2690299177089</v>
       </c>
       <c r="I150" t="n">
-        <v>10.2027183976713</v>
+        <v>11.7623095882474</v>
       </c>
       <c r="J150" t="n">
-        <v>11.2620773192514</v>
+        <v>10.1352318907052</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.42144407746026</v>
+        <v>8.31304343649812</v>
       </c>
       <c r="B151" t="n">
-        <v>10.3670109157239</v>
+        <v>10.4563688426459</v>
       </c>
       <c r="C151" t="n">
-        <v>12.134488018883</v>
+        <v>10.7890362265522</v>
       </c>
       <c r="D151" t="n">
-        <v>12.7673719297268</v>
+        <v>11.7401901980118</v>
       </c>
       <c r="E151" t="n">
-        <v>13.7813836950077</v>
+        <v>12.8997994414318</v>
       </c>
       <c r="F151" t="n">
-        <v>12.8920888958887</v>
+        <v>11.1341938769697</v>
       </c>
       <c r="G151" t="n">
-        <v>11.4177406482201</v>
+        <v>12.3033531233624</v>
       </c>
       <c r="H151" t="n">
-        <v>11.4779229604763</v>
+        <v>11.1361342501946</v>
       </c>
       <c r="I151" t="n">
-        <v>11.2096297640435</v>
+        <v>10.714053857403</v>
       </c>
       <c r="J151" t="n">
-        <v>10.3984679045146</v>
+        <v>11.5339875353415</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8.91037744323346</v>
+        <v>10.0157817069707</v>
       </c>
       <c r="B152" t="n">
-        <v>11.1397798611603</v>
+        <v>11.9380950787355</v>
       </c>
       <c r="C152" t="n">
-        <v>12.5911558153089</v>
+        <v>11.3695179810816</v>
       </c>
       <c r="D152" t="n">
-        <v>11.7466312884933</v>
+        <v>12.9426369991303</v>
       </c>
       <c r="E152" t="n">
-        <v>13.4660757376863</v>
+        <v>13.1428226049494</v>
       </c>
       <c r="F152" t="n">
-        <v>13.9690025147904</v>
+        <v>13.7352392014175</v>
       </c>
       <c r="G152" t="n">
-        <v>12.1214213203465</v>
+        <v>11.5023407425216</v>
       </c>
       <c r="H152" t="n">
-        <v>12.3064424687389</v>
+        <v>11.5173240135099</v>
       </c>
       <c r="I152" t="n">
-        <v>12.1879100976735</v>
+        <v>13.2552793512884</v>
       </c>
       <c r="J152" t="n">
-        <v>11.382833330872</v>
+        <v>10.9790512594405</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.59813021506142</v>
+        <v>9.13049116143466</v>
       </c>
       <c r="B153" t="n">
-        <v>10.2868733883497</v>
+        <v>11.152563171325</v>
       </c>
       <c r="C153" t="n">
-        <v>11.2253399078329</v>
+        <v>10.9829437932878</v>
       </c>
       <c r="D153" t="n">
-        <v>11.9468419100658</v>
+        <v>12.3221932301997</v>
       </c>
       <c r="E153" t="n">
-        <v>13.3288769201182</v>
+        <v>12.6554287904701</v>
       </c>
       <c r="F153" t="n">
-        <v>11.6426563418721</v>
+        <v>12.1445124927358</v>
       </c>
       <c r="G153" t="n">
-        <v>12.2610490592539</v>
+        <v>12.8260498868887</v>
       </c>
       <c r="H153" t="n">
-        <v>11.3517553235969</v>
+        <v>12.2875549745507</v>
       </c>
       <c r="I153" t="n">
-        <v>11.2559978477319</v>
+        <v>12.2428427417143</v>
       </c>
       <c r="J153" t="n">
-        <v>9.54458199423866</v>
+        <v>10.4331875184916</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>11.1058897272414</v>
+        <v>-4.3673278682867</v>
       </c>
       <c r="B154" t="n">
-        <v>10.5975287452462</v>
+        <v>-5.61582491306166</v>
       </c>
       <c r="C154" t="n">
-        <v>11.8131950569487</v>
+        <v>-5.09352454709436</v>
       </c>
       <c r="D154" t="n">
-        <v>12.5482410774484</v>
+        <v>-4.62244653394385</v>
       </c>
       <c r="E154" t="n">
-        <v>13.1248546773877</v>
+        <v>-3.65013985308628</v>
       </c>
       <c r="F154" t="n">
-        <v>13.3032355305538</v>
+        <v>-3.01576744194408</v>
       </c>
       <c r="G154" t="n">
-        <v>13.6929801535582</v>
+        <v>-0.673213982483274</v>
       </c>
       <c r="H154" t="n">
-        <v>12.7630392691879</v>
+        <v>1.58527850462619</v>
       </c>
       <c r="I154" t="n">
-        <v>10.7792367750734</v>
+        <v>3.93914037443386</v>
       </c>
       <c r="J154" t="n">
-        <v>11.0971649436242</v>
+        <v>7.13148719576962</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>12.7865918007592</v>
+        <v>9.8925239105519</v>
       </c>
       <c r="B155" t="n">
-        <v>10.6597366968621</v>
+        <v>12.3840796792685</v>
       </c>
       <c r="C155" t="n">
-        <v>10.7004225005801</v>
+        <v>11.1716951188486</v>
       </c>
       <c r="D155" t="n">
-        <v>11.3176080610908</v>
+        <v>11.3448633911104</v>
       </c>
       <c r="E155" t="n">
-        <v>12.3316856084698</v>
+        <v>12.2447559498073</v>
       </c>
       <c r="F155" t="n">
-        <v>11.5299197816217</v>
+        <v>12.3499388928207</v>
       </c>
       <c r="G155" t="n">
-        <v>12.9327623868992</v>
+        <v>12.9666089124049</v>
       </c>
       <c r="H155" t="n">
-        <v>12.7935855112759</v>
+        <v>11.1331988382807</v>
       </c>
       <c r="I155" t="n">
-        <v>10.3816275888717</v>
+        <v>10.3010631050599</v>
       </c>
       <c r="J155" t="n">
-        <v>11.1172616604965</v>
+        <v>10.56809504685</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.1896823124269</v>
+        <v>-4.98110616387073</v>
       </c>
       <c r="B156" t="n">
-        <v>11.038687955937</v>
+        <v>-4.89388121165036</v>
       </c>
       <c r="C156" t="n">
-        <v>12.2646266010198</v>
+        <v>-5.11539147661487</v>
       </c>
       <c r="D156" t="n">
-        <v>12.3428086171765</v>
+        <v>-4.92831293350568</v>
       </c>
       <c r="E156" t="n">
-        <v>13.8983241121821</v>
+        <v>-3.71445545176909</v>
       </c>
       <c r="F156" t="n">
-        <v>11.4819464069562</v>
+        <v>-2.41527148434127</v>
       </c>
       <c r="G156" t="n">
-        <v>12.8165399356208</v>
+        <v>-0.592133176439027</v>
       </c>
       <c r="H156" t="n">
-        <v>12.2998768197071</v>
+        <v>1.44199194282743</v>
       </c>
       <c r="I156" t="n">
-        <v>12.0696956424826</v>
+        <v>3.65938350663903</v>
       </c>
       <c r="J156" t="n">
-        <v>11.5886787923547</v>
+        <v>6.51500299580657</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.2826229620804</v>
+        <v>-4.88230110493907</v>
       </c>
       <c r="B157" t="n">
-        <v>10.366052451039</v>
+        <v>-5.4015225891951</v>
       </c>
       <c r="C157" t="n">
-        <v>11.8168169243481</v>
+        <v>-4.85375201254015</v>
       </c>
       <c r="D157" t="n">
-        <v>11.8304020994687</v>
+        <v>-4.73227439127955</v>
       </c>
       <c r="E157" t="n">
-        <v>13.4867858585502</v>
+        <v>-3.66864313959507</v>
       </c>
       <c r="F157" t="n">
-        <v>12.9275289490194</v>
+        <v>-1.98260343008583</v>
       </c>
       <c r="G157" t="n">
-        <v>12.65173355509</v>
+        <v>-0.860604975553115</v>
       </c>
       <c r="H157" t="n">
-        <v>10.8165608272137</v>
+        <v>1.36915170542173</v>
       </c>
       <c r="I157" t="n">
-        <v>11.07961258633</v>
+        <v>3.92527252801734</v>
       </c>
       <c r="J157" t="n">
-        <v>9.9649544845832</v>
+        <v>6.20905592466194</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.0871900828624</v>
+        <v>-4.67100027119418</v>
       </c>
       <c r="B158" t="n">
-        <v>9.23019955882937</v>
+        <v>-5.68765183672607</v>
       </c>
       <c r="C158" t="n">
-        <v>11.7730391354295</v>
+        <v>-5.34631605232056</v>
       </c>
       <c r="D158" t="n">
-        <v>12.0665088945459</v>
+        <v>-4.43139891143671</v>
       </c>
       <c r="E158" t="n">
-        <v>12.4910916066576</v>
+        <v>-3.72801496919126</v>
       </c>
       <c r="F158" t="n">
-        <v>12.316387639645</v>
+        <v>-2.43380608079272</v>
       </c>
       <c r="G158" t="n">
-        <v>10.9067988119493</v>
+        <v>-0.628093534982576</v>
       </c>
       <c r="H158" t="n">
-        <v>11.2137931777647</v>
+        <v>1.11669169723481</v>
       </c>
       <c r="I158" t="n">
-        <v>12.043414341138</v>
+        <v>4.02320276639735</v>
       </c>
       <c r="J158" t="n">
-        <v>9.61020542210441</v>
+        <v>6.77952985306887</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.3699587931127</v>
+        <v>-5.40333932424302</v>
       </c>
       <c r="B159" t="n">
-        <v>10.2345455974418</v>
+        <v>-5.54213358329948</v>
       </c>
       <c r="C159" t="n">
-        <v>11.1739306331979</v>
+        <v>-5.21757681873906</v>
       </c>
       <c r="D159" t="n">
-        <v>11.954649786918</v>
+        <v>-4.72392350164856</v>
       </c>
       <c r="E159" t="n">
-        <v>13.5800829983268</v>
+        <v>-4.35235649019474</v>
       </c>
       <c r="F159" t="n">
-        <v>12.0130426332398</v>
+        <v>-2.86129991073584</v>
       </c>
       <c r="G159" t="n">
-        <v>12.9363993522076</v>
+        <v>-0.568852488494279</v>
       </c>
       <c r="H159" t="n">
-        <v>13.2098103012947</v>
+        <v>1.30062931555527</v>
       </c>
       <c r="I159" t="n">
-        <v>12.3623535524651</v>
+        <v>4.01460332814203</v>
       </c>
       <c r="J159" t="n">
-        <v>10.2861416797175</v>
+        <v>6.6572019393243</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.3673761952766</v>
+        <v>9.67038086574085</v>
       </c>
       <c r="B160" t="n">
-        <v>11.1404120865933</v>
+        <v>10.7290806273583</v>
       </c>
       <c r="C160" t="n">
-        <v>12.1602734241547</v>
+        <v>12.5755281360755</v>
       </c>
       <c r="D160" t="n">
-        <v>11.2054611711222</v>
+        <v>12.496146232372</v>
       </c>
       <c r="E160" t="n">
-        <v>12.2512428650224</v>
+        <v>13.6365401121082</v>
       </c>
       <c r="F160" t="n">
-        <v>13.9298115001162</v>
+        <v>11.6202303026331</v>
       </c>
       <c r="G160" t="n">
-        <v>12.249714479479</v>
+        <v>12.5235301455015</v>
       </c>
       <c r="H160" t="n">
-        <v>13.5480602676084</v>
+        <v>10.4170507691908</v>
       </c>
       <c r="I160" t="n">
-        <v>12.5379460925929</v>
+        <v>12.0817859502653</v>
       </c>
       <c r="J160" t="n">
-        <v>10.9909022961609</v>
+        <v>11.2268532772461</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.5945475686223</v>
+        <v>8.89109294747466</v>
       </c>
       <c r="B161" t="n">
-        <v>11.6193318817713</v>
+        <v>11.1207233813624</v>
       </c>
       <c r="C161" t="n">
-        <v>10.3654290802035</v>
+        <v>11.219622984928</v>
       </c>
       <c r="D161" t="n">
-        <v>12.0173127081756</v>
+        <v>10.9113631415473</v>
       </c>
       <c r="E161" t="n">
-        <v>11.7909518883663</v>
+        <v>11.6164524032467</v>
       </c>
       <c r="F161" t="n">
-        <v>12.9149608807046</v>
+        <v>13.7813248209307</v>
       </c>
       <c r="G161" t="n">
-        <v>12.4792381445651</v>
+        <v>11.8330421352246</v>
       </c>
       <c r="H161" t="n">
-        <v>12.7214242833178</v>
+        <v>11.8827554621563</v>
       </c>
       <c r="I161" t="n">
-        <v>11.6642694382114</v>
+        <v>11.1889906546999</v>
       </c>
       <c r="J161" t="n">
-        <v>9.82106032255175</v>
+        <v>11.192296045617</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-5.09365400787272</v>
+        <v>-4.98439580395273</v>
       </c>
       <c r="B162" t="n">
-        <v>-5.83944913507871</v>
+        <v>-5.31403124394692</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.05105036150751</v>
+        <v>-4.94539955006373</v>
       </c>
       <c r="D162" t="n">
-        <v>-4.55500673175965</v>
+        <v>-4.87356437170399</v>
       </c>
       <c r="E162" t="n">
-        <v>-4.12331403521507</v>
+        <v>-3.81336478775339</v>
       </c>
       <c r="F162" t="n">
-        <v>-2.6354071446103</v>
+        <v>-2.66260824054515</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.77681802138594</v>
+        <v>-0.880222199921293</v>
       </c>
       <c r="H162" t="n">
-        <v>1.06609095951164</v>
+        <v>1.16020764778313</v>
       </c>
       <c r="I162" t="n">
-        <v>3.71622058193957</v>
+        <v>4.42194948073885</v>
       </c>
       <c r="J162" t="n">
-        <v>6.78193199545968</v>
+        <v>6.30815425149527</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8.75822007747758</v>
+        <v>10.9763530259323</v>
       </c>
       <c r="B163" t="n">
-        <v>11.0597510283945</v>
+        <v>10.3325416419857</v>
       </c>
       <c r="C163" t="n">
-        <v>12.2353463202872</v>
+        <v>10.5044008413219</v>
       </c>
       <c r="D163" t="n">
-        <v>13.0112653020551</v>
+        <v>11.6342173807118</v>
       </c>
       <c r="E163" t="n">
-        <v>12.2625834973024</v>
+        <v>11.7776215388922</v>
       </c>
       <c r="F163" t="n">
-        <v>12.335902212967</v>
+        <v>12.6595748166725</v>
       </c>
       <c r="G163" t="n">
-        <v>11.6616623455685</v>
+        <v>11.446559542549</v>
       </c>
       <c r="H163" t="n">
-        <v>11.6035372380341</v>
+        <v>13.3622157953306</v>
       </c>
       <c r="I163" t="n">
-        <v>11.8264930306705</v>
+        <v>10.5455236043683</v>
       </c>
       <c r="J163" t="n">
-        <v>10.0846268154568</v>
+        <v>11.348333422583</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.0171851988146</v>
+        <v>9.98565491073747</v>
       </c>
       <c r="B164" t="n">
-        <v>10.4726142172513</v>
+        <v>11.1924631957656</v>
       </c>
       <c r="C164" t="n">
-        <v>12.5245359493872</v>
+        <v>12.7693585044201</v>
       </c>
       <c r="D164" t="n">
-        <v>13.0872523548406</v>
+        <v>11.8505466032266</v>
       </c>
       <c r="E164" t="n">
-        <v>12.4902003635085</v>
+        <v>12.0397633451435</v>
       </c>
       <c r="F164" t="n">
-        <v>11.8296794407722</v>
+        <v>12.3607737007443</v>
       </c>
       <c r="G164" t="n">
-        <v>12.4875172200345</v>
+        <v>12.2496283650358</v>
       </c>
       <c r="H164" t="n">
-        <v>13.0117262724916</v>
+        <v>13.1240838867318</v>
       </c>
       <c r="I164" t="n">
-        <v>11.5147292559337</v>
+        <v>11.6727436393454</v>
       </c>
       <c r="J164" t="n">
-        <v>11.6342464989243</v>
+        <v>11.0814632541328</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.7076763758966</v>
+        <v>9.8456291941626</v>
       </c>
       <c r="B165" t="n">
-        <v>11.857241323738</v>
+        <v>10.7353145085181</v>
       </c>
       <c r="C165" t="n">
-        <v>11.3847629353856</v>
+        <v>12.1792703834603</v>
       </c>
       <c r="D165" t="n">
-        <v>11.8650575387177</v>
+        <v>12.6138720293091</v>
       </c>
       <c r="E165" t="n">
-        <v>12.7978078992856</v>
+        <v>13.235466390385</v>
       </c>
       <c r="F165" t="n">
-        <v>13.635931544839</v>
+        <v>12.0243701991904</v>
       </c>
       <c r="G165" t="n">
-        <v>11.1058719736304</v>
+        <v>12.7501649766771</v>
       </c>
       <c r="H165" t="n">
-        <v>12.0856546108098</v>
+        <v>11.0885245172603</v>
       </c>
       <c r="I165" t="n">
-        <v>11.6181465697957</v>
+        <v>11.2657467138684</v>
       </c>
       <c r="J165" t="n">
-        <v>11.6940300590656</v>
+        <v>11.6414246556341</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9.61019855438936</v>
+        <v>-5.33385527709647</v>
       </c>
       <c r="B166" t="n">
-        <v>10.9261444982828</v>
+        <v>-5.18776947973754</v>
       </c>
       <c r="C166" t="n">
-        <v>11.9510152944446</v>
+        <v>-5.31035127647838</v>
       </c>
       <c r="D166" t="n">
-        <v>10.2998667899876</v>
+        <v>-4.60247390625779</v>
       </c>
       <c r="E166" t="n">
-        <v>12.5431131798715</v>
+        <v>-3.91483706449367</v>
       </c>
       <c r="F166" t="n">
-        <v>11.2807313046347</v>
+        <v>-2.411633993678</v>
       </c>
       <c r="G166" t="n">
-        <v>12.4918919211199</v>
+        <v>-0.493317889517871</v>
       </c>
       <c r="H166" t="n">
-        <v>12.6230258767193</v>
+        <v>1.47231919767247</v>
       </c>
       <c r="I166" t="n">
-        <v>11.9094792314047</v>
+        <v>3.62383375856117</v>
       </c>
       <c r="J166" t="n">
-        <v>8.86880506238443</v>
+        <v>6.72897500143082</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.44369800340957</v>
+        <v>11.1474215248444</v>
       </c>
       <c r="B167" t="n">
-        <v>10.5112679705679</v>
+        <v>10.8943410956629</v>
       </c>
       <c r="C167" t="n">
-        <v>11.0046571996611</v>
+        <v>11.5706519299742</v>
       </c>
       <c r="D167" t="n">
-        <v>12.9979730570091</v>
+        <v>11.580919738093</v>
       </c>
       <c r="E167" t="n">
-        <v>13.6189813482897</v>
+        <v>12.4273736548594</v>
       </c>
       <c r="F167" t="n">
-        <v>13.9896382102762</v>
+        <v>13.2290394332162</v>
       </c>
       <c r="G167" t="n">
-        <v>12.1313235808818</v>
+        <v>13.1545423780597</v>
       </c>
       <c r="H167" t="n">
-        <v>11.54778318048</v>
+        <v>10.7664867052308</v>
       </c>
       <c r="I167" t="n">
-        <v>11.365728841599</v>
+        <v>11.6136310105871</v>
       </c>
       <c r="J167" t="n">
-        <v>10.9023521247532</v>
+        <v>10.1214092411955</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.93234830087381</v>
+        <v>8.6839763154452</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.42164200940372</v>
+        <v>11.2616736470322</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.18004740024185</v>
+        <v>11.5669873840435</v>
       </c>
       <c r="D168" t="n">
-        <v>-4.7191660490511</v>
+        <v>12.2629398524705</v>
       </c>
       <c r="E168" t="n">
-        <v>-3.52147300063377</v>
+        <v>12.8510584101047</v>
       </c>
       <c r="F168" t="n">
-        <v>-2.57343929958548</v>
+        <v>12.8575095767083</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.892709903183353</v>
+        <v>11.9906986151446</v>
       </c>
       <c r="H168" t="n">
-        <v>1.19260873978864</v>
+        <v>12.1680554417746</v>
       </c>
       <c r="I168" t="n">
-        <v>4.08196364532396</v>
+        <v>11.3131362786769</v>
       </c>
       <c r="J168" t="n">
-        <v>7.01870415006438</v>
+        <v>10.6492336359986</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9.67180339223411</v>
+        <v>10.8286712060225</v>
       </c>
       <c r="B169" t="n">
-        <v>10.682360427899</v>
+        <v>9.86949241381506</v>
       </c>
       <c r="C169" t="n">
-        <v>11.2374999589749</v>
+        <v>12.4083890815609</v>
       </c>
       <c r="D169" t="n">
-        <v>11.4597451637945</v>
+        <v>11.2393344075588</v>
       </c>
       <c r="E169" t="n">
-        <v>13.0395861642812</v>
+        <v>13.4668392536177</v>
       </c>
       <c r="F169" t="n">
-        <v>12.1418519772519</v>
+        <v>11.5109168578293</v>
       </c>
       <c r="G169" t="n">
-        <v>12.0833379836625</v>
+        <v>12.3778621675323</v>
       </c>
       <c r="H169" t="n">
-        <v>12.1498295088526</v>
+        <v>12.0450105549501</v>
       </c>
       <c r="I169" t="n">
-        <v>13.0347254245486</v>
+        <v>11.0957056894262</v>
       </c>
       <c r="J169" t="n">
-        <v>10.2556853042779</v>
+        <v>11.3067718072345</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.3861071021589</v>
+        <v>-5.14951514631975</v>
       </c>
       <c r="B170" t="n">
-        <v>10.1543431505017</v>
+        <v>-5.43927994908207</v>
       </c>
       <c r="C170" t="n">
-        <v>11.0748051133148</v>
+        <v>-5.4542780801978</v>
       </c>
       <c r="D170" t="n">
-        <v>12.3410707482491</v>
+        <v>-4.48382668656564</v>
       </c>
       <c r="E170" t="n">
-        <v>11.731662847786</v>
+        <v>-4.30242734129055</v>
       </c>
       <c r="F170" t="n">
-        <v>13.9337221095264</v>
+        <v>-2.62936844979531</v>
       </c>
       <c r="G170" t="n">
-        <v>11.8330164826292</v>
+        <v>-0.927702652389099</v>
       </c>
       <c r="H170" t="n">
-        <v>11.3483425326097</v>
+        <v>1.36531463224193</v>
       </c>
       <c r="I170" t="n">
-        <v>10.902187292367</v>
+        <v>3.88263923283454</v>
       </c>
       <c r="J170" t="n">
-        <v>11.4549741385961</v>
+        <v>6.55031198675383</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.16641643517655</v>
+        <v>11.3406880860304</v>
       </c>
       <c r="B171" t="n">
-        <v>11.5355463007403</v>
+        <v>11.2633896060995</v>
       </c>
       <c r="C171" t="n">
-        <v>12.7339415949196</v>
+        <v>10.9853774183257</v>
       </c>
       <c r="D171" t="n">
-        <v>11.4961821354318</v>
+        <v>12.1329806075927</v>
       </c>
       <c r="E171" t="n">
-        <v>11.8985150866601</v>
+        <v>12.5006136240673</v>
       </c>
       <c r="F171" t="n">
-        <v>13.2104229461653</v>
+        <v>11.4787154160257</v>
       </c>
       <c r="G171" t="n">
-        <v>12.5353919679592</v>
+        <v>12.5955327008739</v>
       </c>
       <c r="H171" t="n">
-        <v>11.7122557626917</v>
+        <v>12.9418026377911</v>
       </c>
       <c r="I171" t="n">
-        <v>12.9387015183566</v>
+        <v>11.1145794998353</v>
       </c>
       <c r="J171" t="n">
-        <v>9.936143992006</v>
+        <v>11.1235934845656</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10.0117400841125</v>
+        <v>-5.08897054680855</v>
       </c>
       <c r="B172" t="n">
-        <v>10.4460261588262</v>
+        <v>-5.12676943193008</v>
       </c>
       <c r="C172" t="n">
-        <v>12.1422979830004</v>
+        <v>-5.15238284563004</v>
       </c>
       <c r="D172" t="n">
-        <v>11.7690608645856</v>
+        <v>-5.02399184072857</v>
       </c>
       <c r="E172" t="n">
-        <v>12.3255968942327</v>
+        <v>-3.73420975535875</v>
       </c>
       <c r="F172" t="n">
-        <v>11.8741608424352</v>
+        <v>-2.36725785507887</v>
       </c>
       <c r="G172" t="n">
-        <v>12.0414738608537</v>
+        <v>-0.627072743923858</v>
       </c>
       <c r="H172" t="n">
-        <v>12.4636061547395</v>
+        <v>1.62182384791015</v>
       </c>
       <c r="I172" t="n">
-        <v>11.2557670837907</v>
+        <v>3.8530358244273</v>
       </c>
       <c r="J172" t="n">
-        <v>10.5092833233843</v>
+        <v>6.74227918130255</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>9.86646677185868</v>
+        <v>10.973617747841</v>
       </c>
       <c r="B173" t="n">
-        <v>10.9000351989718</v>
+        <v>9.38957061767524</v>
       </c>
       <c r="C173" t="n">
-        <v>10.7902015636648</v>
+        <v>11.3963433811524</v>
       </c>
       <c r="D173" t="n">
-        <v>12.1083922196635</v>
+        <v>11.168465521512</v>
       </c>
       <c r="E173" t="n">
-        <v>12.0813412773378</v>
+        <v>13.2121344465013</v>
       </c>
       <c r="F173" t="n">
-        <v>12.860366151975</v>
+        <v>12.8587237728128</v>
       </c>
       <c r="G173" t="n">
-        <v>12.208405234135</v>
+        <v>12.7097224760743</v>
       </c>
       <c r="H173" t="n">
-        <v>12.1688724458428</v>
+        <v>12.1976131308227</v>
       </c>
       <c r="I173" t="n">
-        <v>10.7386701041978</v>
+        <v>11.2280492658518</v>
       </c>
       <c r="J173" t="n">
-        <v>12.1303696872855</v>
+        <v>11.536664893083</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10.3428912620062</v>
+        <v>10.2909007242331</v>
       </c>
       <c r="B174" t="n">
-        <v>9.90777918313268</v>
+        <v>10.282601949945</v>
       </c>
       <c r="C174" t="n">
-        <v>10.9099514593337</v>
+        <v>11.6692900943765</v>
       </c>
       <c r="D174" t="n">
-        <v>12.7128301234445</v>
+        <v>12.3431675842616</v>
       </c>
       <c r="E174" t="n">
-        <v>10.9132499253448</v>
+        <v>12.2347789257452</v>
       </c>
       <c r="F174" t="n">
-        <v>13.3342000041869</v>
+        <v>12.2159427449247</v>
       </c>
       <c r="G174" t="n">
-        <v>10.8107556539519</v>
+        <v>12.246286868327</v>
       </c>
       <c r="H174" t="n">
-        <v>12.3105325339024</v>
+        <v>10.2592424750014</v>
       </c>
       <c r="I174" t="n">
-        <v>10.6524024059008</v>
+        <v>11.2963533216322</v>
       </c>
       <c r="J174" t="n">
-        <v>9.96783558615741</v>
+        <v>11.3221530707835</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-5.112389576894</v>
+        <v>9.80881318488038</v>
       </c>
       <c r="B175" t="n">
-        <v>-5.55724069931058</v>
+        <v>10.8734380180483</v>
       </c>
       <c r="C175" t="n">
-        <v>-5.18769986468582</v>
+        <v>11.5642034753213</v>
       </c>
       <c r="D175" t="n">
-        <v>-4.747638358601</v>
+        <v>11.4366143493144</v>
       </c>
       <c r="E175" t="n">
-        <v>-4.22666366844444</v>
+        <v>12.8075246588503</v>
       </c>
       <c r="F175" t="n">
-        <v>-2.56174980745912</v>
+        <v>12.7912196045935</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.873886960922724</v>
+        <v>12.3440637152769</v>
       </c>
       <c r="H175" t="n">
-        <v>0.945465423515713</v>
+        <v>13.1709904504184</v>
       </c>
       <c r="I175" t="n">
-        <v>3.77995288550374</v>
+        <v>10.9665642103163</v>
       </c>
       <c r="J175" t="n">
-        <v>7.20848718878953</v>
+        <v>11.3919719288821</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-4.97190314678963</v>
+        <v>10.6964718055096</v>
       </c>
       <c r="B176" t="n">
-        <v>-5.06879719549054</v>
+        <v>9.34636780410944</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.01819755255061</v>
+        <v>10.5308696348611</v>
       </c>
       <c r="D176" t="n">
-        <v>-4.49078146517227</v>
+        <v>12.5792472561928</v>
       </c>
       <c r="E176" t="n">
-        <v>-3.98232618829021</v>
+        <v>11.8249876837382</v>
       </c>
       <c r="F176" t="n">
-        <v>-2.76929824514239</v>
+        <v>12.7348154626502</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.496081384898457</v>
+        <v>11.9513424154072</v>
       </c>
       <c r="H176" t="n">
-        <v>1.49555763549361</v>
+        <v>11.7711644846229</v>
       </c>
       <c r="I176" t="n">
-        <v>4.17186932208208</v>
+        <v>12.1762561713565</v>
       </c>
       <c r="J176" t="n">
-        <v>6.85548822882291</v>
+        <v>11.2124716715421</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9.42831469279156</v>
+        <v>9.8268047694538</v>
       </c>
       <c r="B177" t="n">
-        <v>10.2896141713855</v>
+        <v>11.0753033294021</v>
       </c>
       <c r="C177" t="n">
-        <v>10.9258645099029</v>
+        <v>12.0737511104579</v>
       </c>
       <c r="D177" t="n">
-        <v>12.746266210726</v>
+        <v>13.0628045736721</v>
       </c>
       <c r="E177" t="n">
-        <v>12.0105592806575</v>
+        <v>12.4269324299858</v>
       </c>
       <c r="F177" t="n">
-        <v>12.1841252596321</v>
+        <v>13.5901217239382</v>
       </c>
       <c r="G177" t="n">
-        <v>12.4800089934604</v>
+        <v>12.3670182656471</v>
       </c>
       <c r="H177" t="n">
-        <v>12.6876192626643</v>
+        <v>12.0890427296053</v>
       </c>
       <c r="I177" t="n">
-        <v>11.4427421217061</v>
+        <v>10.7921870114174</v>
       </c>
       <c r="J177" t="n">
-        <v>10.0518787482375</v>
+        <v>10.4258585519471</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>10.0879566873588</v>
+        <v>-5.0527689887328</v>
       </c>
       <c r="B178" t="n">
-        <v>10.1582164933587</v>
+        <v>-5.1898889086675</v>
       </c>
       <c r="C178" t="n">
-        <v>12.5769180811843</v>
+        <v>-5.46933384742897</v>
       </c>
       <c r="D178" t="n">
-        <v>11.8708868631574</v>
+        <v>-4.31357475107484</v>
       </c>
       <c r="E178" t="n">
-        <v>12.8117557630402</v>
+        <v>-3.90909314744372</v>
       </c>
       <c r="F178" t="n">
-        <v>11.5880698033379</v>
+        <v>-2.6182492028633</v>
       </c>
       <c r="G178" t="n">
-        <v>10.6337632577851</v>
+        <v>-1.04163840477104</v>
       </c>
       <c r="H178" t="n">
-        <v>13.8730209546323</v>
+        <v>1.3173402505338</v>
       </c>
       <c r="I178" t="n">
-        <v>12.966024972479</v>
+        <v>4.13488576123283</v>
       </c>
       <c r="J178" t="n">
-        <v>11.2683601133859</v>
+        <v>6.65581194429816</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-4.84500289416444</v>
+        <v>10.4877415687499</v>
       </c>
       <c r="B179" t="n">
-        <v>-5.33545265214374</v>
+        <v>12.3803801082178</v>
       </c>
       <c r="C179" t="n">
-        <v>-5.54047079472934</v>
+        <v>11.8650471017802</v>
       </c>
       <c r="D179" t="n">
-        <v>-4.52061237482613</v>
+        <v>12.0880979139907</v>
       </c>
       <c r="E179" t="n">
-        <v>-4.06030751799525</v>
+        <v>12.7077678022476</v>
       </c>
       <c r="F179" t="n">
-        <v>-2.41043039319962</v>
+        <v>12.7619143053196</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.779070155030823</v>
+        <v>13.4302726517336</v>
       </c>
       <c r="H179" t="n">
-        <v>1.50239144675193</v>
+        <v>11.2434932734464</v>
       </c>
       <c r="I179" t="n">
-        <v>3.54766440749816</v>
+        <v>11.5778341760794</v>
       </c>
       <c r="J179" t="n">
-        <v>6.60235587130623</v>
+        <v>10.4999428497283</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>10.7192939802207</v>
+        <v>10.2942641506817</v>
       </c>
       <c r="B180" t="n">
-        <v>10.9477154607678</v>
+        <v>10.1367167159749</v>
       </c>
       <c r="C180" t="n">
-        <v>11.394268141299</v>
+        <v>11.2076847657094</v>
       </c>
       <c r="D180" t="n">
-        <v>12.2123397426898</v>
+        <v>12.0435738464322</v>
       </c>
       <c r="E180" t="n">
-        <v>11.9817686044046</v>
+        <v>13.2531934780964</v>
       </c>
       <c r="F180" t="n">
-        <v>12.6255916190472</v>
+        <v>12.5915748879006</v>
       </c>
       <c r="G180" t="n">
-        <v>11.8788701438853</v>
+        <v>12.8748593020181</v>
       </c>
       <c r="H180" t="n">
-        <v>11.7427932297526</v>
+        <v>12.7229205659569</v>
       </c>
       <c r="I180" t="n">
-        <v>12.2837654779985</v>
+        <v>11.2621882724343</v>
       </c>
       <c r="J180" t="n">
-        <v>10.5907467037147</v>
+        <v>10.2840533255219</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9.19386102042248</v>
+        <v>-4.95092399587434</v>
       </c>
       <c r="B181" t="n">
-        <v>11.4525750639525</v>
+        <v>-5.41466017153421</v>
       </c>
       <c r="C181" t="n">
-        <v>11.2850811103519</v>
+        <v>-5.17498556796326</v>
       </c>
       <c r="D181" t="n">
-        <v>12.1411473228547</v>
+        <v>-4.80864050613538</v>
       </c>
       <c r="E181" t="n">
-        <v>11.6979123764876</v>
+        <v>-3.70738236759283</v>
       </c>
       <c r="F181" t="n">
-        <v>12.9481037173196</v>
+        <v>-2.54495216775115</v>
       </c>
       <c r="G181" t="n">
-        <v>13.0344379075146</v>
+        <v>-0.367652851311158</v>
       </c>
       <c r="H181" t="n">
-        <v>12.0833429842499</v>
+        <v>1.68038544571556</v>
       </c>
       <c r="I181" t="n">
-        <v>11.1994568567453</v>
+        <v>3.69574246664304</v>
       </c>
       <c r="J181" t="n">
-        <v>10.1840285971023</v>
+        <v>6.72049128087358</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.1853721557183</v>
+        <v>10.0500021500315</v>
       </c>
       <c r="B182" t="n">
-        <v>12.9427954775255</v>
+        <v>9.37221191816234</v>
       </c>
       <c r="C182" t="n">
-        <v>13.0903288036584</v>
+        <v>11.2780696624124</v>
       </c>
       <c r="D182" t="n">
-        <v>11.919159062466</v>
+        <v>13.5814805891947</v>
       </c>
       <c r="E182" t="n">
-        <v>12.2267198151584</v>
+        <v>12.2739476511202</v>
       </c>
       <c r="F182" t="n">
-        <v>12.7736668765935</v>
+        <v>12.5270536071355</v>
       </c>
       <c r="G182" t="n">
-        <v>12.268115895204</v>
+        <v>11.7297009288793</v>
       </c>
       <c r="H182" t="n">
-        <v>12.2817382371082</v>
+        <v>11.7977081316472</v>
       </c>
       <c r="I182" t="n">
-        <v>11.6973052671199</v>
+        <v>12.6208971259677</v>
       </c>
       <c r="J182" t="n">
-        <v>11.5119548410244</v>
+        <v>11.3016656878933</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>10.2631788759693</v>
+        <v>-4.7936603042932</v>
       </c>
       <c r="B183" t="n">
-        <v>12.0945566846036</v>
+        <v>-5.30507469518753</v>
       </c>
       <c r="C183" t="n">
-        <v>12.1543986473821</v>
+        <v>-5.25820475456688</v>
       </c>
       <c r="D183" t="n">
-        <v>11.2240809291019</v>
+        <v>-4.81702346677833</v>
       </c>
       <c r="E183" t="n">
-        <v>12.5481761935315</v>
+        <v>-4.0778470162248</v>
       </c>
       <c r="F183" t="n">
-        <v>13.479152690476</v>
+        <v>-2.56791442253151</v>
       </c>
       <c r="G183" t="n">
-        <v>12.2395131751106</v>
+        <v>-0.764780540069433</v>
       </c>
       <c r="H183" t="n">
-        <v>12.3039671867403</v>
+        <v>1.50468551421805</v>
       </c>
       <c r="I183" t="n">
-        <v>11.4248835483307</v>
+        <v>3.60616332892226</v>
       </c>
       <c r="J183" t="n">
-        <v>10.9129242225518</v>
+        <v>6.83659891121347</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10.6464276210081</v>
+        <v>10.7066712708602</v>
       </c>
       <c r="B184" t="n">
-        <v>11.3871871988628</v>
+        <v>10.8488961059325</v>
       </c>
       <c r="C184" t="n">
-        <v>10.8985238125006</v>
+        <v>10.1633405063263</v>
       </c>
       <c r="D184" t="n">
-        <v>11.4063345562762</v>
+        <v>13.6319871360665</v>
       </c>
       <c r="E184" t="n">
-        <v>12.1596082051673</v>
+        <v>12.4134136739577</v>
       </c>
       <c r="F184" t="n">
-        <v>12.3028614869572</v>
+        <v>13.5038496785285</v>
       </c>
       <c r="G184" t="n">
-        <v>13.7597058863136</v>
+        <v>12.6693638389613</v>
       </c>
       <c r="H184" t="n">
-        <v>11.263053258037</v>
+        <v>11.9267250315055</v>
       </c>
       <c r="I184" t="n">
-        <v>13.3641783178376</v>
+        <v>11.4604439715968</v>
       </c>
       <c r="J184" t="n">
-        <v>10.6222493834132</v>
+        <v>10.9343636616188</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.6036155267464</v>
+        <v>-4.96427185543776</v>
       </c>
       <c r="B185" t="n">
-        <v>11.2372006056705</v>
+        <v>-5.12735859187653</v>
       </c>
       <c r="C185" t="n">
-        <v>12.9915856840224</v>
+        <v>-5.65206834966283</v>
       </c>
       <c r="D185" t="n">
-        <v>12.2013872886763</v>
+        <v>-4.48296544755225</v>
       </c>
       <c r="E185" t="n">
-        <v>11.8648364675259</v>
+        <v>-3.68524959636783</v>
       </c>
       <c r="F185" t="n">
-        <v>12.501671279459</v>
+        <v>-2.45635102674957</v>
       </c>
       <c r="G185" t="n">
-        <v>11.551830259992</v>
+        <v>-0.515196913925335</v>
       </c>
       <c r="H185" t="n">
-        <v>12.1171873733836</v>
+        <v>1.45494280006774</v>
       </c>
       <c r="I185" t="n">
-        <v>12.7810939485344</v>
+        <v>3.75625762765238</v>
       </c>
       <c r="J185" t="n">
-        <v>10.7343958801911</v>
+        <v>6.49853106357583</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>10.7171531286766</v>
+        <v>10.9121955616109</v>
       </c>
       <c r="B186" t="n">
-        <v>11.7110783289343</v>
+        <v>10.210648122229</v>
       </c>
       <c r="C186" t="n">
-        <v>11.6688995060593</v>
+        <v>11.9666541555533</v>
       </c>
       <c r="D186" t="n">
-        <v>12.1258859191086</v>
+        <v>11.7788113053165</v>
       </c>
       <c r="E186" t="n">
-        <v>12.415969766408</v>
+        <v>12.77938212794</v>
       </c>
       <c r="F186" t="n">
-        <v>12.2953801419792</v>
+        <v>12.6143876779436</v>
       </c>
       <c r="G186" t="n">
-        <v>11.5152157270169</v>
+        <v>12.6649168788464</v>
       </c>
       <c r="H186" t="n">
-        <v>11.2494631916251</v>
+        <v>11.8513961939952</v>
       </c>
       <c r="I186" t="n">
-        <v>11.5227176201625</v>
+        <v>11.8021480962504</v>
       </c>
       <c r="J186" t="n">
-        <v>9.97089424127187</v>
+        <v>10.2291131706245</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10.5172483265257</v>
+        <v>-4.88394885574959</v>
       </c>
       <c r="B187" t="n">
-        <v>10.4679967308391</v>
+        <v>-4.93249427110791</v>
       </c>
       <c r="C187" t="n">
-        <v>10.8895015704636</v>
+        <v>-4.87854525622349</v>
       </c>
       <c r="D187" t="n">
-        <v>11.7450958016855</v>
+        <v>-4.49030575938466</v>
       </c>
       <c r="E187" t="n">
-        <v>11.7916186002106</v>
+        <v>-3.67439251229446</v>
       </c>
       <c r="F187" t="n">
-        <v>12.785114102331</v>
+        <v>-2.29957778952087</v>
       </c>
       <c r="G187" t="n">
-        <v>12.8727389744483</v>
+        <v>-1.01631646910083</v>
       </c>
       <c r="H187" t="n">
-        <v>11.6678991792647</v>
+        <v>1.20448943891673</v>
       </c>
       <c r="I187" t="n">
-        <v>11.1761043273538</v>
+        <v>3.56108074299325</v>
       </c>
       <c r="J187" t="n">
-        <v>10.3170961690428</v>
+        <v>7.07235165325268</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>11.0197862052307</v>
+        <v>-4.88582520547471</v>
       </c>
       <c r="B188" t="n">
-        <v>9.38013706391061</v>
+        <v>-5.5977347060585</v>
       </c>
       <c r="C188" t="n">
-        <v>12.2128191707824</v>
+        <v>-4.982280944475</v>
       </c>
       <c r="D188" t="n">
-        <v>11.2763721696681</v>
+        <v>-3.97766257555213</v>
       </c>
       <c r="E188" t="n">
-        <v>12.7759108868642</v>
+        <v>-3.99661772707674</v>
       </c>
       <c r="F188" t="n">
-        <v>11.8434096235131</v>
+        <v>-2.36275077447048</v>
       </c>
       <c r="G188" t="n">
-        <v>14.0807847790936</v>
+        <v>-0.50500940602082</v>
       </c>
       <c r="H188" t="n">
-        <v>12.7319497762276</v>
+        <v>1.23175979515243</v>
       </c>
       <c r="I188" t="n">
-        <v>11.4076672085486</v>
+        <v>3.29042681589272</v>
       </c>
       <c r="J188" t="n">
-        <v>11.2709560849294</v>
+        <v>6.29691447275756</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9.81229330878489</v>
+        <v>9.70525566229801</v>
       </c>
       <c r="B189" t="n">
-        <v>10.5465986769809</v>
+        <v>10.6205019415409</v>
       </c>
       <c r="C189" t="n">
-        <v>10.6950800670344</v>
+        <v>12.156316105274</v>
       </c>
       <c r="D189" t="n">
-        <v>12.9617593094749</v>
+        <v>11.779201944918</v>
       </c>
       <c r="E189" t="n">
-        <v>11.3499047184669</v>
+        <v>13.2538324120939</v>
       </c>
       <c r="F189" t="n">
-        <v>13.589381277964</v>
+        <v>12.4874327233593</v>
       </c>
       <c r="G189" t="n">
-        <v>11.5492181649844</v>
+        <v>12.385880847552</v>
       </c>
       <c r="H189" t="n">
-        <v>11.8632791576707</v>
+        <v>10.9993538407521</v>
       </c>
       <c r="I189" t="n">
-        <v>11.3169947033068</v>
+        <v>12.541882013842</v>
       </c>
       <c r="J189" t="n">
-        <v>9.40213281631384</v>
+        <v>10.1124641942023</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-5.06830928681361</v>
+        <v>10.1042178772654</v>
       </c>
       <c r="B190" t="n">
-        <v>-5.03375862520424</v>
+        <v>10.5481498688843</v>
       </c>
       <c r="C190" t="n">
-        <v>-5.43313057960065</v>
+        <v>12.0700238457615</v>
       </c>
       <c r="D190" t="n">
-        <v>-4.4390137309423</v>
+        <v>11.1889897865194</v>
       </c>
       <c r="E190" t="n">
-        <v>-3.90514502390481</v>
+        <v>11.5456874859515</v>
       </c>
       <c r="F190" t="n">
-        <v>-2.24570052700585</v>
+        <v>12.6205501402044</v>
       </c>
       <c r="G190" t="n">
-        <v>-1.00684164484524</v>
+        <v>13.1021794383324</v>
       </c>
       <c r="H190" t="n">
-        <v>1.13968670971338</v>
+        <v>12.7514382515952</v>
       </c>
       <c r="I190" t="n">
-        <v>3.77541602491143</v>
+        <v>10.4496958056337</v>
       </c>
       <c r="J190" t="n">
-        <v>6.58425827480914</v>
+        <v>12.0339416045549</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>11.1708083251449</v>
+        <v>-4.7725546717456</v>
       </c>
       <c r="B191" t="n">
-        <v>10.9946542694347</v>
+        <v>-4.89120982784718</v>
       </c>
       <c r="C191" t="n">
-        <v>11.712786115911</v>
+        <v>-5.19630790284208</v>
       </c>
       <c r="D191" t="n">
-        <v>12.9688117524348</v>
+        <v>-4.80978931442452</v>
       </c>
       <c r="E191" t="n">
-        <v>11.661720781771</v>
+        <v>-4.00535370388276</v>
       </c>
       <c r="F191" t="n">
-        <v>11.4072746865937</v>
+        <v>-2.75527910908017</v>
       </c>
       <c r="G191" t="n">
-        <v>11.4984107226481</v>
+        <v>-0.871701503325497</v>
       </c>
       <c r="H191" t="n">
-        <v>12.7416585912577</v>
+        <v>1.3169018052734</v>
       </c>
       <c r="I191" t="n">
-        <v>11.0414344533975</v>
+        <v>3.83229778544495</v>
       </c>
       <c r="J191" t="n">
-        <v>11.2023241915444</v>
+        <v>6.48780200436858</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.4439988345402</v>
+        <v>10.1377301545109</v>
       </c>
       <c r="B192" t="n">
-        <v>11.110913598616</v>
+        <v>10.4759103067683</v>
       </c>
       <c r="C192" t="n">
-        <v>10.9183327675568</v>
+        <v>12.1278952170066</v>
       </c>
       <c r="D192" t="n">
-        <v>12.5541026714983</v>
+        <v>12.1199797098531</v>
       </c>
       <c r="E192" t="n">
-        <v>13.0218634082276</v>
+        <v>11.5440602350888</v>
       </c>
       <c r="F192" t="n">
-        <v>11.8333045776404</v>
+        <v>12.8900904085526</v>
       </c>
       <c r="G192" t="n">
-        <v>12.0390550318143</v>
+        <v>12.7750328543838</v>
       </c>
       <c r="H192" t="n">
-        <v>11.682936602698</v>
+        <v>12.6981967597652</v>
       </c>
       <c r="I192" t="n">
-        <v>12.6895575925828</v>
+        <v>12.1611337652006</v>
       </c>
       <c r="J192" t="n">
-        <v>10.3425818509825</v>
+        <v>12.0975142333981</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.513643201626</v>
+        <v>8.93104904069589</v>
       </c>
       <c r="B193" t="n">
-        <v>10.0218155457157</v>
+        <v>9.62783688462687</v>
       </c>
       <c r="C193" t="n">
-        <v>11.8264623940057</v>
+        <v>11.9420828251312</v>
       </c>
       <c r="D193" t="n">
-        <v>11.9103756796792</v>
+        <v>10.9033359063027</v>
       </c>
       <c r="E193" t="n">
-        <v>13.3755577579523</v>
+        <v>11.1333470700853</v>
       </c>
       <c r="F193" t="n">
-        <v>11.991651075679</v>
+        <v>12.8060267693745</v>
       </c>
       <c r="G193" t="n">
-        <v>10.8273603557787</v>
+        <v>12.6171617708499</v>
       </c>
       <c r="H193" t="n">
-        <v>12.7789944785708</v>
+        <v>13.1870519157346</v>
       </c>
       <c r="I193" t="n">
-        <v>11.1276183442069</v>
+        <v>11.8580436136812</v>
       </c>
       <c r="J193" t="n">
-        <v>10.3151598156265</v>
+        <v>10.0168192471695</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9.9648492103155</v>
+        <v>9.63535312687159</v>
       </c>
       <c r="B194" t="n">
-        <v>9.87895680989075</v>
+        <v>10.9881242603626</v>
       </c>
       <c r="C194" t="n">
-        <v>11.8222457276612</v>
+        <v>11.3413060711462</v>
       </c>
       <c r="D194" t="n">
-        <v>11.1149975171949</v>
+        <v>11.3144930763854</v>
       </c>
       <c r="E194" t="n">
-        <v>12.8838203144144</v>
+        <v>12.2160670813692</v>
       </c>
       <c r="F194" t="n">
-        <v>12.0269575038236</v>
+        <v>12.668560278301</v>
       </c>
       <c r="G194" t="n">
-        <v>12.6464259865565</v>
+        <v>11.6706504867643</v>
       </c>
       <c r="H194" t="n">
-        <v>11.4894962234424</v>
+        <v>11.4580769839143</v>
       </c>
       <c r="I194" t="n">
-        <v>11.2112866936425</v>
+        <v>11.255952848498</v>
       </c>
       <c r="J194" t="n">
-        <v>11.0153139335429</v>
+        <v>11.3466915611234</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>10.1880947488863</v>
+        <v>9.38863245137246</v>
       </c>
       <c r="B195" t="n">
-        <v>8.84947925697491</v>
+        <v>12.1376696497038</v>
       </c>
       <c r="C195" t="n">
-        <v>12.0028971689845</v>
+        <v>10.3819019023075</v>
       </c>
       <c r="D195" t="n">
-        <v>11.31227591973</v>
+        <v>11.6790430443118</v>
       </c>
       <c r="E195" t="n">
-        <v>13.1494286305016</v>
+        <v>11.9493167787598</v>
       </c>
       <c r="F195" t="n">
-        <v>12.6940878212869</v>
+        <v>11.7235308214856</v>
       </c>
       <c r="G195" t="n">
-        <v>13.647309736439</v>
+        <v>13.3703129747144</v>
       </c>
       <c r="H195" t="n">
-        <v>11.317556040509</v>
+        <v>12.0207156118674</v>
       </c>
       <c r="I195" t="n">
-        <v>11.9887055223357</v>
+        <v>10.2682477009537</v>
       </c>
       <c r="J195" t="n">
-        <v>10.0473340260602</v>
+        <v>11.6946915984378</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.79651150028973</v>
+        <v>-4.920953702193</v>
       </c>
       <c r="B196" t="n">
-        <v>10.3227089569484</v>
+        <v>-5.75368670945367</v>
       </c>
       <c r="C196" t="n">
-        <v>9.87774034064991</v>
+        <v>-5.39567850608925</v>
       </c>
       <c r="D196" t="n">
-        <v>12.2254474776761</v>
+        <v>-5.26632731091016</v>
       </c>
       <c r="E196" t="n">
-        <v>11.0402028513586</v>
+        <v>-3.97489706349122</v>
       </c>
       <c r="F196" t="n">
-        <v>12.8120872685956</v>
+        <v>-2.2275631747423</v>
       </c>
       <c r="G196" t="n">
-        <v>11.934252535159</v>
+        <v>-0.877133867266018</v>
       </c>
       <c r="H196" t="n">
-        <v>12.5942951759134</v>
+        <v>1.46472589610409</v>
       </c>
       <c r="I196" t="n">
-        <v>12.1088810057275</v>
+        <v>3.63759546113646</v>
       </c>
       <c r="J196" t="n">
-        <v>9.18512541739385</v>
+        <v>6.49182598844365</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-5.45093275737858</v>
+        <v>10.5419418246612</v>
       </c>
       <c r="B197" t="n">
-        <v>-4.83186729291601</v>
+        <v>9.83581821008862</v>
       </c>
       <c r="C197" t="n">
-        <v>-4.9857868372328</v>
+        <v>12.2586711139469</v>
       </c>
       <c r="D197" t="n">
-        <v>-4.78425337519409</v>
+        <v>11.5032886500839</v>
       </c>
       <c r="E197" t="n">
-        <v>-3.65352424583569</v>
+        <v>11.5079618270373</v>
       </c>
       <c r="F197" t="n">
-        <v>-2.50934776162853</v>
+        <v>13.0576698798625</v>
       </c>
       <c r="G197" t="n">
-        <v>-0.663451195473829</v>
+        <v>13.07099998387</v>
       </c>
       <c r="H197" t="n">
-        <v>1.72532233767183</v>
+        <v>12.2667034777068</v>
       </c>
       <c r="I197" t="n">
-        <v>4.04011630344967</v>
+        <v>10.8456681610342</v>
       </c>
       <c r="J197" t="n">
-        <v>6.85200866312771</v>
+        <v>10.3496632249918</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.93853109785033</v>
+        <v>-4.64064696408848</v>
       </c>
       <c r="B198" t="n">
-        <v>10.7461386112258</v>
+        <v>-4.85909737234785</v>
       </c>
       <c r="C198" t="n">
-        <v>11.106636488718</v>
+        <v>-5.03456291157033</v>
       </c>
       <c r="D198" t="n">
-        <v>12.9087557773969</v>
+        <v>-4.46201055161198</v>
       </c>
       <c r="E198" t="n">
-        <v>12.6178156753999</v>
+        <v>-3.59156993766864</v>
       </c>
       <c r="F198" t="n">
-        <v>12.9040385087192</v>
+        <v>-2.36378869561626</v>
       </c>
       <c r="G198" t="n">
-        <v>13.8662712707157</v>
+        <v>-1.21728594588294</v>
       </c>
       <c r="H198" t="n">
-        <v>11.3030656016976</v>
+        <v>1.16600398208565</v>
       </c>
       <c r="I198" t="n">
-        <v>12.4424711702076</v>
+        <v>4.10575228986854</v>
       </c>
       <c r="J198" t="n">
-        <v>10.0274237137828</v>
+        <v>6.43817608859803</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-4.64413880268872</v>
+        <v>10.0880831240917</v>
       </c>
       <c r="B199" t="n">
-        <v>-5.12803088899826</v>
+        <v>10.3887103365666</v>
       </c>
       <c r="C199" t="n">
-        <v>-5.01465347616362</v>
+        <v>11.787520917861</v>
       </c>
       <c r="D199" t="n">
-        <v>-4.42630031257509</v>
+        <v>11.8721071674538</v>
       </c>
       <c r="E199" t="n">
-        <v>-3.54274770806942</v>
+        <v>13.6399467305503</v>
       </c>
       <c r="F199" t="n">
-        <v>-2.66507656226222</v>
+        <v>12.2538196372667</v>
       </c>
       <c r="G199" t="n">
-        <v>-0.643812918946912</v>
+        <v>12.6739226286427</v>
       </c>
       <c r="H199" t="n">
-        <v>1.25503705635408</v>
+        <v>11.5757088063158</v>
       </c>
       <c r="I199" t="n">
-        <v>3.9498156843596</v>
+        <v>11.1699832341702</v>
       </c>
       <c r="J199" t="n">
-        <v>6.47813987356371</v>
+        <v>10.3409668565349</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-4.93174808833956</v>
+        <v>-5.27863229955686</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.14653735838551</v>
+        <v>-5.19485253104877</v>
       </c>
       <c r="C200" t="n">
-        <v>-5.23107655751419</v>
+        <v>-5.16059721508145</v>
       </c>
       <c r="D200" t="n">
-        <v>-4.52112587506171</v>
+        <v>-4.46851699404334</v>
       </c>
       <c r="E200" t="n">
-        <v>-3.36678041632317</v>
+        <v>-3.82456935512639</v>
       </c>
       <c r="F200" t="n">
-        <v>-2.41271959827782</v>
+        <v>-2.20577944569867</v>
       </c>
       <c r="G200" t="n">
-        <v>-1.18475984059835</v>
+        <v>-0.79846876383115</v>
       </c>
       <c r="H200" t="n">
-        <v>1.61125543919284</v>
+        <v>1.22009929701377</v>
       </c>
       <c r="I200" t="n">
-        <v>3.96281138601895</v>
+        <v>3.57589185619705</v>
       </c>
       <c r="J200" t="n">
-        <v>6.81676328204196</v>
+        <v>6.19534394535913</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>10.3990281412353</v>
+        <v>9.1543996937113</v>
       </c>
       <c r="B201" t="n">
-        <v>11.5797674697257</v>
+        <v>10.4895796576935</v>
       </c>
       <c r="C201" t="n">
-        <v>12.7819100045433</v>
+        <v>11.4447381166722</v>
       </c>
       <c r="D201" t="n">
-        <v>11.5313257565953</v>
+        <v>12.204968982961</v>
       </c>
       <c r="E201" t="n">
-        <v>12.4543128690789</v>
+        <v>11.4276494517793</v>
       </c>
       <c r="F201" t="n">
-        <v>11.7321127683566</v>
+        <v>12.5909941672017</v>
       </c>
       <c r="G201" t="n">
-        <v>10.9758675822009</v>
+        <v>11.7780622218033</v>
       </c>
       <c r="H201" t="n">
-        <v>12.4203325555389</v>
+        <v>12.6458722607785</v>
       </c>
       <c r="I201" t="n">
-        <v>12.1101253357732</v>
+        <v>11.2038000104235</v>
       </c>
       <c r="J201" t="n">
-        <v>11.1934499471827</v>
+        <v>12.1420276622126</v>
       </c>
     </row>
   </sheetData>
